--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -715,25 +715,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>139400</v>
+        <v>131200</v>
       </c>
       <c r="E8" s="3">
-        <v>108100</v>
+        <v>101800</v>
       </c>
       <c r="F8" s="3">
-        <v>58700</v>
+        <v>55300</v>
       </c>
       <c r="G8" s="3">
-        <v>36900</v>
+        <v>34700</v>
       </c>
       <c r="H8" s="3">
-        <v>15800</v>
+        <v>14900</v>
       </c>
       <c r="I8" s="3">
-        <v>12400</v>
+        <v>11700</v>
       </c>
       <c r="J8" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12200</v>
+        <v>11500</v>
       </c>
       <c r="E9" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="F9" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="G9" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="H9" s="3">
         <v>1100</v>
@@ -775,25 +775,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>127200</v>
+        <v>119700</v>
       </c>
       <c r="E10" s="3">
-        <v>98400</v>
+        <v>92700</v>
       </c>
       <c r="F10" s="3">
-        <v>53500</v>
+        <v>50300</v>
       </c>
       <c r="G10" s="3">
-        <v>34200</v>
+        <v>32200</v>
       </c>
       <c r="H10" s="3">
-        <v>14700</v>
+        <v>13800</v>
       </c>
       <c r="I10" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="J10" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -909,25 +909,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30000</v>
+        <v>28300</v>
       </c>
       <c r="E15" s="3">
-        <v>26400</v>
+        <v>24900</v>
       </c>
       <c r="F15" s="3">
-        <v>14700</v>
+        <v>13800</v>
       </c>
       <c r="G15" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="H15" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="I15" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="J15" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>60700</v>
+        <v>57100</v>
       </c>
       <c r="E17" s="3">
-        <v>52800</v>
+        <v>49700</v>
       </c>
       <c r="F17" s="3">
-        <v>31200</v>
+        <v>29300</v>
       </c>
       <c r="G17" s="3">
-        <v>21800</v>
+        <v>20500</v>
       </c>
       <c r="H17" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="I17" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="J17" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -980,25 +980,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>78700</v>
+        <v>74100</v>
       </c>
       <c r="E18" s="3">
-        <v>55300</v>
+        <v>52100</v>
       </c>
       <c r="F18" s="3">
-        <v>27600</v>
+        <v>26000</v>
       </c>
       <c r="G18" s="3">
-        <v>15100</v>
+        <v>14200</v>
       </c>
       <c r="H18" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="I18" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="J18" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1024,25 +1024,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
         <v>-1500</v>
       </c>
       <c r="F20" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="G20" s="3">
-        <v>-12000</v>
+        <v>-11300</v>
       </c>
       <c r="H20" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="I20" s="3">
-        <v>-11000</v>
+        <v>-10400</v>
       </c>
       <c r="J20" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>110900</v>
+        <v>104300</v>
       </c>
       <c r="E21" s="3">
-        <v>80200</v>
+        <v>75400</v>
       </c>
       <c r="F21" s="3">
-        <v>44700</v>
+        <v>42100</v>
       </c>
       <c r="G21" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="H21" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I21" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="J21" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1084,25 +1084,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>76800</v>
+        <v>72300</v>
       </c>
       <c r="E22" s="3">
-        <v>71700</v>
+        <v>67500</v>
       </c>
       <c r="F22" s="3">
-        <v>34200</v>
+        <v>32200</v>
       </c>
       <c r="G22" s="3">
-        <v>21700</v>
+        <v>20500</v>
       </c>
       <c r="H22" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="I22" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J22" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1114,25 +1114,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E23" s="3">
-        <v>-17900</v>
+        <v>-16900</v>
       </c>
       <c r="F23" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="G23" s="3">
-        <v>-18600</v>
+        <v>-17500</v>
       </c>
       <c r="H23" s="3">
-        <v>-11700</v>
+        <v>-11000</v>
       </c>
       <c r="I23" s="3">
-        <v>-10700</v>
+        <v>-10000</v>
       </c>
       <c r="J23" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1144,25 +1144,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F24" s="3">
-        <v>12500</v>
+        <v>11800</v>
       </c>
       <c r="G24" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="H24" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1204,25 +1204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E26" s="3">
-        <v>-15900</v>
+        <v>-15000</v>
       </c>
       <c r="F26" s="3">
-        <v>-16700</v>
+        <v>-15800</v>
       </c>
       <c r="G26" s="3">
-        <v>-23200</v>
+        <v>-21900</v>
       </c>
       <c r="H26" s="3">
-        <v>-15300</v>
+        <v>-14400</v>
       </c>
       <c r="I26" s="3">
-        <v>-10900</v>
+        <v>-10300</v>
       </c>
       <c r="J26" s="3">
-        <v>-8200</v>
+        <v>-7700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1234,25 +1234,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="3">
-        <v>-13200</v>
+        <v>-12400</v>
       </c>
       <c r="F27" s="3">
-        <v>-20400</v>
+        <v>-19200</v>
       </c>
       <c r="G27" s="3">
-        <v>-42500</v>
+        <v>-40000</v>
       </c>
       <c r="H27" s="3">
-        <v>-25800</v>
+        <v>-24300</v>
       </c>
       <c r="I27" s="3">
-        <v>-15700</v>
+        <v>-14700</v>
       </c>
       <c r="J27" s="3">
-        <v>-12100</v>
+        <v>-11400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1384,25 +1384,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="E32" s="3">
         <v>1500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="G32" s="3">
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="H32" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="I32" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="J32" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1414,25 +1414,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E33" s="3">
-        <v>-11600</v>
+        <v>-10900</v>
       </c>
       <c r="F33" s="3">
-        <v>-20400</v>
+        <v>-19200</v>
       </c>
       <c r="G33" s="3">
-        <v>-42500</v>
+        <v>-40000</v>
       </c>
       <c r="H33" s="3">
-        <v>-25800</v>
+        <v>-24300</v>
       </c>
       <c r="I33" s="3">
-        <v>-15700</v>
+        <v>-14700</v>
       </c>
       <c r="J33" s="3">
-        <v>-12100</v>
+        <v>-11400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1474,25 +1474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="3">
-        <v>-11600</v>
+        <v>-10900</v>
       </c>
       <c r="F35" s="3">
-        <v>-20400</v>
+        <v>-19200</v>
       </c>
       <c r="G35" s="3">
-        <v>-42500</v>
+        <v>-40000</v>
       </c>
       <c r="H35" s="3">
-        <v>-25800</v>
+        <v>-24300</v>
       </c>
       <c r="I35" s="3">
-        <v>-15700</v>
+        <v>-14700</v>
       </c>
       <c r="J35" s="3">
-        <v>-12100</v>
+        <v>-11400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1567,25 +1567,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35700</v>
+        <v>33600</v>
       </c>
       <c r="E41" s="3">
-        <v>22900</v>
+        <v>21600</v>
       </c>
       <c r="F41" s="3">
-        <v>64800</v>
+        <v>61000</v>
       </c>
       <c r="G41" s="3">
-        <v>39300</v>
+        <v>37000</v>
       </c>
       <c r="H41" s="3">
-        <v>27400</v>
+        <v>25800</v>
       </c>
       <c r="I41" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="J41" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1597,25 +1597,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>112400</v>
+        <v>105900</v>
       </c>
       <c r="E42" s="3">
-        <v>113700</v>
+        <v>107100</v>
       </c>
       <c r="F42" s="3">
-        <v>58200</v>
+        <v>54800</v>
       </c>
       <c r="G42" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="H42" s="3">
         <v>1300</v>
       </c>
       <c r="I42" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="J42" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1627,25 +1627,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>49800</v>
+        <v>47000</v>
       </c>
       <c r="E43" s="3">
-        <v>34700</v>
+        <v>32700</v>
       </c>
       <c r="F43" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="G43" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="H43" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="I43" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="J43" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1687,25 +1687,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46400</v>
+        <v>43700</v>
       </c>
       <c r="E45" s="3">
-        <v>45900</v>
+        <v>43300</v>
       </c>
       <c r="F45" s="3">
-        <v>57000</v>
+        <v>53700</v>
       </c>
       <c r="G45" s="3">
-        <v>18400</v>
+        <v>17300</v>
       </c>
       <c r="H45" s="3">
-        <v>14300</v>
+        <v>13500</v>
       </c>
       <c r="I45" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J45" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1717,25 +1717,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>244300</v>
+        <v>230200</v>
       </c>
       <c r="E46" s="3">
-        <v>217300</v>
+        <v>204700</v>
       </c>
       <c r="F46" s="3">
-        <v>196900</v>
+        <v>185500</v>
       </c>
       <c r="G46" s="3">
-        <v>70000</v>
+        <v>66000</v>
       </c>
       <c r="H46" s="3">
-        <v>46500</v>
+        <v>43800</v>
       </c>
       <c r="I46" s="3">
-        <v>27300</v>
+        <v>25800</v>
       </c>
       <c r="J46" s="3">
-        <v>21900</v>
+        <v>20600</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1747,22 +1747,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I47" s="3">
         <v>1300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1400</v>
       </c>
       <c r="J47" s="3">
         <v>500</v>
@@ -1777,25 +1777,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1171600</v>
+        <v>1104000</v>
       </c>
       <c r="E48" s="3">
-        <v>794400</v>
+        <v>748600</v>
       </c>
       <c r="F48" s="3">
-        <v>574800</v>
+        <v>541700</v>
       </c>
       <c r="G48" s="3">
-        <v>342300</v>
+        <v>322600</v>
       </c>
       <c r="H48" s="3">
-        <v>212600</v>
+        <v>200400</v>
       </c>
       <c r="I48" s="3">
-        <v>84700</v>
+        <v>79800</v>
       </c>
       <c r="J48" s="3">
-        <v>82800</v>
+        <v>78100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="E49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H49" s="3">
         <v>1300</v>
@@ -1897,25 +1897,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>104400</v>
+        <v>98400</v>
       </c>
       <c r="E52" s="3">
-        <v>22600</v>
+        <v>21300</v>
       </c>
       <c r="F52" s="3">
-        <v>31800</v>
+        <v>30000</v>
       </c>
       <c r="G52" s="3">
-        <v>18600</v>
+        <v>17500</v>
       </c>
       <c r="H52" s="3">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="I52" s="3">
-        <v>16700</v>
+        <v>15700</v>
       </c>
       <c r="J52" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -1957,25 +1957,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1528400</v>
+        <v>1440300</v>
       </c>
       <c r="E54" s="3">
-        <v>1038700</v>
+        <v>978800</v>
       </c>
       <c r="F54" s="3">
-        <v>807200</v>
+        <v>760600</v>
       </c>
       <c r="G54" s="3">
-        <v>433700</v>
+        <v>408700</v>
       </c>
       <c r="H54" s="3">
-        <v>279700</v>
+        <v>263600</v>
       </c>
       <c r="I54" s="3">
-        <v>130200</v>
+        <v>122700</v>
       </c>
       <c r="J54" s="3">
-        <v>114000</v>
+        <v>107500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>48800</v>
+        <v>46000</v>
       </c>
       <c r="E57" s="3">
-        <v>21400</v>
+        <v>20100</v>
       </c>
       <c r="F57" s="3">
-        <v>50800</v>
+        <v>47900</v>
       </c>
       <c r="G57" s="3">
-        <v>26700</v>
+        <v>25100</v>
       </c>
       <c r="H57" s="3">
-        <v>13600</v>
+        <v>12900</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -2045,25 +2045,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>142000</v>
+        <v>133800</v>
       </c>
       <c r="E58" s="3">
-        <v>24000</v>
+        <v>22600</v>
       </c>
       <c r="F58" s="3">
-        <v>56400</v>
+        <v>53100</v>
       </c>
       <c r="G58" s="3">
-        <v>80500</v>
+        <v>75900</v>
       </c>
       <c r="H58" s="3">
-        <v>31700</v>
+        <v>29800</v>
       </c>
       <c r="I58" s="3">
-        <v>26800</v>
+        <v>25300</v>
       </c>
       <c r="J58" s="3">
-        <v>25900</v>
+        <v>24400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2075,25 +2075,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47900</v>
+        <v>45200</v>
       </c>
       <c r="E59" s="3">
-        <v>26900</v>
+        <v>25400</v>
       </c>
       <c r="F59" s="3">
-        <v>13800</v>
+        <v>13000</v>
       </c>
       <c r="G59" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="H59" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="I59" s="3">
         <v>1600</v>
       </c>
       <c r="J59" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2105,25 +2105,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>238800</v>
+        <v>225000</v>
       </c>
       <c r="E60" s="3">
-        <v>72300</v>
+        <v>68100</v>
       </c>
       <c r="F60" s="3">
-        <v>121000</v>
+        <v>114000</v>
       </c>
       <c r="G60" s="3">
-        <v>113700</v>
+        <v>107200</v>
       </c>
       <c r="H60" s="3">
-        <v>51600</v>
+        <v>48600</v>
       </c>
       <c r="I60" s="3">
-        <v>28700</v>
+        <v>27000</v>
       </c>
       <c r="J60" s="3">
-        <v>29400</v>
+        <v>27700</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2135,25 +2135,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>865700</v>
+        <v>815700</v>
       </c>
       <c r="E61" s="3">
-        <v>733400</v>
+        <v>691100</v>
       </c>
       <c r="F61" s="3">
-        <v>437200</v>
+        <v>412000</v>
       </c>
       <c r="G61" s="3">
-        <v>257700</v>
+        <v>242800</v>
       </c>
       <c r="H61" s="3">
-        <v>217300</v>
+        <v>204800</v>
       </c>
       <c r="I61" s="3">
-        <v>99800</v>
+        <v>94100</v>
       </c>
       <c r="J61" s="3">
-        <v>74200</v>
+        <v>69900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2165,25 +2165,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67400</v>
+        <v>63500</v>
       </c>
       <c r="E62" s="3">
-        <v>46700</v>
+        <v>44000</v>
       </c>
       <c r="F62" s="3">
-        <v>39500</v>
+        <v>37200</v>
       </c>
       <c r="G62" s="3">
-        <v>25200</v>
+        <v>23700</v>
       </c>
       <c r="H62" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="I62" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="J62" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2285,25 +2285,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1175600</v>
+        <v>1107800</v>
       </c>
       <c r="E66" s="3">
-        <v>868600</v>
+        <v>818500</v>
       </c>
       <c r="F66" s="3">
-        <v>621600</v>
+        <v>585700</v>
       </c>
       <c r="G66" s="3">
-        <v>401500</v>
+        <v>378300</v>
       </c>
       <c r="H66" s="3">
-        <v>276300</v>
+        <v>260400</v>
       </c>
       <c r="I66" s="3">
-        <v>133500</v>
+        <v>125800</v>
       </c>
       <c r="J66" s="3">
-        <v>107100</v>
+        <v>100900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2398,16 +2398,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>136700</v>
+        <v>128800</v>
       </c>
       <c r="H70" s="3">
-        <v>65800</v>
+        <v>62000</v>
       </c>
       <c r="I70" s="3">
-        <v>33500</v>
+        <v>31600</v>
       </c>
       <c r="J70" s="3">
-        <v>28300</v>
+        <v>26700</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2449,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-88600</v>
+        <v>-83500</v>
       </c>
       <c r="E72" s="3">
-        <v>-92600</v>
+        <v>-87200</v>
       </c>
       <c r="F72" s="3">
-        <v>-80400</v>
+        <v>-75700</v>
       </c>
       <c r="G72" s="3">
-        <v>-63300</v>
+        <v>-59600</v>
       </c>
       <c r="H72" s="3">
-        <v>-39700</v>
+        <v>-37400</v>
       </c>
       <c r="I72" s="3">
-        <v>-24500</v>
+        <v>-23100</v>
       </c>
       <c r="J72" s="3">
-        <v>-14000</v>
+        <v>-13200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2569,25 +2569,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>352800</v>
+        <v>332500</v>
       </c>
       <c r="E76" s="3">
-        <v>170100</v>
+        <v>160300</v>
       </c>
       <c r="F76" s="3">
-        <v>185600</v>
+        <v>174900</v>
       </c>
       <c r="G76" s="3">
-        <v>-104500</v>
+        <v>-98400</v>
       </c>
       <c r="H76" s="3">
-        <v>-62400</v>
+        <v>-58800</v>
       </c>
       <c r="I76" s="3">
-        <v>-36800</v>
+        <v>-34700</v>
       </c>
       <c r="J76" s="3">
-        <v>-21300</v>
+        <v>-20100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2664,25 +2664,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E81" s="3">
-        <v>-11600</v>
+        <v>-10900</v>
       </c>
       <c r="F81" s="3">
-        <v>-20400</v>
+        <v>-19200</v>
       </c>
       <c r="G81" s="3">
-        <v>-42500</v>
+        <v>-40000</v>
       </c>
       <c r="H81" s="3">
-        <v>-25800</v>
+        <v>-24300</v>
       </c>
       <c r="I81" s="3">
-        <v>-15700</v>
+        <v>-14700</v>
       </c>
       <c r="J81" s="3">
-        <v>-12100</v>
+        <v>-11400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2708,25 +2708,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30000</v>
+        <v>28300</v>
       </c>
       <c r="E83" s="3">
-        <v>26400</v>
+        <v>24900</v>
       </c>
       <c r="F83" s="3">
-        <v>14700</v>
+        <v>13800</v>
       </c>
       <c r="G83" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="H83" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="I83" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="J83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29700</v>
+        <v>28000</v>
       </c>
       <c r="E89" s="3">
-        <v>25800</v>
+        <v>24300</v>
       </c>
       <c r="F89" s="3">
         <v>-400</v>
       </c>
       <c r="G89" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="H89" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
@@ -2932,25 +2932,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-365100</v>
+        <v>-343800</v>
       </c>
       <c r="E91" s="3">
-        <v>-275600</v>
+        <v>-259500</v>
       </c>
       <c r="F91" s="3">
-        <v>-216500</v>
+        <v>-203900</v>
       </c>
       <c r="G91" s="3">
-        <v>-127700</v>
+        <v>-120300</v>
       </c>
       <c r="H91" s="3">
-        <v>-118300</v>
+        <v>-111400</v>
       </c>
       <c r="I91" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="J91" s="3">
-        <v>-48700</v>
+        <v>-45800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3022,25 +3022,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-365500</v>
+        <v>-344100</v>
       </c>
       <c r="E94" s="3">
-        <v>-253400</v>
+        <v>-238600</v>
       </c>
       <c r="F94" s="3">
-        <v>-308100</v>
+        <v>-290100</v>
       </c>
       <c r="G94" s="3">
-        <v>-128600</v>
+        <v>-121100</v>
       </c>
       <c r="H94" s="3">
-        <v>-127100</v>
+        <v>-119700</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
-        <v>-61000</v>
+        <v>-57400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3186,25 +3186,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>377500</v>
+        <v>355500</v>
       </c>
       <c r="E100" s="3">
-        <v>236100</v>
+        <v>222300</v>
       </c>
       <c r="F100" s="3">
-        <v>341600</v>
+        <v>321700</v>
       </c>
       <c r="G100" s="3">
-        <v>132900</v>
+        <v>125100</v>
       </c>
       <c r="H100" s="3">
-        <v>135800</v>
+        <v>127900</v>
       </c>
       <c r="I100" s="3">
-        <v>14900</v>
+        <v>14000</v>
       </c>
       <c r="J100" s="3">
-        <v>51500</v>
+        <v>48500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3246,25 +3246,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40800</v>
+        <v>38400</v>
       </c>
       <c r="E102" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="F102" s="3">
-        <v>33300</v>
+        <v>31300</v>
       </c>
       <c r="G102" s="3">
-        <v>14700</v>
+        <v>13800</v>
       </c>
       <c r="H102" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="I102" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="J102" s="3">
-        <v>-9600</v>
+        <v>-9000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>131200</v>
+        <v>174500</v>
       </c>
       <c r="E8" s="3">
-        <v>101800</v>
+        <v>133700</v>
       </c>
       <c r="F8" s="3">
-        <v>55300</v>
+        <v>103700</v>
       </c>
       <c r="G8" s="3">
-        <v>34700</v>
+        <v>56300</v>
       </c>
       <c r="H8" s="3">
-        <v>14900</v>
+        <v>35400</v>
       </c>
       <c r="I8" s="3">
-        <v>11700</v>
+        <v>15100</v>
       </c>
       <c r="J8" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11500</v>
+        <v>15400</v>
       </c>
       <c r="E9" s="3">
-        <v>9100</v>
+        <v>11700</v>
       </c>
       <c r="F9" s="3">
-        <v>5000</v>
+        <v>9300</v>
       </c>
       <c r="G9" s="3">
-        <v>2500</v>
+        <v>5100</v>
       </c>
       <c r="H9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>119700</v>
+        <v>159100</v>
       </c>
       <c r="E10" s="3">
-        <v>92700</v>
+        <v>122000</v>
       </c>
       <c r="F10" s="3">
-        <v>50300</v>
+        <v>94400</v>
       </c>
       <c r="G10" s="3">
-        <v>32200</v>
+        <v>51300</v>
       </c>
       <c r="H10" s="3">
-        <v>13800</v>
+        <v>32800</v>
       </c>
       <c r="I10" s="3">
-        <v>11000</v>
+        <v>14100</v>
       </c>
       <c r="J10" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K10" s="3">
         <v>4900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,39 +921,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28300</v>
+        <v>38500</v>
       </c>
       <c r="E15" s="3">
-        <v>24900</v>
+        <v>28800</v>
       </c>
       <c r="F15" s="3">
-        <v>13800</v>
+        <v>25400</v>
       </c>
       <c r="G15" s="3">
-        <v>9100</v>
+        <v>14100</v>
       </c>
       <c r="H15" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I15" s="3">
         <v>4300</v>
       </c>
-      <c r="I15" s="3">
-        <v>3300</v>
-      </c>
       <c r="J15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>57100</v>
+        <v>86700</v>
       </c>
       <c r="E17" s="3">
-        <v>49700</v>
+        <v>58200</v>
       </c>
       <c r="F17" s="3">
-        <v>29300</v>
+        <v>50700</v>
       </c>
       <c r="G17" s="3">
-        <v>20500</v>
+        <v>29900</v>
       </c>
       <c r="H17" s="3">
-        <v>10900</v>
+        <v>20900</v>
       </c>
       <c r="I17" s="3">
-        <v>7100</v>
+        <v>11200</v>
       </c>
       <c r="J17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>74100</v>
+        <v>87800</v>
       </c>
       <c r="E18" s="3">
-        <v>52100</v>
+        <v>75500</v>
       </c>
       <c r="F18" s="3">
-        <v>26000</v>
+        <v>53100</v>
       </c>
       <c r="G18" s="3">
-        <v>14200</v>
+        <v>26400</v>
       </c>
       <c r="H18" s="3">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="I18" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="J18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2000</v>
+        <v>-9600</v>
       </c>
       <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
-        <v>2300</v>
-      </c>
       <c r="G20" s="3">
-        <v>-11300</v>
+        <v>2400</v>
       </c>
       <c r="H20" s="3">
-        <v>-7000</v>
+        <v>-11500</v>
       </c>
       <c r="I20" s="3">
-        <v>-10400</v>
+        <v>-7200</v>
       </c>
       <c r="J20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>104300</v>
+        <v>116800</v>
       </c>
       <c r="E21" s="3">
-        <v>75400</v>
+        <v>106400</v>
       </c>
       <c r="F21" s="3">
-        <v>42100</v>
+        <v>76900</v>
       </c>
       <c r="G21" s="3">
-        <v>12000</v>
+        <v>42900</v>
       </c>
       <c r="H21" s="3">
-        <v>1100</v>
+        <v>12200</v>
       </c>
       <c r="I21" s="3">
-        <v>-2500</v>
+        <v>1200</v>
       </c>
       <c r="J21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72300</v>
+        <v>103100</v>
       </c>
       <c r="E22" s="3">
-        <v>67500</v>
+        <v>73700</v>
       </c>
       <c r="F22" s="3">
-        <v>32200</v>
+        <v>68800</v>
       </c>
       <c r="G22" s="3">
-        <v>20500</v>
+        <v>32900</v>
       </c>
       <c r="H22" s="3">
-        <v>7900</v>
+        <v>20800</v>
       </c>
       <c r="I22" s="3">
-        <v>4200</v>
+        <v>8100</v>
       </c>
       <c r="J22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E23" s="3">
         <v>3900</v>
       </c>
-      <c r="E23" s="3">
-        <v>-16900</v>
-      </c>
       <c r="F23" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-17500</v>
-      </c>
       <c r="H23" s="3">
-        <v>-11000</v>
+        <v>-17900</v>
       </c>
       <c r="I23" s="3">
-        <v>-10000</v>
+        <v>-11300</v>
       </c>
       <c r="J23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>11800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1800</v>
+        <v>-31500</v>
       </c>
       <c r="E26" s="3">
-        <v>-15000</v>
+        <v>1900</v>
       </c>
       <c r="F26" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="G26" s="3">
-        <v>-21900</v>
+        <v>-16100</v>
       </c>
       <c r="H26" s="3">
-        <v>-14400</v>
+        <v>-22300</v>
       </c>
       <c r="I26" s="3">
-        <v>-10300</v>
+        <v>-14700</v>
       </c>
       <c r="J26" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1000</v>
+        <v>-30600</v>
       </c>
       <c r="E27" s="3">
-        <v>-12400</v>
+        <v>1100</v>
       </c>
       <c r="F27" s="3">
-        <v>-19200</v>
+        <v>-12700</v>
       </c>
       <c r="G27" s="3">
-        <v>-40000</v>
+        <v>-19600</v>
       </c>
       <c r="H27" s="3">
-        <v>-24300</v>
+        <v>-40800</v>
       </c>
       <c r="I27" s="3">
-        <v>-14700</v>
+        <v>-24800</v>
       </c>
       <c r="J27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,21 +1344,24 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>1500</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2000</v>
+        <v>9600</v>
       </c>
       <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G32" s="3">
-        <v>11300</v>
+        <v>-2400</v>
       </c>
       <c r="H32" s="3">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="I32" s="3">
-        <v>10400</v>
+        <v>7200</v>
       </c>
       <c r="J32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K32" s="3">
         <v>4000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1000</v>
+        <v>-30600</v>
       </c>
       <c r="E33" s="3">
-        <v>-10900</v>
+        <v>1100</v>
       </c>
       <c r="F33" s="3">
-        <v>-19200</v>
+        <v>-11100</v>
       </c>
       <c r="G33" s="3">
-        <v>-40000</v>
+        <v>-19600</v>
       </c>
       <c r="H33" s="3">
-        <v>-24300</v>
+        <v>-40800</v>
       </c>
       <c r="I33" s="3">
-        <v>-14700</v>
+        <v>-24800</v>
       </c>
       <c r="J33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-11400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1000</v>
+        <v>-30600</v>
       </c>
       <c r="E35" s="3">
-        <v>-10900</v>
+        <v>1100</v>
       </c>
       <c r="F35" s="3">
-        <v>-19200</v>
+        <v>-11100</v>
       </c>
       <c r="G35" s="3">
-        <v>-40000</v>
+        <v>-19600</v>
       </c>
       <c r="H35" s="3">
-        <v>-24300</v>
+        <v>-40800</v>
       </c>
       <c r="I35" s="3">
-        <v>-14700</v>
+        <v>-24800</v>
       </c>
       <c r="J35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-11400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,98 +1646,108 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33600</v>
+        <v>39100</v>
       </c>
       <c r="E41" s="3">
-        <v>21600</v>
+        <v>34200</v>
       </c>
       <c r="F41" s="3">
-        <v>61000</v>
+        <v>22000</v>
       </c>
       <c r="G41" s="3">
-        <v>37000</v>
+        <v>62200</v>
       </c>
       <c r="H41" s="3">
-        <v>25800</v>
+        <v>37700</v>
       </c>
       <c r="I41" s="3">
-        <v>13700</v>
+        <v>26300</v>
       </c>
       <c r="J41" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>105900</v>
+        <v>92800</v>
       </c>
       <c r="E42" s="3">
-        <v>107100</v>
+        <v>107800</v>
       </c>
       <c r="F42" s="3">
-        <v>54800</v>
+        <v>109100</v>
       </c>
       <c r="G42" s="3">
+        <v>55800</v>
+      </c>
+      <c r="H42" s="3">
         <v>3900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1300</v>
       </c>
-      <c r="I42" s="3">
-        <v>7400</v>
-      </c>
       <c r="J42" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>47000</v>
+        <v>63200</v>
       </c>
       <c r="E43" s="3">
-        <v>32700</v>
+        <v>47800</v>
       </c>
       <c r="F43" s="3">
-        <v>15900</v>
+        <v>33300</v>
       </c>
       <c r="G43" s="3">
-        <v>7700</v>
+        <v>16200</v>
       </c>
       <c r="H43" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
-        <v>2500</v>
-      </c>
       <c r="J43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,159 +1775,177 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43700</v>
+        <v>84300</v>
       </c>
       <c r="E45" s="3">
-        <v>43300</v>
+        <v>44500</v>
       </c>
       <c r="F45" s="3">
-        <v>53700</v>
+        <v>44000</v>
       </c>
       <c r="G45" s="3">
-        <v>17300</v>
+        <v>54700</v>
       </c>
       <c r="H45" s="3">
-        <v>13500</v>
+        <v>17700</v>
       </c>
       <c r="I45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>230200</v>
+        <v>279400</v>
       </c>
       <c r="E46" s="3">
-        <v>204700</v>
+        <v>234400</v>
       </c>
       <c r="F46" s="3">
-        <v>185500</v>
+        <v>208400</v>
       </c>
       <c r="G46" s="3">
-        <v>66000</v>
+        <v>188900</v>
       </c>
       <c r="H46" s="3">
-        <v>43800</v>
+        <v>67200</v>
       </c>
       <c r="I46" s="3">
-        <v>25800</v>
+        <v>44600</v>
       </c>
       <c r="J46" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K46" s="3">
         <v>20600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="E47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F47" s="3">
         <v>2200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1104000</v>
+        <v>1352800</v>
       </c>
       <c r="E48" s="3">
-        <v>748600</v>
+        <v>1124000</v>
       </c>
       <c r="F48" s="3">
-        <v>541700</v>
+        <v>762100</v>
       </c>
       <c r="G48" s="3">
-        <v>322600</v>
+        <v>551500</v>
       </c>
       <c r="H48" s="3">
-        <v>200400</v>
+        <v>328400</v>
       </c>
       <c r="I48" s="3">
-        <v>79800</v>
+        <v>204000</v>
       </c>
       <c r="J48" s="3">
+        <v>81300</v>
+      </c>
+      <c r="K48" s="3">
         <v>78100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5200</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="F49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98400</v>
+        <v>146500</v>
       </c>
       <c r="E52" s="3">
-        <v>21300</v>
+        <v>100200</v>
       </c>
       <c r="F52" s="3">
-        <v>30000</v>
+        <v>21700</v>
       </c>
       <c r="G52" s="3">
-        <v>17500</v>
+        <v>30500</v>
       </c>
       <c r="H52" s="3">
-        <v>17000</v>
+        <v>17900</v>
       </c>
       <c r="I52" s="3">
-        <v>15700</v>
+        <v>17300</v>
       </c>
       <c r="J52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K52" s="3">
         <v>8300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1440300</v>
+        <v>1783400</v>
       </c>
       <c r="E54" s="3">
-        <v>978800</v>
+        <v>1466400</v>
       </c>
       <c r="F54" s="3">
-        <v>760600</v>
+        <v>996600</v>
       </c>
       <c r="G54" s="3">
-        <v>408700</v>
+        <v>774400</v>
       </c>
       <c r="H54" s="3">
-        <v>263600</v>
+        <v>416100</v>
       </c>
       <c r="I54" s="3">
-        <v>122700</v>
+        <v>268400</v>
       </c>
       <c r="J54" s="3">
+        <v>124900</v>
+      </c>
+      <c r="K54" s="3">
         <v>107500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>46000</v>
+        <v>24200</v>
       </c>
       <c r="E57" s="3">
-        <v>20100</v>
+        <v>46800</v>
       </c>
       <c r="F57" s="3">
-        <v>47900</v>
+        <v>20500</v>
       </c>
       <c r="G57" s="3">
-        <v>25100</v>
+        <v>48700</v>
       </c>
       <c r="H57" s="3">
-        <v>12900</v>
+        <v>25600</v>
       </c>
       <c r="I57" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>133800</v>
+        <v>44200</v>
       </c>
       <c r="E58" s="3">
-        <v>22600</v>
+        <v>136200</v>
       </c>
       <c r="F58" s="3">
-        <v>53100</v>
+        <v>23000</v>
       </c>
       <c r="G58" s="3">
-        <v>75900</v>
+        <v>54100</v>
       </c>
       <c r="H58" s="3">
-        <v>29800</v>
+        <v>77300</v>
       </c>
       <c r="I58" s="3">
-        <v>25300</v>
+        <v>30400</v>
       </c>
       <c r="J58" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K58" s="3">
         <v>24400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45200</v>
+        <v>55900</v>
       </c>
       <c r="E59" s="3">
-        <v>25400</v>
+        <v>46000</v>
       </c>
       <c r="F59" s="3">
-        <v>13000</v>
+        <v>25800</v>
       </c>
       <c r="G59" s="3">
-        <v>6200</v>
+        <v>13300</v>
       </c>
       <c r="H59" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="I59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>225000</v>
+        <v>124300</v>
       </c>
       <c r="E60" s="3">
-        <v>68100</v>
+        <v>229100</v>
       </c>
       <c r="F60" s="3">
-        <v>114000</v>
+        <v>69300</v>
       </c>
       <c r="G60" s="3">
-        <v>107200</v>
+        <v>116100</v>
       </c>
       <c r="H60" s="3">
-        <v>48600</v>
+        <v>109100</v>
       </c>
       <c r="I60" s="3">
-        <v>27000</v>
+        <v>49500</v>
       </c>
       <c r="J60" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K60" s="3">
         <v>27700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>815700</v>
+        <v>1166300</v>
       </c>
       <c r="E61" s="3">
-        <v>691100</v>
+        <v>830500</v>
       </c>
       <c r="F61" s="3">
-        <v>412000</v>
+        <v>703600</v>
       </c>
       <c r="G61" s="3">
-        <v>242800</v>
+        <v>419500</v>
       </c>
       <c r="H61" s="3">
-        <v>204800</v>
+        <v>247200</v>
       </c>
       <c r="I61" s="3">
-        <v>94100</v>
+        <v>208500</v>
       </c>
       <c r="J61" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K61" s="3">
         <v>69900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63500</v>
+        <v>126300</v>
       </c>
       <c r="E62" s="3">
-        <v>44000</v>
+        <v>64700</v>
       </c>
       <c r="F62" s="3">
-        <v>37200</v>
+        <v>44800</v>
       </c>
       <c r="G62" s="3">
-        <v>23700</v>
+        <v>37900</v>
       </c>
       <c r="H62" s="3">
-        <v>7000</v>
+        <v>24200</v>
       </c>
       <c r="I62" s="3">
-        <v>4500</v>
+        <v>7100</v>
       </c>
       <c r="J62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1107800</v>
+        <v>1419500</v>
       </c>
       <c r="E66" s="3">
-        <v>818500</v>
+        <v>1127900</v>
       </c>
       <c r="F66" s="3">
-        <v>585700</v>
+        <v>833300</v>
       </c>
       <c r="G66" s="3">
-        <v>378300</v>
+        <v>596300</v>
       </c>
       <c r="H66" s="3">
-        <v>260400</v>
+        <v>385200</v>
       </c>
       <c r="I66" s="3">
-        <v>125800</v>
+        <v>265100</v>
       </c>
       <c r="J66" s="3">
+        <v>128100</v>
+      </c>
+      <c r="K66" s="3">
         <v>100900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2398,23 +2565,26 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>128800</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>62000</v>
+        <v>131100</v>
       </c>
       <c r="I70" s="3">
-        <v>31600</v>
+        <v>63200</v>
       </c>
       <c r="J70" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K70" s="3">
         <v>26700</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-83500</v>
+        <v>-115600</v>
       </c>
       <c r="E72" s="3">
-        <v>-87200</v>
+        <v>-85000</v>
       </c>
       <c r="F72" s="3">
-        <v>-75700</v>
+        <v>-88800</v>
       </c>
       <c r="G72" s="3">
-        <v>-59600</v>
+        <v>-77100</v>
       </c>
       <c r="H72" s="3">
-        <v>-37400</v>
+        <v>-60700</v>
       </c>
       <c r="I72" s="3">
-        <v>-23100</v>
+        <v>-38100</v>
       </c>
       <c r="J72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-13200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>332500</v>
+        <v>363900</v>
       </c>
       <c r="E76" s="3">
-        <v>160300</v>
+        <v>338500</v>
       </c>
       <c r="F76" s="3">
-        <v>174900</v>
+        <v>163200</v>
       </c>
       <c r="G76" s="3">
-        <v>-98400</v>
+        <v>178100</v>
       </c>
       <c r="H76" s="3">
-        <v>-58800</v>
+        <v>-100200</v>
       </c>
       <c r="I76" s="3">
-        <v>-34700</v>
+        <v>-59900</v>
       </c>
       <c r="J76" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-20100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1000</v>
+        <v>-30600</v>
       </c>
       <c r="E81" s="3">
-        <v>-10900</v>
+        <v>1100</v>
       </c>
       <c r="F81" s="3">
-        <v>-19200</v>
+        <v>-11100</v>
       </c>
       <c r="G81" s="3">
-        <v>-40000</v>
+        <v>-19600</v>
       </c>
       <c r="H81" s="3">
-        <v>-24300</v>
+        <v>-40800</v>
       </c>
       <c r="I81" s="3">
-        <v>-14700</v>
+        <v>-24800</v>
       </c>
       <c r="J81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-11400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28300</v>
+        <v>38500</v>
       </c>
       <c r="E83" s="3">
-        <v>24900</v>
+        <v>28800</v>
       </c>
       <c r="F83" s="3">
-        <v>13800</v>
+        <v>25400</v>
       </c>
       <c r="G83" s="3">
-        <v>9100</v>
+        <v>14100</v>
       </c>
       <c r="H83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I83" s="3">
         <v>4300</v>
       </c>
-      <c r="I83" s="3">
-        <v>3300</v>
-      </c>
       <c r="J83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28000</v>
+        <v>49500</v>
       </c>
       <c r="E89" s="3">
-        <v>24300</v>
+        <v>28800</v>
       </c>
       <c r="F89" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>9700</v>
-      </c>
       <c r="H89" s="3">
-        <v>-2300</v>
+        <v>9900</v>
       </c>
       <c r="I89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-343800</v>
+        <v>-246800</v>
       </c>
       <c r="E91" s="3">
-        <v>-259500</v>
+        <v>-350600</v>
       </c>
       <c r="F91" s="3">
-        <v>-203900</v>
+        <v>-264700</v>
       </c>
       <c r="G91" s="3">
-        <v>-120300</v>
+        <v>-207700</v>
       </c>
       <c r="H91" s="3">
-        <v>-111400</v>
+        <v>-122500</v>
       </c>
       <c r="I91" s="3">
-        <v>-4900</v>
+        <v>-113500</v>
       </c>
       <c r="J91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-45800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-344100</v>
+        <v>-245900</v>
       </c>
       <c r="E94" s="3">
-        <v>-238600</v>
+        <v>-350900</v>
       </c>
       <c r="F94" s="3">
-        <v>-290100</v>
+        <v>-243300</v>
       </c>
       <c r="G94" s="3">
-        <v>-121100</v>
+        <v>-295600</v>
       </c>
       <c r="H94" s="3">
-        <v>-119700</v>
+        <v>-123400</v>
       </c>
       <c r="I94" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,56 +3421,62 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>355500</v>
+        <v>217500</v>
       </c>
       <c r="E100" s="3">
-        <v>222300</v>
+        <v>362200</v>
       </c>
       <c r="F100" s="3">
-        <v>321700</v>
+        <v>226500</v>
       </c>
       <c r="G100" s="3">
-        <v>125100</v>
+        <v>327700</v>
       </c>
       <c r="H100" s="3">
-        <v>127900</v>
+        <v>127500</v>
       </c>
       <c r="I100" s="3">
-        <v>14000</v>
+        <v>130300</v>
       </c>
       <c r="J100" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K100" s="3">
         <v>48500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3236,40 +3484,46 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38400</v>
+        <v>20600</v>
       </c>
       <c r="E102" s="3">
-        <v>8100</v>
+        <v>39100</v>
       </c>
       <c r="F102" s="3">
-        <v>31300</v>
+        <v>8200</v>
       </c>
       <c r="G102" s="3">
+        <v>31900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J102" s="3">
         <v>13800</v>
       </c>
-      <c r="H102" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I102" s="3">
-        <v>13500</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>174500</v>
+        <v>175300</v>
       </c>
       <c r="E8" s="3">
-        <v>133700</v>
+        <v>134300</v>
       </c>
       <c r="F8" s="3">
-        <v>103700</v>
+        <v>104200</v>
       </c>
       <c r="G8" s="3">
-        <v>56300</v>
+        <v>56600</v>
       </c>
       <c r="H8" s="3">
-        <v>35400</v>
+        <v>35500</v>
       </c>
       <c r="I8" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J8" s="3">
         <v>11900</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="E9" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="F9" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="G9" s="3">
         <v>5100</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>159100</v>
+        <v>159800</v>
       </c>
       <c r="E10" s="3">
-        <v>122000</v>
+        <v>122500</v>
       </c>
       <c r="F10" s="3">
-        <v>94400</v>
+        <v>94800</v>
       </c>
       <c r="G10" s="3">
-        <v>51300</v>
+        <v>51500</v>
       </c>
       <c r="H10" s="3">
-        <v>32800</v>
+        <v>33000</v>
       </c>
       <c r="I10" s="3">
         <v>14100</v>
@@ -931,22 +931,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="E15" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="F15" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="G15" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="H15" s="3">
         <v>9300</v>
       </c>
       <c r="I15" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J15" s="3">
         <v>3400</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86700</v>
+        <v>87100</v>
       </c>
       <c r="E17" s="3">
-        <v>58200</v>
+        <v>58400</v>
       </c>
       <c r="F17" s="3">
-        <v>50700</v>
+        <v>50900</v>
       </c>
       <c r="G17" s="3">
-        <v>29900</v>
+        <v>30000</v>
       </c>
       <c r="H17" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="I17" s="3">
         <v>11200</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>87800</v>
+        <v>88200</v>
       </c>
       <c r="E18" s="3">
-        <v>75500</v>
+        <v>75900</v>
       </c>
       <c r="F18" s="3">
-        <v>53100</v>
+        <v>53300</v>
       </c>
       <c r="G18" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="H18" s="3">
         <v>14500</v>
@@ -1069,7 +1069,7 @@
         <v>2400</v>
       </c>
       <c r="H20" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="I20" s="3">
         <v>-7200</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>116800</v>
+        <v>117300</v>
       </c>
       <c r="E21" s="3">
-        <v>106400</v>
+        <v>106900</v>
       </c>
       <c r="F21" s="3">
-        <v>76900</v>
+        <v>77300</v>
       </c>
       <c r="G21" s="3">
-        <v>42900</v>
+        <v>43100</v>
       </c>
       <c r="H21" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="I21" s="3">
         <v>1200</v>
@@ -1123,19 +1123,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>103100</v>
+        <v>103600</v>
       </c>
       <c r="E22" s="3">
-        <v>73700</v>
+        <v>74000</v>
       </c>
       <c r="F22" s="3">
-        <v>68800</v>
+        <v>69100</v>
       </c>
       <c r="G22" s="3">
-        <v>32900</v>
+        <v>33000</v>
       </c>
       <c r="H22" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="I22" s="3">
         <v>8100</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24900</v>
+        <v>-25000</v>
       </c>
       <c r="E23" s="3">
         <v>3900</v>
       </c>
       <c r="F23" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="G23" s="3">
         <v>-4000</v>
       </c>
       <c r="H23" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="I23" s="3">
         <v>-11300</v>
       </c>
       <c r="J23" s="3">
-        <v>-10200</v>
+        <v>-10300</v>
       </c>
       <c r="K23" s="3">
         <v>-5700</v>
@@ -1198,7 +1198,7 @@
         <v>-1900</v>
       </c>
       <c r="G24" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="H24" s="3">
         <v>4400</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31500</v>
+        <v>-31600</v>
       </c>
       <c r="E26" s="3">
         <v>1900</v>
       </c>
       <c r="F26" s="3">
-        <v>-15300</v>
+        <v>-15400</v>
       </c>
       <c r="G26" s="3">
         <v>-16100</v>
       </c>
       <c r="H26" s="3">
-        <v>-22300</v>
+        <v>-22400</v>
       </c>
       <c r="I26" s="3">
         <v>-14700</v>
       </c>
       <c r="J26" s="3">
-        <v>-10400</v>
+        <v>-10500</v>
       </c>
       <c r="K26" s="3">
         <v>-7700</v>
@@ -1288,7 +1288,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-30600</v>
+        <v>-30700</v>
       </c>
       <c r="E27" s="3">
         <v>1100</v>
@@ -1297,16 +1297,16 @@
         <v>-12700</v>
       </c>
       <c r="G27" s="3">
-        <v>-19600</v>
+        <v>-19700</v>
       </c>
       <c r="H27" s="3">
-        <v>-40800</v>
+        <v>-41000</v>
       </c>
       <c r="I27" s="3">
-        <v>-24800</v>
+        <v>-24900</v>
       </c>
       <c r="J27" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="K27" s="3">
         <v>-11400</v>
@@ -1465,7 +1465,7 @@
         <v>-2400</v>
       </c>
       <c r="H32" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="I32" s="3">
         <v>7200</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-30600</v>
+        <v>-30700</v>
       </c>
       <c r="E33" s="3">
         <v>1100</v>
       </c>
       <c r="F33" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="G33" s="3">
-        <v>-19600</v>
+        <v>-19700</v>
       </c>
       <c r="H33" s="3">
-        <v>-40800</v>
+        <v>-41000</v>
       </c>
       <c r="I33" s="3">
-        <v>-24800</v>
+        <v>-24900</v>
       </c>
       <c r="J33" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="K33" s="3">
         <v>-11400</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-30600</v>
+        <v>-30700</v>
       </c>
       <c r="E35" s="3">
         <v>1100</v>
       </c>
       <c r="F35" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="G35" s="3">
-        <v>-19600</v>
+        <v>-19700</v>
       </c>
       <c r="H35" s="3">
-        <v>-40800</v>
+        <v>-41000</v>
       </c>
       <c r="I35" s="3">
-        <v>-24800</v>
+        <v>-24900</v>
       </c>
       <c r="J35" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="K35" s="3">
         <v>-11400</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39100</v>
+        <v>39300</v>
       </c>
       <c r="E41" s="3">
-        <v>34200</v>
+        <v>34400</v>
       </c>
       <c r="F41" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="G41" s="3">
-        <v>62200</v>
+        <v>62400</v>
       </c>
       <c r="H41" s="3">
-        <v>37700</v>
+        <v>37900</v>
       </c>
       <c r="I41" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="J41" s="3">
         <v>14000</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>92800</v>
+        <v>93200</v>
       </c>
       <c r="E42" s="3">
-        <v>107800</v>
+        <v>108300</v>
       </c>
       <c r="F42" s="3">
-        <v>109100</v>
+        <v>109600</v>
       </c>
       <c r="G42" s="3">
-        <v>55800</v>
+        <v>56100</v>
       </c>
       <c r="H42" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I42" s="3">
         <v>1300</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>63200</v>
+        <v>63500</v>
       </c>
       <c r="E43" s="3">
-        <v>47800</v>
+        <v>48000</v>
       </c>
       <c r="F43" s="3">
-        <v>33300</v>
+        <v>33500</v>
       </c>
       <c r="G43" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="H43" s="3">
         <v>7900</v>
       </c>
       <c r="I43" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J43" s="3">
         <v>2600</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84300</v>
+        <v>84700</v>
       </c>
       <c r="E45" s="3">
-        <v>44500</v>
+        <v>44700</v>
       </c>
       <c r="F45" s="3">
-        <v>44000</v>
+        <v>44200</v>
       </c>
       <c r="G45" s="3">
-        <v>54700</v>
+        <v>55000</v>
       </c>
       <c r="H45" s="3">
         <v>17700</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>279400</v>
+        <v>280700</v>
       </c>
       <c r="E46" s="3">
-        <v>234400</v>
+        <v>235400</v>
       </c>
       <c r="F46" s="3">
-        <v>208400</v>
+        <v>209400</v>
       </c>
       <c r="G46" s="3">
-        <v>188900</v>
+        <v>189700</v>
       </c>
       <c r="H46" s="3">
-        <v>67200</v>
+        <v>67500</v>
       </c>
       <c r="I46" s="3">
-        <v>44600</v>
+        <v>44800</v>
       </c>
       <c r="J46" s="3">
-        <v>26200</v>
+        <v>26400</v>
       </c>
       <c r="K46" s="3">
         <v>20600</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1352800</v>
+        <v>1358800</v>
       </c>
       <c r="E48" s="3">
-        <v>1124000</v>
+        <v>1129000</v>
       </c>
       <c r="F48" s="3">
-        <v>762100</v>
+        <v>765500</v>
       </c>
       <c r="G48" s="3">
-        <v>551500</v>
+        <v>554000</v>
       </c>
       <c r="H48" s="3">
-        <v>328400</v>
+        <v>329900</v>
       </c>
       <c r="I48" s="3">
-        <v>204000</v>
+        <v>204900</v>
       </c>
       <c r="J48" s="3">
-        <v>81300</v>
+        <v>81600</v>
       </c>
       <c r="K48" s="3">
         <v>78100</v>
@@ -1926,7 +1926,7 @@
         <v>2100</v>
       </c>
       <c r="G49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H49" s="3">
         <v>1400</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>146500</v>
+        <v>147200</v>
       </c>
       <c r="E52" s="3">
-        <v>100200</v>
+        <v>100600</v>
       </c>
       <c r="F52" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="G52" s="3">
-        <v>30500</v>
+        <v>30700</v>
       </c>
       <c r="H52" s="3">
         <v>17900</v>
       </c>
       <c r="I52" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="J52" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="K52" s="3">
         <v>8300</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1783400</v>
+        <v>1791400</v>
       </c>
       <c r="E54" s="3">
-        <v>1466400</v>
+        <v>1472900</v>
       </c>
       <c r="F54" s="3">
-        <v>996600</v>
+        <v>1001000</v>
       </c>
       <c r="G54" s="3">
-        <v>774400</v>
+        <v>777900</v>
       </c>
       <c r="H54" s="3">
-        <v>416100</v>
+        <v>418000</v>
       </c>
       <c r="I54" s="3">
-        <v>268400</v>
+        <v>269600</v>
       </c>
       <c r="J54" s="3">
-        <v>124900</v>
+        <v>125500</v>
       </c>
       <c r="K54" s="3">
         <v>107500</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="E57" s="3">
-        <v>46800</v>
+        <v>47000</v>
       </c>
       <c r="F57" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="G57" s="3">
-        <v>48700</v>
+        <v>49000</v>
       </c>
       <c r="H57" s="3">
-        <v>25600</v>
+        <v>25700</v>
       </c>
       <c r="I57" s="3">
         <v>13100</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>44200</v>
+        <v>44400</v>
       </c>
       <c r="E58" s="3">
-        <v>136200</v>
+        <v>136800</v>
       </c>
       <c r="F58" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="G58" s="3">
-        <v>54100</v>
+        <v>54300</v>
       </c>
       <c r="H58" s="3">
-        <v>77300</v>
+        <v>77600</v>
       </c>
       <c r="I58" s="3">
-        <v>30400</v>
+        <v>30500</v>
       </c>
       <c r="J58" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="K58" s="3">
         <v>24400</v>
@@ -2211,13 +2211,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55900</v>
+        <v>56200</v>
       </c>
       <c r="E59" s="3">
-        <v>46000</v>
+        <v>46200</v>
       </c>
       <c r="F59" s="3">
-        <v>25800</v>
+        <v>25900</v>
       </c>
       <c r="G59" s="3">
         <v>13300</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>124300</v>
+        <v>124800</v>
       </c>
       <c r="E60" s="3">
-        <v>229100</v>
+        <v>230100</v>
       </c>
       <c r="F60" s="3">
-        <v>69300</v>
+        <v>69700</v>
       </c>
       <c r="G60" s="3">
-        <v>116100</v>
+        <v>116600</v>
       </c>
       <c r="H60" s="3">
-        <v>109100</v>
+        <v>109600</v>
       </c>
       <c r="I60" s="3">
-        <v>49500</v>
+        <v>49700</v>
       </c>
       <c r="J60" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="K60" s="3">
         <v>27700</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1166300</v>
+        <v>1171500</v>
       </c>
       <c r="E61" s="3">
-        <v>830500</v>
+        <v>834200</v>
       </c>
       <c r="F61" s="3">
-        <v>703600</v>
+        <v>706700</v>
       </c>
       <c r="G61" s="3">
-        <v>419500</v>
+        <v>421400</v>
       </c>
       <c r="H61" s="3">
-        <v>247200</v>
+        <v>248300</v>
       </c>
       <c r="I61" s="3">
-        <v>208500</v>
+        <v>209400</v>
       </c>
       <c r="J61" s="3">
-        <v>95800</v>
+        <v>96200</v>
       </c>
       <c r="K61" s="3">
         <v>69900</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>126300</v>
+        <v>126800</v>
       </c>
       <c r="E62" s="3">
-        <v>64700</v>
+        <v>65000</v>
       </c>
       <c r="F62" s="3">
-        <v>44800</v>
+        <v>45000</v>
       </c>
       <c r="G62" s="3">
-        <v>37900</v>
+        <v>38100</v>
       </c>
       <c r="H62" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="I62" s="3">
         <v>7100</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1419500</v>
+        <v>1425800</v>
       </c>
       <c r="E66" s="3">
-        <v>1127900</v>
+        <v>1132900</v>
       </c>
       <c r="F66" s="3">
-        <v>833300</v>
+        <v>837100</v>
       </c>
       <c r="G66" s="3">
-        <v>596300</v>
+        <v>599000</v>
       </c>
       <c r="H66" s="3">
-        <v>385200</v>
+        <v>386900</v>
       </c>
       <c r="I66" s="3">
-        <v>265100</v>
+        <v>266300</v>
       </c>
       <c r="J66" s="3">
-        <v>128100</v>
+        <v>128600</v>
       </c>
       <c r="K66" s="3">
         <v>100900</v>
@@ -2568,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>131100</v>
+        <v>131700</v>
       </c>
       <c r="I70" s="3">
-        <v>63200</v>
+        <v>63500</v>
       </c>
       <c r="J70" s="3">
-        <v>32100</v>
+        <v>32300</v>
       </c>
       <c r="K70" s="3">
         <v>26700</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-115600</v>
+        <v>-116100</v>
       </c>
       <c r="E72" s="3">
-        <v>-85000</v>
+        <v>-85400</v>
       </c>
       <c r="F72" s="3">
-        <v>-88800</v>
+        <v>-89200</v>
       </c>
       <c r="G72" s="3">
-        <v>-77100</v>
+        <v>-77400</v>
       </c>
       <c r="H72" s="3">
-        <v>-60700</v>
+        <v>-61000</v>
       </c>
       <c r="I72" s="3">
-        <v>-38100</v>
+        <v>-38300</v>
       </c>
       <c r="J72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="K72" s="3">
         <v>-13200</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>363900</v>
+        <v>365600</v>
       </c>
       <c r="E76" s="3">
-        <v>338500</v>
+        <v>340000</v>
       </c>
       <c r="F76" s="3">
-        <v>163200</v>
+        <v>164000</v>
       </c>
       <c r="G76" s="3">
-        <v>178100</v>
+        <v>178900</v>
       </c>
       <c r="H76" s="3">
-        <v>-100200</v>
+        <v>-100600</v>
       </c>
       <c r="I76" s="3">
-        <v>-59900</v>
+        <v>-60200</v>
       </c>
       <c r="J76" s="3">
-        <v>-35300</v>
+        <v>-35500</v>
       </c>
       <c r="K76" s="3">
         <v>-20100</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-30600</v>
+        <v>-30700</v>
       </c>
       <c r="E81" s="3">
         <v>1100</v>
       </c>
       <c r="F81" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="G81" s="3">
-        <v>-19600</v>
+        <v>-19700</v>
       </c>
       <c r="H81" s="3">
-        <v>-40800</v>
+        <v>-41000</v>
       </c>
       <c r="I81" s="3">
-        <v>-24800</v>
+        <v>-24900</v>
       </c>
       <c r="J81" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="K81" s="3">
         <v>-11400</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="E83" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="F83" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="G83" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="H83" s="3">
         <v>9300</v>
       </c>
       <c r="I83" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J83" s="3">
         <v>3400</v>
@@ -3104,13 +3104,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="E89" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="F89" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246800</v>
+        <v>-247900</v>
       </c>
       <c r="E91" s="3">
-        <v>-350600</v>
+        <v>-352200</v>
       </c>
       <c r="F91" s="3">
-        <v>-264700</v>
+        <v>-265800</v>
       </c>
       <c r="G91" s="3">
-        <v>-207700</v>
+        <v>-208700</v>
       </c>
       <c r="H91" s="3">
-        <v>-122500</v>
+        <v>-123100</v>
       </c>
       <c r="I91" s="3">
-        <v>-113500</v>
+        <v>-114000</v>
       </c>
       <c r="J91" s="3">
         <v>-5000</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-245900</v>
+        <v>-247000</v>
       </c>
       <c r="E94" s="3">
-        <v>-350900</v>
+        <v>-352500</v>
       </c>
       <c r="F94" s="3">
-        <v>-243300</v>
+        <v>-244400</v>
       </c>
       <c r="G94" s="3">
-        <v>-295600</v>
+        <v>-296900</v>
       </c>
       <c r="H94" s="3">
-        <v>-123400</v>
+        <v>-123900</v>
       </c>
       <c r="I94" s="3">
-        <v>-121900</v>
+        <v>-122500</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>217500</v>
+        <v>218500</v>
       </c>
       <c r="E100" s="3">
-        <v>362200</v>
+        <v>363800</v>
       </c>
       <c r="F100" s="3">
-        <v>226500</v>
+        <v>227500</v>
       </c>
       <c r="G100" s="3">
-        <v>327700</v>
+        <v>329200</v>
       </c>
       <c r="H100" s="3">
-        <v>127500</v>
+        <v>128100</v>
       </c>
       <c r="I100" s="3">
-        <v>130300</v>
+        <v>130900</v>
       </c>
       <c r="J100" s="3">
         <v>14300</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="E102" s="3">
-        <v>39100</v>
+        <v>39300</v>
       </c>
       <c r="F102" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="G102" s="3">
-        <v>31900</v>
+        <v>32100</v>
       </c>
       <c r="H102" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="I102" s="3">
         <v>6000</v>
       </c>
       <c r="J102" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="K102" s="3">
         <v>-9000</v>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>175300</v>
+        <v>178300</v>
       </c>
       <c r="E8" s="3">
-        <v>134300</v>
+        <v>136600</v>
       </c>
       <c r="F8" s="3">
-        <v>104200</v>
+        <v>106000</v>
       </c>
       <c r="G8" s="3">
-        <v>56600</v>
+        <v>57600</v>
       </c>
       <c r="H8" s="3">
-        <v>35500</v>
+        <v>36100</v>
       </c>
       <c r="I8" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="J8" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="K8" s="3">
         <v>5300</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="E9" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="F9" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G9" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H9" s="3">
         <v>2600</v>
@@ -784,25 +784,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>159800</v>
+        <v>162500</v>
       </c>
       <c r="E10" s="3">
-        <v>122500</v>
+        <v>124600</v>
       </c>
       <c r="F10" s="3">
-        <v>94800</v>
+        <v>96400</v>
       </c>
       <c r="G10" s="3">
-        <v>51500</v>
+        <v>52400</v>
       </c>
       <c r="H10" s="3">
-        <v>33000</v>
+        <v>33500</v>
       </c>
       <c r="I10" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="J10" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="K10" s="3">
         <v>4900</v>
@@ -931,25 +931,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>38700</v>
+        <v>39400</v>
       </c>
       <c r="E15" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="F15" s="3">
-        <v>25500</v>
+        <v>25900</v>
       </c>
       <c r="G15" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="H15" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="I15" s="3">
         <v>4400</v>
       </c>
       <c r="J15" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K15" s="3">
         <v>1700</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87100</v>
+        <v>88600</v>
       </c>
       <c r="E17" s="3">
-        <v>58400</v>
+        <v>59400</v>
       </c>
       <c r="F17" s="3">
-        <v>50900</v>
+        <v>51800</v>
       </c>
       <c r="G17" s="3">
-        <v>30000</v>
+        <v>30500</v>
       </c>
       <c r="H17" s="3">
-        <v>21000</v>
+        <v>21300</v>
       </c>
       <c r="I17" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="J17" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="K17" s="3">
         <v>4600</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88200</v>
+        <v>89700</v>
       </c>
       <c r="E18" s="3">
-        <v>75900</v>
+        <v>77100</v>
       </c>
       <c r="F18" s="3">
-        <v>53300</v>
+        <v>54200</v>
       </c>
       <c r="G18" s="3">
-        <v>26600</v>
+        <v>27000</v>
       </c>
       <c r="H18" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I18" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J18" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K18" s="3">
         <v>700</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="E20" s="3">
         <v>2100</v>
@@ -1069,13 +1069,13 @@
         <v>2400</v>
       </c>
       <c r="H20" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="I20" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="J20" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="K20" s="3">
         <v>-4000</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>117300</v>
+        <v>119300</v>
       </c>
       <c r="E21" s="3">
-        <v>106900</v>
+        <v>108700</v>
       </c>
       <c r="F21" s="3">
-        <v>77300</v>
+        <v>78600</v>
       </c>
       <c r="G21" s="3">
-        <v>43100</v>
+        <v>43900</v>
       </c>
       <c r="H21" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="I21" s="3">
         <v>1200</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>103600</v>
+        <v>105300</v>
       </c>
       <c r="E22" s="3">
-        <v>74000</v>
+        <v>75300</v>
       </c>
       <c r="F22" s="3">
-        <v>69100</v>
+        <v>70200</v>
       </c>
       <c r="G22" s="3">
-        <v>33000</v>
+        <v>33600</v>
       </c>
       <c r="H22" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="I22" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="J22" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K22" s="3">
         <v>2400</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25000</v>
+        <v>-25400</v>
       </c>
       <c r="E23" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F23" s="3">
-        <v>-17300</v>
+        <v>-17500</v>
       </c>
       <c r="G23" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H23" s="3">
-        <v>-18000</v>
+        <v>-18300</v>
       </c>
       <c r="I23" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="J23" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="K23" s="3">
         <v>-5700</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E24" s="3">
         <v>2100</v>
@@ -1198,13 +1198,13 @@
         <v>-1900</v>
       </c>
       <c r="G24" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="H24" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I24" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31600</v>
+        <v>-32200</v>
       </c>
       <c r="E26" s="3">
         <v>1900</v>
       </c>
       <c r="F26" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="G26" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="H26" s="3">
-        <v>-22400</v>
+        <v>-22800</v>
       </c>
       <c r="I26" s="3">
-        <v>-14700</v>
+        <v>-15000</v>
       </c>
       <c r="J26" s="3">
-        <v>-10500</v>
+        <v>-10700</v>
       </c>
       <c r="K26" s="3">
         <v>-7700</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-30700</v>
+        <v>-31200</v>
       </c>
       <c r="E27" s="3">
         <v>1100</v>
       </c>
       <c r="F27" s="3">
-        <v>-12700</v>
+        <v>-12900</v>
       </c>
       <c r="G27" s="3">
-        <v>-19700</v>
+        <v>-20000</v>
       </c>
       <c r="H27" s="3">
-        <v>-41000</v>
+        <v>-41700</v>
       </c>
       <c r="I27" s="3">
-        <v>-24900</v>
+        <v>-25300</v>
       </c>
       <c r="J27" s="3">
-        <v>-15100</v>
+        <v>-15300</v>
       </c>
       <c r="K27" s="3">
         <v>-11400</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="E32" s="3">
         <v>-2100</v>
@@ -1465,13 +1465,13 @@
         <v>-2400</v>
       </c>
       <c r="H32" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="I32" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="J32" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="K32" s="3">
         <v>4000</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-30700</v>
+        <v>-31200</v>
       </c>
       <c r="E33" s="3">
         <v>1100</v>
       </c>
       <c r="F33" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="G33" s="3">
-        <v>-19700</v>
+        <v>-20000</v>
       </c>
       <c r="H33" s="3">
-        <v>-41000</v>
+        <v>-41700</v>
       </c>
       <c r="I33" s="3">
-        <v>-24900</v>
+        <v>-25300</v>
       </c>
       <c r="J33" s="3">
-        <v>-15100</v>
+        <v>-15300</v>
       </c>
       <c r="K33" s="3">
         <v>-11400</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-30700</v>
+        <v>-31200</v>
       </c>
       <c r="E35" s="3">
         <v>1100</v>
       </c>
       <c r="F35" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="G35" s="3">
-        <v>-19700</v>
+        <v>-20000</v>
       </c>
       <c r="H35" s="3">
-        <v>-41000</v>
+        <v>-41700</v>
       </c>
       <c r="I35" s="3">
-        <v>-24900</v>
+        <v>-25300</v>
       </c>
       <c r="J35" s="3">
-        <v>-15100</v>
+        <v>-15300</v>
       </c>
       <c r="K35" s="3">
         <v>-11400</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39300</v>
+        <v>39900</v>
       </c>
       <c r="E41" s="3">
-        <v>34400</v>
+        <v>35000</v>
       </c>
       <c r="F41" s="3">
-        <v>22100</v>
+        <v>22500</v>
       </c>
       <c r="G41" s="3">
-        <v>62400</v>
+        <v>63500</v>
       </c>
       <c r="H41" s="3">
-        <v>37900</v>
+        <v>38500</v>
       </c>
       <c r="I41" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="J41" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="K41" s="3">
         <v>3600</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>93200</v>
+        <v>94800</v>
       </c>
       <c r="E42" s="3">
-        <v>108300</v>
+        <v>110100</v>
       </c>
       <c r="F42" s="3">
-        <v>109600</v>
+        <v>111400</v>
       </c>
       <c r="G42" s="3">
-        <v>56100</v>
+        <v>57000</v>
       </c>
       <c r="H42" s="3">
         <v>4000</v>
@@ -1704,7 +1704,7 @@
         <v>1300</v>
       </c>
       <c r="J42" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="K42" s="3">
         <v>4000</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>63500</v>
+        <v>64600</v>
       </c>
       <c r="E43" s="3">
-        <v>48000</v>
+        <v>48800</v>
       </c>
       <c r="F43" s="3">
-        <v>33500</v>
+        <v>34100</v>
       </c>
       <c r="G43" s="3">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="H43" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="I43" s="3">
         <v>3400</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84700</v>
+        <v>86100</v>
       </c>
       <c r="E45" s="3">
-        <v>44700</v>
+        <v>45500</v>
       </c>
       <c r="F45" s="3">
-        <v>44200</v>
+        <v>45000</v>
       </c>
       <c r="G45" s="3">
-        <v>55000</v>
+        <v>55900</v>
       </c>
       <c r="H45" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="I45" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="J45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K45" s="3">
         <v>11100</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>280700</v>
+        <v>285400</v>
       </c>
       <c r="E46" s="3">
-        <v>235400</v>
+        <v>239400</v>
       </c>
       <c r="F46" s="3">
-        <v>209400</v>
+        <v>212900</v>
       </c>
       <c r="G46" s="3">
-        <v>189700</v>
+        <v>192900</v>
       </c>
       <c r="H46" s="3">
-        <v>67500</v>
+        <v>68600</v>
       </c>
       <c r="I46" s="3">
-        <v>44800</v>
+        <v>45600</v>
       </c>
       <c r="J46" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="K46" s="3">
         <v>20600</v>
@@ -1851,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
         <v>2600</v>
@@ -1860,13 +1860,13 @@
         <v>2200</v>
       </c>
       <c r="G47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I47" s="3">
         <v>1200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1100</v>
       </c>
       <c r="J47" s="3">
         <v>1300</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1358800</v>
+        <v>1381900</v>
       </c>
       <c r="E48" s="3">
-        <v>1129000</v>
+        <v>1148200</v>
       </c>
       <c r="F48" s="3">
-        <v>765500</v>
+        <v>778600</v>
       </c>
       <c r="G48" s="3">
-        <v>554000</v>
+        <v>563400</v>
       </c>
       <c r="H48" s="3">
-        <v>329900</v>
+        <v>335500</v>
       </c>
       <c r="I48" s="3">
-        <v>204900</v>
+        <v>208400</v>
       </c>
       <c r="J48" s="3">
-        <v>81600</v>
+        <v>83000</v>
       </c>
       <c r="K48" s="3">
         <v>78100</v>
@@ -1917,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E49" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F49" s="3">
         <v>2100</v>
@@ -1929,7 +1929,7 @@
         <v>1800</v>
       </c>
       <c r="H49" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>147200</v>
+        <v>149700</v>
       </c>
       <c r="E52" s="3">
-        <v>100600</v>
+        <v>102300</v>
       </c>
       <c r="F52" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="G52" s="3">
-        <v>30700</v>
+        <v>31200</v>
       </c>
       <c r="H52" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="I52" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="J52" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="K52" s="3">
         <v>8300</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1791400</v>
+        <v>1821800</v>
       </c>
       <c r="E54" s="3">
-        <v>1472900</v>
+        <v>1498000</v>
       </c>
       <c r="F54" s="3">
-        <v>1001000</v>
+        <v>1018000</v>
       </c>
       <c r="G54" s="3">
-        <v>777900</v>
+        <v>791100</v>
       </c>
       <c r="H54" s="3">
-        <v>418000</v>
+        <v>425100</v>
       </c>
       <c r="I54" s="3">
-        <v>269600</v>
+        <v>274200</v>
       </c>
       <c r="J54" s="3">
-        <v>125500</v>
+        <v>127600</v>
       </c>
       <c r="K54" s="3">
         <v>107500</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="E57" s="3">
-        <v>47000</v>
+        <v>47800</v>
       </c>
       <c r="F57" s="3">
-        <v>20600</v>
+        <v>20900</v>
       </c>
       <c r="G57" s="3">
-        <v>49000</v>
+        <v>49800</v>
       </c>
       <c r="H57" s="3">
-        <v>25700</v>
+        <v>26100</v>
       </c>
       <c r="I57" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>44400</v>
+        <v>45100</v>
       </c>
       <c r="E58" s="3">
-        <v>136800</v>
+        <v>139200</v>
       </c>
       <c r="F58" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="G58" s="3">
-        <v>54300</v>
+        <v>55200</v>
       </c>
       <c r="H58" s="3">
-        <v>77600</v>
+        <v>78900</v>
       </c>
       <c r="I58" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="J58" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="K58" s="3">
         <v>24400</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56200</v>
+        <v>57100</v>
       </c>
       <c r="E59" s="3">
-        <v>46200</v>
+        <v>47000</v>
       </c>
       <c r="F59" s="3">
-        <v>25900</v>
+        <v>26400</v>
       </c>
       <c r="G59" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="H59" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="I59" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="J59" s="3">
         <v>1600</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>124800</v>
+        <v>126900</v>
       </c>
       <c r="E60" s="3">
-        <v>230100</v>
+        <v>234000</v>
       </c>
       <c r="F60" s="3">
-        <v>69700</v>
+        <v>70800</v>
       </c>
       <c r="G60" s="3">
-        <v>116600</v>
+        <v>118600</v>
       </c>
       <c r="H60" s="3">
-        <v>109600</v>
+        <v>111500</v>
       </c>
       <c r="I60" s="3">
-        <v>49700</v>
+        <v>50500</v>
       </c>
       <c r="J60" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="K60" s="3">
         <v>27700</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1171500</v>
+        <v>1191400</v>
       </c>
       <c r="E61" s="3">
-        <v>834200</v>
+        <v>848400</v>
       </c>
       <c r="F61" s="3">
-        <v>706700</v>
+        <v>718800</v>
       </c>
       <c r="G61" s="3">
-        <v>421400</v>
+        <v>428500</v>
       </c>
       <c r="H61" s="3">
-        <v>248300</v>
+        <v>252500</v>
       </c>
       <c r="I61" s="3">
-        <v>209400</v>
+        <v>213000</v>
       </c>
       <c r="J61" s="3">
-        <v>96200</v>
+        <v>97900</v>
       </c>
       <c r="K61" s="3">
         <v>69900</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>126800</v>
+        <v>129000</v>
       </c>
       <c r="E62" s="3">
-        <v>65000</v>
+        <v>66100</v>
       </c>
       <c r="F62" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="G62" s="3">
-        <v>38100</v>
+        <v>38700</v>
       </c>
       <c r="H62" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="I62" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="J62" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K62" s="3">
         <v>2800</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1425800</v>
+        <v>1450100</v>
       </c>
       <c r="E66" s="3">
-        <v>1132900</v>
+        <v>1152200</v>
       </c>
       <c r="F66" s="3">
-        <v>837100</v>
+        <v>851300</v>
       </c>
       <c r="G66" s="3">
-        <v>599000</v>
+        <v>609200</v>
       </c>
       <c r="H66" s="3">
-        <v>386900</v>
+        <v>393500</v>
       </c>
       <c r="I66" s="3">
-        <v>266300</v>
+        <v>270800</v>
       </c>
       <c r="J66" s="3">
-        <v>128600</v>
+        <v>130800</v>
       </c>
       <c r="K66" s="3">
         <v>100900</v>
@@ -2568,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>131700</v>
+        <v>133900</v>
       </c>
       <c r="I70" s="3">
-        <v>63500</v>
+        <v>64500</v>
       </c>
       <c r="J70" s="3">
-        <v>32300</v>
+        <v>32800</v>
       </c>
       <c r="K70" s="3">
         <v>26700</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-116100</v>
+        <v>-118100</v>
       </c>
       <c r="E72" s="3">
-        <v>-85400</v>
+        <v>-86800</v>
       </c>
       <c r="F72" s="3">
-        <v>-89200</v>
+        <v>-90700</v>
       </c>
       <c r="G72" s="3">
-        <v>-77400</v>
+        <v>-78800</v>
       </c>
       <c r="H72" s="3">
-        <v>-61000</v>
+        <v>-62000</v>
       </c>
       <c r="I72" s="3">
-        <v>-38300</v>
+        <v>-38900</v>
       </c>
       <c r="J72" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="K72" s="3">
         <v>-13200</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>365600</v>
+        <v>371800</v>
       </c>
       <c r="E76" s="3">
-        <v>340000</v>
+        <v>345800</v>
       </c>
       <c r="F76" s="3">
-        <v>164000</v>
+        <v>166700</v>
       </c>
       <c r="G76" s="3">
-        <v>178900</v>
+        <v>181900</v>
       </c>
       <c r="H76" s="3">
-        <v>-100600</v>
+        <v>-102300</v>
       </c>
       <c r="I76" s="3">
-        <v>-60200</v>
+        <v>-61200</v>
       </c>
       <c r="J76" s="3">
-        <v>-35500</v>
+        <v>-36000</v>
       </c>
       <c r="K76" s="3">
         <v>-20100</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-30700</v>
+        <v>-31200</v>
       </c>
       <c r="E81" s="3">
         <v>1100</v>
       </c>
       <c r="F81" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="G81" s="3">
-        <v>-19700</v>
+        <v>-20000</v>
       </c>
       <c r="H81" s="3">
-        <v>-41000</v>
+        <v>-41700</v>
       </c>
       <c r="I81" s="3">
-        <v>-24900</v>
+        <v>-25300</v>
       </c>
       <c r="J81" s="3">
-        <v>-15100</v>
+        <v>-15300</v>
       </c>
       <c r="K81" s="3">
         <v>-11400</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38700</v>
+        <v>39400</v>
       </c>
       <c r="E83" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="F83" s="3">
-        <v>25500</v>
+        <v>25900</v>
       </c>
       <c r="G83" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="H83" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="I83" s="3">
         <v>4400</v>
       </c>
       <c r="J83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K83" s="3">
         <v>1700</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>49800</v>
+        <v>50600</v>
       </c>
       <c r="E89" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="F89" s="3">
-        <v>25100</v>
+        <v>25600</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="I89" s="3">
         <v>-2400</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-247900</v>
+        <v>-252100</v>
       </c>
       <c r="E91" s="3">
-        <v>-352200</v>
+        <v>-358200</v>
       </c>
       <c r="F91" s="3">
-        <v>-265800</v>
+        <v>-270400</v>
       </c>
       <c r="G91" s="3">
-        <v>-208700</v>
+        <v>-212200</v>
       </c>
       <c r="H91" s="3">
-        <v>-123100</v>
+        <v>-125200</v>
       </c>
       <c r="I91" s="3">
-        <v>-114000</v>
+        <v>-115900</v>
       </c>
       <c r="J91" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="K91" s="3">
         <v>-45800</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-247000</v>
+        <v>-251200</v>
       </c>
       <c r="E94" s="3">
-        <v>-352500</v>
+        <v>-358500</v>
       </c>
       <c r="F94" s="3">
-        <v>-244400</v>
+        <v>-248600</v>
       </c>
       <c r="G94" s="3">
-        <v>-296900</v>
+        <v>-302000</v>
       </c>
       <c r="H94" s="3">
-        <v>-123900</v>
+        <v>-126000</v>
       </c>
       <c r="I94" s="3">
-        <v>-122500</v>
+        <v>-124500</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>218500</v>
+        <v>222200</v>
       </c>
       <c r="E100" s="3">
-        <v>363800</v>
+        <v>370000</v>
       </c>
       <c r="F100" s="3">
-        <v>227500</v>
+        <v>231400</v>
       </c>
       <c r="G100" s="3">
-        <v>329200</v>
+        <v>334800</v>
       </c>
       <c r="H100" s="3">
-        <v>128100</v>
+        <v>130200</v>
       </c>
       <c r="I100" s="3">
-        <v>130900</v>
+        <v>133100</v>
       </c>
       <c r="J100" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="K100" s="3">
         <v>48500</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20700</v>
+        <v>21100</v>
       </c>
       <c r="E102" s="3">
-        <v>39300</v>
+        <v>39900</v>
       </c>
       <c r="F102" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="G102" s="3">
-        <v>32100</v>
+        <v>32600</v>
       </c>
       <c r="H102" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="I102" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="J102" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="K102" s="3">
         <v>-9000</v>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>178300</v>
+        <v>178000</v>
       </c>
       <c r="E8" s="3">
-        <v>136600</v>
+        <v>136400</v>
       </c>
       <c r="F8" s="3">
-        <v>106000</v>
+        <v>105800</v>
       </c>
       <c r="G8" s="3">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="H8" s="3">
         <v>36100</v>
       </c>
       <c r="I8" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="J8" s="3">
         <v>12100</v>
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="E9" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="F9" s="3">
         <v>9500</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>162500</v>
+        <v>162300</v>
       </c>
       <c r="E10" s="3">
-        <v>124600</v>
+        <v>124400</v>
       </c>
       <c r="F10" s="3">
-        <v>96400</v>
+        <v>96300</v>
       </c>
       <c r="G10" s="3">
-        <v>52400</v>
+        <v>52300</v>
       </c>
       <c r="H10" s="3">
         <v>33500</v>
       </c>
       <c r="I10" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="J10" s="3">
         <v>11400</v>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>39400</v>
+        <v>39300</v>
       </c>
       <c r="E15" s="3">
         <v>29400</v>
@@ -976,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>88600</v>
+        <v>88500</v>
       </c>
       <c r="E17" s="3">
         <v>59400</v>
       </c>
       <c r="F17" s="3">
-        <v>51800</v>
+        <v>51700</v>
       </c>
       <c r="G17" s="3">
         <v>30500</v>
@@ -1009,13 +1009,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>89700</v>
+        <v>89600</v>
       </c>
       <c r="E18" s="3">
-        <v>77100</v>
+        <v>77000</v>
       </c>
       <c r="F18" s="3">
-        <v>54200</v>
+        <v>54100</v>
       </c>
       <c r="G18" s="3">
         <v>27000</v>
@@ -1069,7 +1069,7 @@
         <v>2400</v>
       </c>
       <c r="H20" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="I20" s="3">
         <v>-7300</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>119300</v>
+        <v>119100</v>
       </c>
       <c r="E21" s="3">
-        <v>108700</v>
+        <v>108500</v>
       </c>
       <c r="F21" s="3">
-        <v>78600</v>
+        <v>78500</v>
       </c>
       <c r="G21" s="3">
-        <v>43900</v>
+        <v>43800</v>
       </c>
       <c r="H21" s="3">
         <v>12500</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105300</v>
+        <v>105200</v>
       </c>
       <c r="E22" s="3">
-        <v>75300</v>
+        <v>75100</v>
       </c>
       <c r="F22" s="3">
-        <v>70200</v>
+        <v>70100</v>
       </c>
       <c r="G22" s="3">
-        <v>33600</v>
+        <v>33500</v>
       </c>
       <c r="H22" s="3">
         <v>21300</v>
@@ -1141,7 +1141,7 @@
         <v>8200</v>
       </c>
       <c r="J22" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K22" s="3">
         <v>2400</v>
@@ -1168,13 +1168,13 @@
         <v>-4100</v>
       </c>
       <c r="H23" s="3">
-        <v>-18300</v>
+        <v>-18200</v>
       </c>
       <c r="I23" s="3">
         <v>-11500</v>
       </c>
       <c r="J23" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="K23" s="3">
         <v>-5700</v>
@@ -1255,7 +1255,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32200</v>
+        <v>-32100</v>
       </c>
       <c r="E26" s="3">
         <v>1900</v>
@@ -1267,7 +1267,7 @@
         <v>-16400</v>
       </c>
       <c r="H26" s="3">
-        <v>-22800</v>
+        <v>-22700</v>
       </c>
       <c r="I26" s="3">
         <v>-15000</v>
@@ -1300,7 +1300,7 @@
         <v>-20000</v>
       </c>
       <c r="H27" s="3">
-        <v>-41700</v>
+        <v>-41600</v>
       </c>
       <c r="I27" s="3">
         <v>-25300</v>
@@ -1465,7 +1465,7 @@
         <v>-2400</v>
       </c>
       <c r="H32" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I32" s="3">
         <v>7300</v>
@@ -1498,7 +1498,7 @@
         <v>-20000</v>
       </c>
       <c r="H33" s="3">
-        <v>-41700</v>
+        <v>-41600</v>
       </c>
       <c r="I33" s="3">
         <v>-25300</v>
@@ -1564,7 +1564,7 @@
         <v>-20000</v>
       </c>
       <c r="H35" s="3">
-        <v>-41700</v>
+        <v>-41600</v>
       </c>
       <c r="I35" s="3">
         <v>-25300</v>
@@ -1656,13 +1656,13 @@
         <v>39900</v>
       </c>
       <c r="E41" s="3">
-        <v>35000</v>
+        <v>34900</v>
       </c>
       <c r="F41" s="3">
-        <v>22500</v>
+        <v>22400</v>
       </c>
       <c r="G41" s="3">
-        <v>63500</v>
+        <v>63400</v>
       </c>
       <c r="H41" s="3">
         <v>38500</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>94800</v>
+        <v>94700</v>
       </c>
       <c r="E42" s="3">
-        <v>110100</v>
+        <v>110000</v>
       </c>
       <c r="F42" s="3">
-        <v>111400</v>
+        <v>111300</v>
       </c>
       <c r="G42" s="3">
-        <v>57000</v>
+        <v>56900</v>
       </c>
       <c r="H42" s="3">
         <v>4000</v>
@@ -1719,13 +1719,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64600</v>
+        <v>64500</v>
       </c>
       <c r="E43" s="3">
         <v>48800</v>
       </c>
       <c r="F43" s="3">
-        <v>34100</v>
+        <v>34000</v>
       </c>
       <c r="G43" s="3">
         <v>16500</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86100</v>
+        <v>86000</v>
       </c>
       <c r="E45" s="3">
-        <v>45500</v>
+        <v>45400</v>
       </c>
       <c r="F45" s="3">
-        <v>45000</v>
+        <v>44900</v>
       </c>
       <c r="G45" s="3">
-        <v>55900</v>
+        <v>55800</v>
       </c>
       <c r="H45" s="3">
         <v>18000</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>285400</v>
+        <v>285000</v>
       </c>
       <c r="E46" s="3">
-        <v>239400</v>
+        <v>239100</v>
       </c>
       <c r="F46" s="3">
-        <v>212900</v>
+        <v>212600</v>
       </c>
       <c r="G46" s="3">
-        <v>192900</v>
+        <v>192600</v>
       </c>
       <c r="H46" s="3">
-        <v>68600</v>
+        <v>68500</v>
       </c>
       <c r="I46" s="3">
-        <v>45600</v>
+        <v>45500</v>
       </c>
       <c r="J46" s="3">
         <v>26800</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1381900</v>
+        <v>1379900</v>
       </c>
       <c r="E48" s="3">
-        <v>1148200</v>
+        <v>1146500</v>
       </c>
       <c r="F48" s="3">
-        <v>778600</v>
+        <v>777400</v>
       </c>
       <c r="G48" s="3">
-        <v>563400</v>
+        <v>562600</v>
       </c>
       <c r="H48" s="3">
-        <v>335500</v>
+        <v>335000</v>
       </c>
       <c r="I48" s="3">
-        <v>208400</v>
+        <v>208100</v>
       </c>
       <c r="J48" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="K48" s="3">
         <v>78100</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>149700</v>
+        <v>149400</v>
       </c>
       <c r="E52" s="3">
-        <v>102300</v>
+        <v>102200</v>
       </c>
       <c r="F52" s="3">
         <v>22200</v>
       </c>
       <c r="G52" s="3">
-        <v>31200</v>
+        <v>31100</v>
       </c>
       <c r="H52" s="3">
         <v>18200</v>
       </c>
       <c r="I52" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="J52" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="K52" s="3">
         <v>8300</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1821800</v>
+        <v>1819200</v>
       </c>
       <c r="E54" s="3">
-        <v>1498000</v>
+        <v>1495800</v>
       </c>
       <c r="F54" s="3">
-        <v>1018000</v>
+        <v>1016500</v>
       </c>
       <c r="G54" s="3">
-        <v>791100</v>
+        <v>790000</v>
       </c>
       <c r="H54" s="3">
-        <v>425100</v>
+        <v>424400</v>
       </c>
       <c r="I54" s="3">
-        <v>274200</v>
+        <v>273800</v>
       </c>
       <c r="J54" s="3">
-        <v>127600</v>
+        <v>127400</v>
       </c>
       <c r="K54" s="3">
         <v>107500</v>
@@ -2154,13 +2154,13 @@
         <v>20900</v>
       </c>
       <c r="G57" s="3">
-        <v>49800</v>
+        <v>49700</v>
       </c>
       <c r="H57" s="3">
         <v>26100</v>
       </c>
       <c r="I57" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2178,10 +2178,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>45100</v>
+        <v>45000</v>
       </c>
       <c r="E58" s="3">
-        <v>139200</v>
+        <v>139000</v>
       </c>
       <c r="F58" s="3">
         <v>23500</v>
@@ -2190,13 +2190,13 @@
         <v>55200</v>
       </c>
       <c r="H58" s="3">
-        <v>78900</v>
+        <v>78800</v>
       </c>
       <c r="I58" s="3">
         <v>31000</v>
       </c>
       <c r="J58" s="3">
-        <v>26300</v>
+        <v>26200</v>
       </c>
       <c r="K58" s="3">
         <v>24400</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>57100</v>
+        <v>57000</v>
       </c>
       <c r="E59" s="3">
-        <v>47000</v>
+        <v>46900</v>
       </c>
       <c r="F59" s="3">
-        <v>26400</v>
+        <v>26300</v>
       </c>
       <c r="G59" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="H59" s="3">
         <v>6400</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>126900</v>
+        <v>126800</v>
       </c>
       <c r="E60" s="3">
-        <v>234000</v>
+        <v>233700</v>
       </c>
       <c r="F60" s="3">
-        <v>70800</v>
+        <v>70700</v>
       </c>
       <c r="G60" s="3">
-        <v>118600</v>
+        <v>118400</v>
       </c>
       <c r="H60" s="3">
-        <v>111500</v>
+        <v>111300</v>
       </c>
       <c r="I60" s="3">
         <v>50500</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1191400</v>
+        <v>1189700</v>
       </c>
       <c r="E61" s="3">
-        <v>848400</v>
+        <v>847200</v>
       </c>
       <c r="F61" s="3">
-        <v>718800</v>
+        <v>717700</v>
       </c>
       <c r="G61" s="3">
-        <v>428500</v>
+        <v>427900</v>
       </c>
       <c r="H61" s="3">
-        <v>252500</v>
+        <v>252200</v>
       </c>
       <c r="I61" s="3">
-        <v>213000</v>
+        <v>212700</v>
       </c>
       <c r="J61" s="3">
-        <v>97900</v>
+        <v>97700</v>
       </c>
       <c r="K61" s="3">
         <v>69900</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>129000</v>
+        <v>128800</v>
       </c>
       <c r="E62" s="3">
-        <v>66100</v>
+        <v>66000</v>
       </c>
       <c r="F62" s="3">
-        <v>45800</v>
+        <v>45700</v>
       </c>
       <c r="G62" s="3">
         <v>38700</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1450100</v>
+        <v>1448000</v>
       </c>
       <c r="E66" s="3">
-        <v>1152200</v>
+        <v>1150500</v>
       </c>
       <c r="F66" s="3">
-        <v>851300</v>
+        <v>850000</v>
       </c>
       <c r="G66" s="3">
-        <v>609200</v>
+        <v>608300</v>
       </c>
       <c r="H66" s="3">
-        <v>393500</v>
+        <v>392900</v>
       </c>
       <c r="I66" s="3">
-        <v>270800</v>
+        <v>270400</v>
       </c>
       <c r="J66" s="3">
-        <v>130800</v>
+        <v>130600</v>
       </c>
       <c r="K66" s="3">
         <v>100900</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>133900</v>
+        <v>133700</v>
       </c>
       <c r="I70" s="3">
-        <v>64500</v>
+        <v>64400</v>
       </c>
       <c r="J70" s="3">
         <v>32800</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-118100</v>
+        <v>-117900</v>
       </c>
       <c r="E72" s="3">
-        <v>-86800</v>
+        <v>-86700</v>
       </c>
       <c r="F72" s="3">
-        <v>-90700</v>
+        <v>-90600</v>
       </c>
       <c r="G72" s="3">
-        <v>-78800</v>
+        <v>-78600</v>
       </c>
       <c r="H72" s="3">
-        <v>-62000</v>
+        <v>-61900</v>
       </c>
       <c r="I72" s="3">
         <v>-38900</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>371800</v>
+        <v>371200</v>
       </c>
       <c r="E76" s="3">
-        <v>345800</v>
+        <v>345300</v>
       </c>
       <c r="F76" s="3">
-        <v>166700</v>
+        <v>166500</v>
       </c>
       <c r="G76" s="3">
-        <v>181900</v>
+        <v>181700</v>
       </c>
       <c r="H76" s="3">
-        <v>-102300</v>
+        <v>-102200</v>
       </c>
       <c r="I76" s="3">
-        <v>-61200</v>
+        <v>-61100</v>
       </c>
       <c r="J76" s="3">
         <v>-36000</v>
@@ -2870,7 +2870,7 @@
         <v>-20000</v>
       </c>
       <c r="H81" s="3">
-        <v>-41700</v>
+        <v>-41600</v>
       </c>
       <c r="I81" s="3">
         <v>-25300</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39400</v>
+        <v>39300</v>
       </c>
       <c r="E83" s="3">
         <v>29400</v>
@@ -3104,13 +3104,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50600</v>
+        <v>50500</v>
       </c>
       <c r="E89" s="3">
         <v>29400</v>
       </c>
       <c r="F89" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-252100</v>
+        <v>-251700</v>
       </c>
       <c r="E91" s="3">
-        <v>-358200</v>
+        <v>-357600</v>
       </c>
       <c r="F91" s="3">
-        <v>-270400</v>
+        <v>-270000</v>
       </c>
       <c r="G91" s="3">
-        <v>-212200</v>
+        <v>-211900</v>
       </c>
       <c r="H91" s="3">
-        <v>-125200</v>
+        <v>-125000</v>
       </c>
       <c r="I91" s="3">
-        <v>-115900</v>
+        <v>-115800</v>
       </c>
       <c r="J91" s="3">
         <v>-5100</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-251200</v>
+        <v>-250800</v>
       </c>
       <c r="E94" s="3">
-        <v>-358500</v>
+        <v>-358000</v>
       </c>
       <c r="F94" s="3">
-        <v>-248600</v>
+        <v>-248200</v>
       </c>
       <c r="G94" s="3">
-        <v>-302000</v>
+        <v>-301500</v>
       </c>
       <c r="H94" s="3">
-        <v>-126000</v>
+        <v>-125800</v>
       </c>
       <c r="I94" s="3">
-        <v>-124500</v>
+        <v>-124400</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>222200</v>
+        <v>221800</v>
       </c>
       <c r="E100" s="3">
-        <v>370000</v>
+        <v>369400</v>
       </c>
       <c r="F100" s="3">
-        <v>231400</v>
+        <v>231100</v>
       </c>
       <c r="G100" s="3">
-        <v>334800</v>
+        <v>334300</v>
       </c>
       <c r="H100" s="3">
-        <v>130200</v>
+        <v>130100</v>
       </c>
       <c r="I100" s="3">
-        <v>133100</v>
+        <v>132900</v>
       </c>
       <c r="J100" s="3">
         <v>14600</v>
@@ -3497,7 +3497,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21100</v>
+        <v>21000</v>
       </c>
       <c r="E102" s="3">
         <v>39900</v>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>178000</v>
+        <v>204900</v>
       </c>
       <c r="E8" s="3">
-        <v>136400</v>
+        <v>174300</v>
       </c>
       <c r="F8" s="3">
-        <v>105800</v>
+        <v>133500</v>
       </c>
       <c r="G8" s="3">
-        <v>57500</v>
+        <v>103600</v>
       </c>
       <c r="H8" s="3">
-        <v>36100</v>
+        <v>56300</v>
       </c>
       <c r="I8" s="3">
-        <v>15400</v>
+        <v>35300</v>
       </c>
       <c r="J8" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K8" s="3">
         <v>12100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>15700</v>
+        <v>17000</v>
       </c>
       <c r="E9" s="3">
-        <v>11900</v>
+        <v>15400</v>
       </c>
       <c r="F9" s="3">
-        <v>9500</v>
+        <v>11700</v>
       </c>
       <c r="G9" s="3">
-        <v>5200</v>
+        <v>9300</v>
       </c>
       <c r="H9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>162300</v>
+        <v>188000</v>
       </c>
       <c r="E10" s="3">
-        <v>124400</v>
+        <v>158900</v>
       </c>
       <c r="F10" s="3">
-        <v>96300</v>
+        <v>121800</v>
       </c>
       <c r="G10" s="3">
-        <v>52300</v>
+        <v>94300</v>
       </c>
       <c r="H10" s="3">
-        <v>33500</v>
+        <v>51200</v>
       </c>
       <c r="I10" s="3">
-        <v>14300</v>
+        <v>32800</v>
       </c>
       <c r="J10" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K10" s="3">
         <v>11400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,32 +907,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>43800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -924,42 +943,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>39300</v>
+        <v>43100</v>
       </c>
       <c r="E15" s="3">
-        <v>29400</v>
+        <v>38500</v>
       </c>
       <c r="F15" s="3">
-        <v>25900</v>
+        <v>28700</v>
       </c>
       <c r="G15" s="3">
-        <v>14400</v>
+        <v>25300</v>
       </c>
       <c r="H15" s="3">
-        <v>9500</v>
+        <v>14100</v>
       </c>
       <c r="I15" s="3">
-        <v>4400</v>
+        <v>9300</v>
       </c>
       <c r="J15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>88500</v>
+        <v>144000</v>
       </c>
       <c r="E17" s="3">
-        <v>59400</v>
+        <v>86600</v>
       </c>
       <c r="F17" s="3">
-        <v>51700</v>
+        <v>58100</v>
       </c>
       <c r="G17" s="3">
-        <v>30500</v>
+        <v>50600</v>
       </c>
       <c r="H17" s="3">
-        <v>21300</v>
+        <v>29900</v>
       </c>
       <c r="I17" s="3">
-        <v>11400</v>
+        <v>20900</v>
       </c>
       <c r="J17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>89600</v>
+        <v>60900</v>
       </c>
       <c r="E18" s="3">
-        <v>77000</v>
+        <v>87700</v>
       </c>
       <c r="F18" s="3">
-        <v>54100</v>
+        <v>75400</v>
       </c>
       <c r="G18" s="3">
-        <v>27000</v>
+        <v>53000</v>
       </c>
       <c r="H18" s="3">
-        <v>14800</v>
+        <v>26400</v>
       </c>
       <c r="I18" s="3">
-        <v>4100</v>
+        <v>14500</v>
       </c>
       <c r="J18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K18" s="3">
         <v>4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,173 +1083,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9800</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-11700</v>
-      </c>
       <c r="I20" s="3">
-        <v>-7300</v>
+        <v>-11500</v>
       </c>
       <c r="J20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>119100</v>
+        <v>103500</v>
       </c>
       <c r="E21" s="3">
-        <v>108500</v>
+        <v>116600</v>
       </c>
       <c r="F21" s="3">
-        <v>78500</v>
+        <v>106200</v>
       </c>
       <c r="G21" s="3">
-        <v>43800</v>
+        <v>76800</v>
       </c>
       <c r="H21" s="3">
-        <v>12500</v>
+        <v>42900</v>
       </c>
       <c r="I21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105200</v>
+        <v>113000</v>
       </c>
       <c r="E22" s="3">
-        <v>75100</v>
+        <v>103000</v>
       </c>
       <c r="F22" s="3">
-        <v>70100</v>
+        <v>73600</v>
       </c>
       <c r="G22" s="3">
-        <v>33500</v>
+        <v>68700</v>
       </c>
       <c r="H22" s="3">
-        <v>21300</v>
+        <v>32800</v>
       </c>
       <c r="I22" s="3">
-        <v>8200</v>
+        <v>20800</v>
       </c>
       <c r="J22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K22" s="3">
         <v>4300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25400</v>
+        <v>-52500</v>
       </c>
       <c r="E23" s="3">
-        <v>4000</v>
+        <v>-24900</v>
       </c>
       <c r="F23" s="3">
-        <v>-17500</v>
+        <v>3900</v>
       </c>
       <c r="G23" s="3">
-        <v>-4100</v>
+        <v>-17200</v>
       </c>
       <c r="H23" s="3">
-        <v>-18200</v>
+        <v>-4000</v>
       </c>
       <c r="I23" s="3">
-        <v>-11500</v>
+        <v>-17800</v>
       </c>
       <c r="J23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6700</v>
+        <v>4000</v>
       </c>
       <c r="E24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
-        <v>12300</v>
-      </c>
       <c r="H24" s="3">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="I24" s="3">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="J24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32100</v>
+        <v>-56500</v>
       </c>
       <c r="E26" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-15600</v>
-      </c>
       <c r="G26" s="3">
-        <v>-16400</v>
+        <v>-15300</v>
       </c>
       <c r="H26" s="3">
-        <v>-22700</v>
+        <v>-16000</v>
       </c>
       <c r="I26" s="3">
-        <v>-15000</v>
+        <v>-22300</v>
       </c>
       <c r="J26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-31200</v>
+        <v>-56600</v>
       </c>
       <c r="E27" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-12900</v>
-      </c>
       <c r="G27" s="3">
-        <v>-20000</v>
+        <v>-12600</v>
       </c>
       <c r="H27" s="3">
-        <v>-41600</v>
+        <v>-19500</v>
       </c>
       <c r="I27" s="3">
-        <v>-25300</v>
+        <v>-40700</v>
       </c>
       <c r="J27" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,24 +1404,27 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>1500</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9800</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
-        <v>11700</v>
-      </c>
       <c r="I32" s="3">
-        <v>7300</v>
+        <v>11500</v>
       </c>
       <c r="J32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K32" s="3">
         <v>10800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-31200</v>
+        <v>-56600</v>
       </c>
       <c r="E33" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-11400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-41600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-25300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-31200</v>
+        <v>-56600</v>
       </c>
       <c r="E35" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-11400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-41600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-25300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,107 +1732,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39900</v>
+        <v>15700</v>
       </c>
       <c r="E41" s="3">
-        <v>34900</v>
+        <v>39000</v>
       </c>
       <c r="F41" s="3">
-        <v>22400</v>
+        <v>34200</v>
       </c>
       <c r="G41" s="3">
-        <v>63400</v>
+        <v>21900</v>
       </c>
       <c r="H41" s="3">
-        <v>38500</v>
+        <v>62100</v>
       </c>
       <c r="I41" s="3">
-        <v>26800</v>
+        <v>37600</v>
       </c>
       <c r="J41" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K41" s="3">
         <v>14300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>94700</v>
+        <v>133600</v>
       </c>
       <c r="E42" s="3">
-        <v>110000</v>
+        <v>92700</v>
       </c>
       <c r="F42" s="3">
-        <v>111300</v>
+        <v>107600</v>
       </c>
       <c r="G42" s="3">
-        <v>56900</v>
+        <v>108900</v>
       </c>
       <c r="H42" s="3">
+        <v>55700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L42" s="3">
         <v>4000</v>
       </c>
-      <c r="I42" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64500</v>
+        <v>69800</v>
       </c>
       <c r="E43" s="3">
-        <v>48800</v>
+        <v>63100</v>
       </c>
       <c r="F43" s="3">
-        <v>34000</v>
+        <v>47700</v>
       </c>
       <c r="G43" s="3">
-        <v>16500</v>
+        <v>33300</v>
       </c>
       <c r="H43" s="3">
-        <v>8000</v>
+        <v>16200</v>
       </c>
       <c r="I43" s="3">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="J43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,174 +1873,192 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86000</v>
+        <v>135400</v>
       </c>
       <c r="E45" s="3">
-        <v>45400</v>
+        <v>84200</v>
       </c>
       <c r="F45" s="3">
-        <v>44900</v>
+        <v>44500</v>
       </c>
       <c r="G45" s="3">
-        <v>55800</v>
+        <v>44000</v>
       </c>
       <c r="H45" s="3">
-        <v>18000</v>
+        <v>54600</v>
       </c>
       <c r="I45" s="3">
-        <v>14000</v>
+        <v>17600</v>
       </c>
       <c r="J45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>285000</v>
+        <v>354600</v>
       </c>
       <c r="E46" s="3">
-        <v>239100</v>
+        <v>279000</v>
       </c>
       <c r="F46" s="3">
-        <v>212600</v>
+        <v>234000</v>
       </c>
       <c r="G46" s="3">
-        <v>192600</v>
+        <v>208100</v>
       </c>
       <c r="H46" s="3">
-        <v>68500</v>
+        <v>188600</v>
       </c>
       <c r="I46" s="3">
-        <v>45500</v>
+        <v>67100</v>
       </c>
       <c r="J46" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K46" s="3">
         <v>26800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>3400</v>
       </c>
       <c r="E47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F47" s="3">
         <v>2600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2200</v>
       </c>
-      <c r="G47" s="3">
-        <v>1900</v>
-      </c>
       <c r="H47" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="I47" s="3">
         <v>1200</v>
       </c>
       <c r="J47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1379900</v>
+        <v>1520700</v>
       </c>
       <c r="E48" s="3">
-        <v>1146500</v>
+        <v>1350700</v>
       </c>
       <c r="F48" s="3">
-        <v>777400</v>
+        <v>1122300</v>
       </c>
       <c r="G48" s="3">
-        <v>562600</v>
+        <v>761000</v>
       </c>
       <c r="H48" s="3">
-        <v>335000</v>
+        <v>550700</v>
       </c>
       <c r="I48" s="3">
-        <v>208100</v>
+        <v>327900</v>
       </c>
       <c r="J48" s="3">
+        <v>203700</v>
+      </c>
+      <c r="K48" s="3">
         <v>82900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>78100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
-        <v>5400</v>
+        <v>700</v>
       </c>
       <c r="F49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G49" s="3">
         <v>2100</v>
       </c>
-      <c r="G49" s="3">
-        <v>1800</v>
-      </c>
       <c r="H49" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="I49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J49" s="3">
         <v>1300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>149400</v>
+        <v>117800</v>
       </c>
       <c r="E52" s="3">
-        <v>102200</v>
+        <v>146300</v>
       </c>
       <c r="F52" s="3">
-        <v>22200</v>
+        <v>100000</v>
       </c>
       <c r="G52" s="3">
-        <v>31100</v>
+        <v>21700</v>
       </c>
       <c r="H52" s="3">
-        <v>18200</v>
+        <v>30500</v>
       </c>
       <c r="I52" s="3">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="J52" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K52" s="3">
         <v>16300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1819200</v>
+        <v>1996900</v>
       </c>
       <c r="E54" s="3">
-        <v>1495800</v>
+        <v>1780800</v>
       </c>
       <c r="F54" s="3">
-        <v>1016500</v>
+        <v>1464200</v>
       </c>
       <c r="G54" s="3">
-        <v>790000</v>
+        <v>995100</v>
       </c>
       <c r="H54" s="3">
-        <v>424400</v>
+        <v>773300</v>
       </c>
       <c r="I54" s="3">
-        <v>273800</v>
+        <v>415500</v>
       </c>
       <c r="J54" s="3">
+        <v>268000</v>
+      </c>
+      <c r="K54" s="3">
         <v>127400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>107500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24700</v>
+        <v>57800</v>
       </c>
       <c r="E57" s="3">
-        <v>47800</v>
+        <v>24100</v>
       </c>
       <c r="F57" s="3">
-        <v>20900</v>
+        <v>46800</v>
       </c>
       <c r="G57" s="3">
-        <v>49700</v>
+        <v>20500</v>
       </c>
       <c r="H57" s="3">
-        <v>26100</v>
+        <v>48700</v>
       </c>
       <c r="I57" s="3">
-        <v>13300</v>
+        <v>25500</v>
       </c>
       <c r="J57" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>45000</v>
+        <v>182900</v>
       </c>
       <c r="E58" s="3">
-        <v>139000</v>
+        <v>44100</v>
       </c>
       <c r="F58" s="3">
-        <v>23500</v>
+        <v>136000</v>
       </c>
       <c r="G58" s="3">
-        <v>55200</v>
+        <v>23000</v>
       </c>
       <c r="H58" s="3">
-        <v>78800</v>
+        <v>54000</v>
       </c>
       <c r="I58" s="3">
-        <v>31000</v>
+        <v>77100</v>
       </c>
       <c r="J58" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K58" s="3">
         <v>26200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>57000</v>
+        <v>83000</v>
       </c>
       <c r="E59" s="3">
-        <v>46900</v>
+        <v>55800</v>
       </c>
       <c r="F59" s="3">
-        <v>26300</v>
+        <v>45900</v>
       </c>
       <c r="G59" s="3">
-        <v>13500</v>
+        <v>25800</v>
       </c>
       <c r="H59" s="3">
-        <v>6400</v>
+        <v>13300</v>
       </c>
       <c r="I59" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="J59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>126800</v>
+        <v>323600</v>
       </c>
       <c r="E60" s="3">
-        <v>233700</v>
+        <v>124100</v>
       </c>
       <c r="F60" s="3">
-        <v>70700</v>
+        <v>228700</v>
       </c>
       <c r="G60" s="3">
-        <v>118400</v>
+        <v>69200</v>
       </c>
       <c r="H60" s="3">
-        <v>111300</v>
+        <v>115900</v>
       </c>
       <c r="I60" s="3">
-        <v>50500</v>
+        <v>109000</v>
       </c>
       <c r="J60" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K60" s="3">
         <v>28100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1189700</v>
+        <v>1209500</v>
       </c>
       <c r="E61" s="3">
-        <v>847200</v>
+        <v>1164600</v>
       </c>
       <c r="F61" s="3">
-        <v>717700</v>
+        <v>829300</v>
       </c>
       <c r="G61" s="3">
-        <v>427900</v>
+        <v>702600</v>
       </c>
       <c r="H61" s="3">
-        <v>252200</v>
+        <v>418900</v>
       </c>
       <c r="I61" s="3">
-        <v>212700</v>
+        <v>246800</v>
       </c>
       <c r="J61" s="3">
+        <v>208200</v>
+      </c>
+      <c r="K61" s="3">
         <v>97700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>69900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>128800</v>
+        <v>134900</v>
       </c>
       <c r="E62" s="3">
-        <v>66000</v>
+        <v>126100</v>
       </c>
       <c r="F62" s="3">
-        <v>45700</v>
+        <v>64600</v>
       </c>
       <c r="G62" s="3">
-        <v>38700</v>
+        <v>44700</v>
       </c>
       <c r="H62" s="3">
-        <v>24700</v>
+        <v>37800</v>
       </c>
       <c r="I62" s="3">
-        <v>7200</v>
+        <v>24100</v>
       </c>
       <c r="J62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K62" s="3">
         <v>4700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1448000</v>
+        <v>1670700</v>
       </c>
       <c r="E66" s="3">
-        <v>1150500</v>
+        <v>1417400</v>
       </c>
       <c r="F66" s="3">
-        <v>850000</v>
+        <v>1126200</v>
       </c>
       <c r="G66" s="3">
-        <v>608300</v>
+        <v>832100</v>
       </c>
       <c r="H66" s="3">
-        <v>392900</v>
+        <v>595500</v>
       </c>
       <c r="I66" s="3">
-        <v>270400</v>
+        <v>384600</v>
       </c>
       <c r="J66" s="3">
+        <v>264700</v>
+      </c>
+      <c r="K66" s="3">
         <v>130600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2568,23 +2735,26 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>133700</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>64400</v>
+        <v>130900</v>
       </c>
       <c r="J70" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K70" s="3">
         <v>32800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>26700</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-117900</v>
+        <v>-172000</v>
       </c>
       <c r="E72" s="3">
-        <v>-86700</v>
+        <v>-115400</v>
       </c>
       <c r="F72" s="3">
-        <v>-90600</v>
+        <v>-84900</v>
       </c>
       <c r="G72" s="3">
-        <v>-78600</v>
+        <v>-88700</v>
       </c>
       <c r="H72" s="3">
-        <v>-61900</v>
+        <v>-77000</v>
       </c>
       <c r="I72" s="3">
-        <v>-38900</v>
+        <v>-60600</v>
       </c>
       <c r="J72" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-24000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>371200</v>
+        <v>326100</v>
       </c>
       <c r="E76" s="3">
-        <v>345300</v>
+        <v>363400</v>
       </c>
       <c r="F76" s="3">
-        <v>166500</v>
+        <v>338000</v>
       </c>
       <c r="G76" s="3">
-        <v>181700</v>
+        <v>163000</v>
       </c>
       <c r="H76" s="3">
-        <v>-102200</v>
+        <v>177800</v>
       </c>
       <c r="I76" s="3">
-        <v>-61100</v>
+        <v>-100000</v>
       </c>
       <c r="J76" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-36000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-20100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-31200</v>
+        <v>-56600</v>
       </c>
       <c r="E81" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-11400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-41600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-25300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39300</v>
+        <v>43100</v>
       </c>
       <c r="E83" s="3">
-        <v>29400</v>
+        <v>38500</v>
       </c>
       <c r="F83" s="3">
-        <v>25900</v>
+        <v>28700</v>
       </c>
       <c r="G83" s="3">
-        <v>14400</v>
+        <v>25300</v>
       </c>
       <c r="H83" s="3">
-        <v>9500</v>
+        <v>14100</v>
       </c>
       <c r="I83" s="3">
-        <v>4400</v>
+        <v>9300</v>
       </c>
       <c r="J83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50500</v>
+        <v>66900</v>
       </c>
       <c r="E89" s="3">
-        <v>29400</v>
+        <v>49500</v>
       </c>
       <c r="F89" s="3">
-        <v>25500</v>
+        <v>28800</v>
       </c>
       <c r="G89" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>10100</v>
-      </c>
       <c r="I89" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-251700</v>
+        <v>-254300</v>
       </c>
       <c r="E91" s="3">
-        <v>-357600</v>
+        <v>-246400</v>
       </c>
       <c r="F91" s="3">
-        <v>-270000</v>
+        <v>-350100</v>
       </c>
       <c r="G91" s="3">
-        <v>-211900</v>
+        <v>-264300</v>
       </c>
       <c r="H91" s="3">
-        <v>-125000</v>
+        <v>-207400</v>
       </c>
       <c r="I91" s="3">
-        <v>-115800</v>
+        <v>-122400</v>
       </c>
       <c r="J91" s="3">
+        <v>-113300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-250800</v>
+        <v>-254500</v>
       </c>
       <c r="E94" s="3">
-        <v>-358000</v>
+        <v>-245500</v>
       </c>
       <c r="F94" s="3">
-        <v>-248200</v>
+        <v>-350400</v>
       </c>
       <c r="G94" s="3">
-        <v>-301500</v>
+        <v>-243000</v>
       </c>
       <c r="H94" s="3">
-        <v>-125800</v>
+        <v>-295200</v>
       </c>
       <c r="I94" s="3">
-        <v>-124400</v>
+        <v>-123200</v>
       </c>
       <c r="J94" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,62 +3666,68 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>221800</v>
+        <v>203000</v>
       </c>
       <c r="E100" s="3">
-        <v>369400</v>
+        <v>217200</v>
       </c>
       <c r="F100" s="3">
-        <v>231100</v>
+        <v>361600</v>
       </c>
       <c r="G100" s="3">
-        <v>334300</v>
+        <v>226200</v>
       </c>
       <c r="H100" s="3">
+        <v>327300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>127300</v>
+      </c>
+      <c r="J100" s="3">
         <v>130100</v>
       </c>
-      <c r="I100" s="3">
-        <v>132900</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3487,43 +3735,49 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21000</v>
+        <v>15600</v>
       </c>
       <c r="E102" s="3">
-        <v>39900</v>
+        <v>20600</v>
       </c>
       <c r="F102" s="3">
-        <v>8400</v>
+        <v>39000</v>
       </c>
       <c r="G102" s="3">
-        <v>32600</v>
+        <v>8200</v>
       </c>
       <c r="H102" s="3">
-        <v>14400</v>
+        <v>31900</v>
       </c>
       <c r="I102" s="3">
-        <v>6100</v>
+        <v>14100</v>
       </c>
       <c r="J102" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K102" s="3">
         <v>14100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>204900</v>
+        <v>203100</v>
       </c>
       <c r="E8" s="3">
-        <v>174300</v>
+        <v>172700</v>
       </c>
       <c r="F8" s="3">
-        <v>133500</v>
+        <v>132300</v>
       </c>
       <c r="G8" s="3">
-        <v>103600</v>
+        <v>102600</v>
       </c>
       <c r="H8" s="3">
-        <v>56300</v>
+        <v>55800</v>
       </c>
       <c r="I8" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="J8" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="K8" s="3">
         <v>12100</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="E9" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="F9" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="G9" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="H9" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I9" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J9" s="3">
         <v>1100</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>188000</v>
+        <v>186300</v>
       </c>
       <c r="E10" s="3">
-        <v>158900</v>
+        <v>157500</v>
       </c>
       <c r="F10" s="3">
-        <v>121800</v>
+        <v>120700</v>
       </c>
       <c r="G10" s="3">
-        <v>94300</v>
+        <v>93400</v>
       </c>
       <c r="H10" s="3">
-        <v>51200</v>
+        <v>50700</v>
       </c>
       <c r="I10" s="3">
-        <v>32800</v>
+        <v>32500</v>
       </c>
       <c r="J10" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="K10" s="3">
         <v>11400</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="E15" s="3">
-        <v>38500</v>
+        <v>38100</v>
       </c>
       <c r="F15" s="3">
-        <v>28700</v>
+        <v>28500</v>
       </c>
       <c r="G15" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="H15" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="I15" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="J15" s="3">
         <v>4300</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>144000</v>
+        <v>142700</v>
       </c>
       <c r="E17" s="3">
-        <v>86600</v>
+        <v>85800</v>
       </c>
       <c r="F17" s="3">
-        <v>58100</v>
+        <v>57600</v>
       </c>
       <c r="G17" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="H17" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="I17" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="J17" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="K17" s="3">
         <v>7400</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>60900</v>
+        <v>60400</v>
       </c>
       <c r="E18" s="3">
-        <v>87700</v>
+        <v>86900</v>
       </c>
       <c r="F18" s="3">
-        <v>75400</v>
+        <v>74700</v>
       </c>
       <c r="G18" s="3">
-        <v>53000</v>
+        <v>52500</v>
       </c>
       <c r="H18" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="I18" s="3">
-        <v>14500</v>
+        <v>14300</v>
       </c>
       <c r="J18" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="K18" s="3">
         <v>4700</v>
@@ -1093,7 +1093,7 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="F20" s="3">
         <v>2100</v>
@@ -1105,10 +1105,10 @@
         <v>2400</v>
       </c>
       <c r="I20" s="3">
-        <v>-11500</v>
+        <v>-11400</v>
       </c>
       <c r="J20" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="K20" s="3">
         <v>-10800</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>103500</v>
+        <v>102600</v>
       </c>
       <c r="E21" s="3">
-        <v>116600</v>
+        <v>115500</v>
       </c>
       <c r="F21" s="3">
-        <v>106200</v>
+        <v>105300</v>
       </c>
       <c r="G21" s="3">
-        <v>76800</v>
+        <v>76100</v>
       </c>
       <c r="H21" s="3">
-        <v>42900</v>
+        <v>42500</v>
       </c>
       <c r="I21" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J21" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K21" s="3">
         <v>-2600</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>113000</v>
+        <v>112000</v>
       </c>
       <c r="E22" s="3">
-        <v>103000</v>
+        <v>102000</v>
       </c>
       <c r="F22" s="3">
-        <v>73600</v>
+        <v>72900</v>
       </c>
       <c r="G22" s="3">
-        <v>68700</v>
+        <v>68000</v>
       </c>
       <c r="H22" s="3">
-        <v>32800</v>
+        <v>32500</v>
       </c>
       <c r="I22" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="J22" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="K22" s="3">
         <v>4300</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-52500</v>
+        <v>-52100</v>
       </c>
       <c r="E23" s="3">
-        <v>-24900</v>
+        <v>-24600</v>
       </c>
       <c r="F23" s="3">
         <v>3900</v>
       </c>
       <c r="G23" s="3">
-        <v>-17200</v>
+        <v>-17000</v>
       </c>
       <c r="H23" s="3">
         <v>-4000</v>
       </c>
       <c r="I23" s="3">
-        <v>-17800</v>
+        <v>-17700</v>
       </c>
       <c r="J23" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="K23" s="3">
         <v>-10400</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E24" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="F24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="3">
         <v>-1900</v>
       </c>
       <c r="H24" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="I24" s="3">
         <v>4400</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-56500</v>
+        <v>-56000</v>
       </c>
       <c r="E26" s="3">
-        <v>-31400</v>
+        <v>-31200</v>
       </c>
       <c r="F26" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G26" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="H26" s="3">
-        <v>-16000</v>
+        <v>-15900</v>
       </c>
       <c r="I26" s="3">
-        <v>-22300</v>
+        <v>-22100</v>
       </c>
       <c r="J26" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="K26" s="3">
         <v>-10700</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-56600</v>
+        <v>-56100</v>
       </c>
       <c r="E27" s="3">
-        <v>-30500</v>
+        <v>-30200</v>
       </c>
       <c r="F27" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G27" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="H27" s="3">
-        <v>-19500</v>
+        <v>-19400</v>
       </c>
       <c r="I27" s="3">
-        <v>-40700</v>
+        <v>-40400</v>
       </c>
       <c r="J27" s="3">
-        <v>-24700</v>
+        <v>-24500</v>
       </c>
       <c r="K27" s="3">
         <v>-15300</v>
@@ -1525,7 +1525,7 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="F32" s="3">
         <v>-2100</v>
@@ -1537,10 +1537,10 @@
         <v>-2400</v>
       </c>
       <c r="I32" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="J32" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="K32" s="3">
         <v>10800</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-56600</v>
+        <v>-56100</v>
       </c>
       <c r="E33" s="3">
-        <v>-30500</v>
+        <v>-30200</v>
       </c>
       <c r="F33" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G33" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="H33" s="3">
-        <v>-19500</v>
+        <v>-19400</v>
       </c>
       <c r="I33" s="3">
-        <v>-40700</v>
+        <v>-40400</v>
       </c>
       <c r="J33" s="3">
-        <v>-24700</v>
+        <v>-24500</v>
       </c>
       <c r="K33" s="3">
         <v>-15300</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-56600</v>
+        <v>-56100</v>
       </c>
       <c r="E35" s="3">
-        <v>-30500</v>
+        <v>-30200</v>
       </c>
       <c r="F35" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G35" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="H35" s="3">
-        <v>-19500</v>
+        <v>-19400</v>
       </c>
       <c r="I35" s="3">
-        <v>-40700</v>
+        <v>-40400</v>
       </c>
       <c r="J35" s="3">
-        <v>-24700</v>
+        <v>-24500</v>
       </c>
       <c r="K35" s="3">
         <v>-15300</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="E41" s="3">
-        <v>39000</v>
+        <v>38700</v>
       </c>
       <c r="F41" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="G41" s="3">
-        <v>21900</v>
+        <v>21800</v>
       </c>
       <c r="H41" s="3">
-        <v>62100</v>
+        <v>61500</v>
       </c>
       <c r="I41" s="3">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="J41" s="3">
-        <v>26200</v>
+        <v>26000</v>
       </c>
       <c r="K41" s="3">
         <v>14300</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>133600</v>
+        <v>132400</v>
       </c>
       <c r="E42" s="3">
-        <v>92700</v>
+        <v>91800</v>
       </c>
       <c r="F42" s="3">
-        <v>107600</v>
+        <v>106700</v>
       </c>
       <c r="G42" s="3">
-        <v>108900</v>
+        <v>107900</v>
       </c>
       <c r="H42" s="3">
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="I42" s="3">
         <v>3900</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69800</v>
+        <v>69200</v>
       </c>
       <c r="E43" s="3">
-        <v>63100</v>
+        <v>62500</v>
       </c>
       <c r="F43" s="3">
-        <v>47700</v>
+        <v>47300</v>
       </c>
       <c r="G43" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="H43" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="I43" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="J43" s="3">
         <v>3300</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>135400</v>
+        <v>134200</v>
       </c>
       <c r="E45" s="3">
-        <v>84200</v>
+        <v>83400</v>
       </c>
       <c r="F45" s="3">
-        <v>44500</v>
+        <v>44100</v>
       </c>
       <c r="G45" s="3">
-        <v>44000</v>
+        <v>43600</v>
       </c>
       <c r="H45" s="3">
-        <v>54600</v>
+        <v>54100</v>
       </c>
       <c r="I45" s="3">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="J45" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="K45" s="3">
         <v>2200</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>354600</v>
+        <v>351500</v>
       </c>
       <c r="E46" s="3">
-        <v>279000</v>
+        <v>276500</v>
       </c>
       <c r="F46" s="3">
-        <v>234000</v>
+        <v>231900</v>
       </c>
       <c r="G46" s="3">
-        <v>208100</v>
+        <v>206300</v>
       </c>
       <c r="H46" s="3">
-        <v>188600</v>
+        <v>186900</v>
       </c>
       <c r="I46" s="3">
-        <v>67100</v>
+        <v>66500</v>
       </c>
       <c r="J46" s="3">
-        <v>44600</v>
+        <v>44200</v>
       </c>
       <c r="K46" s="3">
         <v>26800</v>
@@ -1961,7 +1961,7 @@
         <v>4000</v>
       </c>
       <c r="F47" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G47" s="3">
         <v>2200</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1520700</v>
+        <v>1507100</v>
       </c>
       <c r="E48" s="3">
-        <v>1350700</v>
+        <v>1338700</v>
       </c>
       <c r="F48" s="3">
-        <v>1122300</v>
+        <v>1112300</v>
       </c>
       <c r="G48" s="3">
-        <v>761000</v>
+        <v>754200</v>
       </c>
       <c r="H48" s="3">
-        <v>550700</v>
+        <v>545800</v>
       </c>
       <c r="I48" s="3">
-        <v>327900</v>
+        <v>325000</v>
       </c>
       <c r="J48" s="3">
-        <v>203700</v>
+        <v>201900</v>
       </c>
       <c r="K48" s="3">
         <v>82900</v>
@@ -2033,10 +2033,10 @@
         <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H49" s="3">
         <v>1700</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>117800</v>
+        <v>116700</v>
       </c>
       <c r="E52" s="3">
-        <v>146300</v>
+        <v>145000</v>
       </c>
       <c r="F52" s="3">
-        <v>100000</v>
+        <v>99100</v>
       </c>
       <c r="G52" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="H52" s="3">
-        <v>30500</v>
+        <v>30200</v>
       </c>
       <c r="I52" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="J52" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="K52" s="3">
         <v>16300</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1996900</v>
+        <v>1979000</v>
       </c>
       <c r="E54" s="3">
-        <v>1780800</v>
+        <v>1764900</v>
       </c>
       <c r="F54" s="3">
-        <v>1464200</v>
+        <v>1451200</v>
       </c>
       <c r="G54" s="3">
-        <v>995100</v>
+        <v>986200</v>
       </c>
       <c r="H54" s="3">
-        <v>773300</v>
+        <v>766400</v>
       </c>
       <c r="I54" s="3">
-        <v>415500</v>
+        <v>411800</v>
       </c>
       <c r="J54" s="3">
-        <v>268000</v>
+        <v>265600</v>
       </c>
       <c r="K54" s="3">
         <v>127400</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>57800</v>
+        <v>57200</v>
       </c>
       <c r="E57" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="F57" s="3">
-        <v>46800</v>
+        <v>46400</v>
       </c>
       <c r="G57" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="H57" s="3">
-        <v>48700</v>
+        <v>48200</v>
       </c>
       <c r="I57" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="J57" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>182900</v>
+        <v>181300</v>
       </c>
       <c r="E58" s="3">
-        <v>44100</v>
+        <v>43700</v>
       </c>
       <c r="F58" s="3">
-        <v>136000</v>
+        <v>134800</v>
       </c>
       <c r="G58" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="H58" s="3">
-        <v>54000</v>
+        <v>53500</v>
       </c>
       <c r="I58" s="3">
-        <v>77100</v>
+        <v>76500</v>
       </c>
       <c r="J58" s="3">
-        <v>30300</v>
+        <v>30100</v>
       </c>
       <c r="K58" s="3">
         <v>26200</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>83000</v>
+        <v>82200</v>
       </c>
       <c r="E59" s="3">
-        <v>55800</v>
+        <v>55300</v>
       </c>
       <c r="F59" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="G59" s="3">
-        <v>25800</v>
+        <v>25600</v>
       </c>
       <c r="H59" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="I59" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="J59" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>323600</v>
+        <v>320800</v>
       </c>
       <c r="E60" s="3">
-        <v>124100</v>
+        <v>123000</v>
       </c>
       <c r="F60" s="3">
-        <v>228700</v>
+        <v>226700</v>
       </c>
       <c r="G60" s="3">
-        <v>69200</v>
+        <v>68600</v>
       </c>
       <c r="H60" s="3">
-        <v>115900</v>
+        <v>114900</v>
       </c>
       <c r="I60" s="3">
-        <v>109000</v>
+        <v>108000</v>
       </c>
       <c r="J60" s="3">
-        <v>49400</v>
+        <v>48900</v>
       </c>
       <c r="K60" s="3">
         <v>28100</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1209500</v>
+        <v>1198700</v>
       </c>
       <c r="E61" s="3">
-        <v>1164600</v>
+        <v>1154200</v>
       </c>
       <c r="F61" s="3">
-        <v>829300</v>
+        <v>821900</v>
       </c>
       <c r="G61" s="3">
-        <v>702600</v>
+        <v>696300</v>
       </c>
       <c r="H61" s="3">
-        <v>418900</v>
+        <v>415100</v>
       </c>
       <c r="I61" s="3">
-        <v>246800</v>
+        <v>244600</v>
       </c>
       <c r="J61" s="3">
-        <v>208200</v>
+        <v>206300</v>
       </c>
       <c r="K61" s="3">
         <v>97700</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>134900</v>
+        <v>133700</v>
       </c>
       <c r="E62" s="3">
-        <v>126100</v>
+        <v>124900</v>
       </c>
       <c r="F62" s="3">
-        <v>64600</v>
+        <v>64000</v>
       </c>
       <c r="G62" s="3">
-        <v>44700</v>
+        <v>44300</v>
       </c>
       <c r="H62" s="3">
-        <v>37800</v>
+        <v>37500</v>
       </c>
       <c r="I62" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="J62" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="K62" s="3">
         <v>4700</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1670700</v>
+        <v>1655800</v>
       </c>
       <c r="E66" s="3">
-        <v>1417400</v>
+        <v>1404800</v>
       </c>
       <c r="F66" s="3">
-        <v>1126200</v>
+        <v>1116200</v>
       </c>
       <c r="G66" s="3">
-        <v>832100</v>
+        <v>824700</v>
       </c>
       <c r="H66" s="3">
-        <v>595500</v>
+        <v>590100</v>
       </c>
       <c r="I66" s="3">
-        <v>384600</v>
+        <v>381200</v>
       </c>
       <c r="J66" s="3">
-        <v>264700</v>
+        <v>262300</v>
       </c>
       <c r="K66" s="3">
         <v>130600</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>130900</v>
+        <v>129700</v>
       </c>
       <c r="J70" s="3">
-        <v>63100</v>
+        <v>62500</v>
       </c>
       <c r="K70" s="3">
         <v>32800</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-172000</v>
+        <v>-170400</v>
       </c>
       <c r="E72" s="3">
-        <v>-115400</v>
+        <v>-114400</v>
       </c>
       <c r="F72" s="3">
-        <v>-84900</v>
+        <v>-84100</v>
       </c>
       <c r="G72" s="3">
-        <v>-88700</v>
+        <v>-87900</v>
       </c>
       <c r="H72" s="3">
-        <v>-77000</v>
+        <v>-76300</v>
       </c>
       <c r="I72" s="3">
-        <v>-60600</v>
+        <v>-60100</v>
       </c>
       <c r="J72" s="3">
-        <v>-38000</v>
+        <v>-37700</v>
       </c>
       <c r="K72" s="3">
         <v>-24000</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>326100</v>
+        <v>323200</v>
       </c>
       <c r="E76" s="3">
-        <v>363400</v>
+        <v>360100</v>
       </c>
       <c r="F76" s="3">
-        <v>338000</v>
+        <v>335000</v>
       </c>
       <c r="G76" s="3">
-        <v>163000</v>
+        <v>161500</v>
       </c>
       <c r="H76" s="3">
-        <v>177800</v>
+        <v>176300</v>
       </c>
       <c r="I76" s="3">
-        <v>-100000</v>
+        <v>-99100</v>
       </c>
       <c r="J76" s="3">
-        <v>-59800</v>
+        <v>-59300</v>
       </c>
       <c r="K76" s="3">
         <v>-36000</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-56600</v>
+        <v>-56100</v>
       </c>
       <c r="E81" s="3">
-        <v>-30500</v>
+        <v>-30200</v>
       </c>
       <c r="F81" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G81" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="H81" s="3">
-        <v>-19500</v>
+        <v>-19400</v>
       </c>
       <c r="I81" s="3">
-        <v>-40700</v>
+        <v>-40400</v>
       </c>
       <c r="J81" s="3">
-        <v>-24700</v>
+        <v>-24500</v>
       </c>
       <c r="K81" s="3">
         <v>-15300</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="E83" s="3">
-        <v>38500</v>
+        <v>38100</v>
       </c>
       <c r="F83" s="3">
-        <v>28700</v>
+        <v>28500</v>
       </c>
       <c r="G83" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="H83" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="I83" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="J83" s="3">
         <v>4300</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66900</v>
+        <v>66300</v>
       </c>
       <c r="E89" s="3">
-        <v>49500</v>
+        <v>49000</v>
       </c>
       <c r="F89" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="G89" s="3">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
       <c r="I89" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="J89" s="3">
         <v>-2400</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-254300</v>
+        <v>-252100</v>
       </c>
       <c r="E91" s="3">
-        <v>-246400</v>
+        <v>-244200</v>
       </c>
       <c r="F91" s="3">
-        <v>-350100</v>
+        <v>-347000</v>
       </c>
       <c r="G91" s="3">
-        <v>-264300</v>
+        <v>-261900</v>
       </c>
       <c r="H91" s="3">
-        <v>-207400</v>
+        <v>-205600</v>
       </c>
       <c r="I91" s="3">
-        <v>-122400</v>
+        <v>-121300</v>
       </c>
       <c r="J91" s="3">
-        <v>-113300</v>
+        <v>-112300</v>
       </c>
       <c r="K91" s="3">
         <v>-5100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-254500</v>
+        <v>-252200</v>
       </c>
       <c r="E94" s="3">
-        <v>-245500</v>
+        <v>-243400</v>
       </c>
       <c r="F94" s="3">
-        <v>-350400</v>
+        <v>-347300</v>
       </c>
       <c r="G94" s="3">
-        <v>-243000</v>
+        <v>-240800</v>
       </c>
       <c r="H94" s="3">
-        <v>-295200</v>
+        <v>-292500</v>
       </c>
       <c r="I94" s="3">
-        <v>-123200</v>
+        <v>-122100</v>
       </c>
       <c r="J94" s="3">
-        <v>-121700</v>
+        <v>-120600</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>203000</v>
+        <v>201200</v>
       </c>
       <c r="E100" s="3">
-        <v>217200</v>
+        <v>215200</v>
       </c>
       <c r="F100" s="3">
-        <v>361600</v>
+        <v>358400</v>
       </c>
       <c r="G100" s="3">
-        <v>226200</v>
+        <v>224200</v>
       </c>
       <c r="H100" s="3">
-        <v>327300</v>
+        <v>324300</v>
       </c>
       <c r="I100" s="3">
-        <v>127300</v>
+        <v>126200</v>
       </c>
       <c r="J100" s="3">
-        <v>130100</v>
+        <v>128900</v>
       </c>
       <c r="K100" s="3">
         <v>14600</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="E102" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="F102" s="3">
-        <v>39000</v>
+        <v>38700</v>
       </c>
       <c r="G102" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H102" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="I102" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="J102" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K102" s="3">
         <v>14100</v>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>203100</v>
+        <v>199100</v>
       </c>
       <c r="E8" s="3">
-        <v>172700</v>
+        <v>169400</v>
       </c>
       <c r="F8" s="3">
-        <v>132300</v>
+        <v>129700</v>
       </c>
       <c r="G8" s="3">
-        <v>102600</v>
+        <v>100600</v>
       </c>
       <c r="H8" s="3">
-        <v>55800</v>
+        <v>54700</v>
       </c>
       <c r="I8" s="3">
-        <v>35000</v>
+        <v>34300</v>
       </c>
       <c r="J8" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="K8" s="3">
         <v>12100</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="E9" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="F9" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="G9" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="H9" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I9" s="3">
         <v>2500</v>
       </c>
       <c r="J9" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K9" s="3">
         <v>700</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>186300</v>
+        <v>182700</v>
       </c>
       <c r="E10" s="3">
-        <v>157500</v>
+        <v>154400</v>
       </c>
       <c r="F10" s="3">
-        <v>120700</v>
+        <v>118400</v>
       </c>
       <c r="G10" s="3">
-        <v>93400</v>
+        <v>91600</v>
       </c>
       <c r="H10" s="3">
-        <v>50700</v>
+        <v>49800</v>
       </c>
       <c r="I10" s="3">
-        <v>32500</v>
+        <v>31800</v>
       </c>
       <c r="J10" s="3">
-        <v>13900</v>
+        <v>13600</v>
       </c>
       <c r="K10" s="3">
         <v>11400</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>43400</v>
+        <v>42500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>42700</v>
+        <v>41900</v>
       </c>
       <c r="E15" s="3">
-        <v>38100</v>
+        <v>37400</v>
       </c>
       <c r="F15" s="3">
-        <v>28500</v>
+        <v>27900</v>
       </c>
       <c r="G15" s="3">
-        <v>25100</v>
+        <v>24600</v>
       </c>
       <c r="H15" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="I15" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="J15" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K15" s="3">
         <v>3500</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>142700</v>
+        <v>139900</v>
       </c>
       <c r="E17" s="3">
-        <v>85800</v>
+        <v>84200</v>
       </c>
       <c r="F17" s="3">
-        <v>57600</v>
+        <v>56500</v>
       </c>
       <c r="G17" s="3">
-        <v>50100</v>
+        <v>49200</v>
       </c>
       <c r="H17" s="3">
-        <v>29600</v>
+        <v>29000</v>
       </c>
       <c r="I17" s="3">
-        <v>20700</v>
+        <v>20300</v>
       </c>
       <c r="J17" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="K17" s="3">
         <v>7400</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>60400</v>
+        <v>59200</v>
       </c>
       <c r="E18" s="3">
-        <v>86900</v>
+        <v>85200</v>
       </c>
       <c r="F18" s="3">
-        <v>74700</v>
+        <v>73300</v>
       </c>
       <c r="G18" s="3">
-        <v>52500</v>
+        <v>51500</v>
       </c>
       <c r="H18" s="3">
-        <v>26200</v>
+        <v>25700</v>
       </c>
       <c r="I18" s="3">
-        <v>14300</v>
+        <v>14000</v>
       </c>
       <c r="J18" s="3">
         <v>3900</v>
@@ -1093,22 +1093,22 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>-9500</v>
+        <v>-9300</v>
       </c>
       <c r="F20" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H20" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I20" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="J20" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="K20" s="3">
         <v>-10800</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>102600</v>
+        <v>100700</v>
       </c>
       <c r="E21" s="3">
-        <v>115500</v>
+        <v>113400</v>
       </c>
       <c r="F21" s="3">
-        <v>105300</v>
+        <v>103300</v>
       </c>
       <c r="G21" s="3">
-        <v>76100</v>
+        <v>74700</v>
       </c>
       <c r="H21" s="3">
-        <v>42500</v>
+        <v>41700</v>
       </c>
       <c r="I21" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="J21" s="3">
         <v>1100</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>112000</v>
+        <v>109800</v>
       </c>
       <c r="E22" s="3">
-        <v>102000</v>
+        <v>100100</v>
       </c>
       <c r="F22" s="3">
-        <v>72900</v>
+        <v>71500</v>
       </c>
       <c r="G22" s="3">
-        <v>68000</v>
+        <v>66700</v>
       </c>
       <c r="H22" s="3">
-        <v>32500</v>
+        <v>31900</v>
       </c>
       <c r="I22" s="3">
-        <v>20600</v>
+        <v>20200</v>
       </c>
       <c r="J22" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="K22" s="3">
         <v>4300</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-52100</v>
+        <v>-51000</v>
       </c>
       <c r="E23" s="3">
-        <v>-24600</v>
+        <v>-24200</v>
       </c>
       <c r="F23" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G23" s="3">
-        <v>-17000</v>
+        <v>-16700</v>
       </c>
       <c r="H23" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="I23" s="3">
-        <v>-17700</v>
+        <v>-17300</v>
       </c>
       <c r="J23" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="K23" s="3">
         <v>-10400</v>
@@ -1237,22 +1237,22 @@
         <v>3900</v>
       </c>
       <c r="E24" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="F24" s="3">
         <v>2000</v>
       </c>
       <c r="G24" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H24" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="I24" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="J24" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-56000</v>
+        <v>-54900</v>
       </c>
       <c r="E26" s="3">
-        <v>-31200</v>
+        <v>-30500</v>
       </c>
       <c r="F26" s="3">
         <v>1800</v>
       </c>
       <c r="G26" s="3">
-        <v>-15100</v>
+        <v>-14800</v>
       </c>
       <c r="H26" s="3">
-        <v>-15900</v>
+        <v>-15600</v>
       </c>
       <c r="I26" s="3">
-        <v>-22100</v>
+        <v>-21600</v>
       </c>
       <c r="J26" s="3">
-        <v>-14500</v>
+        <v>-14200</v>
       </c>
       <c r="K26" s="3">
         <v>-10700</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-56100</v>
+        <v>-55000</v>
       </c>
       <c r="E27" s="3">
-        <v>-30200</v>
+        <v>-29700</v>
       </c>
       <c r="F27" s="3">
         <v>1000</v>
       </c>
       <c r="G27" s="3">
-        <v>-12500</v>
+        <v>-12300</v>
       </c>
       <c r="H27" s="3">
-        <v>-19400</v>
+        <v>-19000</v>
       </c>
       <c r="I27" s="3">
-        <v>-40400</v>
+        <v>-39600</v>
       </c>
       <c r="J27" s="3">
-        <v>-24500</v>
+        <v>-24000</v>
       </c>
       <c r="K27" s="3">
         <v>-15300</v>
@@ -1525,22 +1525,22 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="F32" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="I32" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="J32" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="K32" s="3">
         <v>10800</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-56100</v>
+        <v>-55000</v>
       </c>
       <c r="E33" s="3">
-        <v>-30200</v>
+        <v>-29700</v>
       </c>
       <c r="F33" s="3">
         <v>1000</v>
       </c>
       <c r="G33" s="3">
-        <v>-11000</v>
+        <v>-10800</v>
       </c>
       <c r="H33" s="3">
-        <v>-19400</v>
+        <v>-19000</v>
       </c>
       <c r="I33" s="3">
-        <v>-40400</v>
+        <v>-39600</v>
       </c>
       <c r="J33" s="3">
-        <v>-24500</v>
+        <v>-24000</v>
       </c>
       <c r="K33" s="3">
         <v>-15300</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-56100</v>
+        <v>-55000</v>
       </c>
       <c r="E35" s="3">
-        <v>-30200</v>
+        <v>-29700</v>
       </c>
       <c r="F35" s="3">
         <v>1000</v>
       </c>
       <c r="G35" s="3">
-        <v>-11000</v>
+        <v>-10800</v>
       </c>
       <c r="H35" s="3">
-        <v>-19400</v>
+        <v>-19000</v>
       </c>
       <c r="I35" s="3">
-        <v>-40400</v>
+        <v>-39600</v>
       </c>
       <c r="J35" s="3">
-        <v>-24500</v>
+        <v>-24000</v>
       </c>
       <c r="K35" s="3">
         <v>-15300</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="E41" s="3">
-        <v>38700</v>
+        <v>37900</v>
       </c>
       <c r="F41" s="3">
-        <v>33900</v>
+        <v>33200</v>
       </c>
       <c r="G41" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="H41" s="3">
-        <v>61500</v>
+        <v>60300</v>
       </c>
       <c r="I41" s="3">
-        <v>37300</v>
+        <v>36600</v>
       </c>
       <c r="J41" s="3">
-        <v>26000</v>
+        <v>25500</v>
       </c>
       <c r="K41" s="3">
         <v>14300</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>132400</v>
+        <v>129900</v>
       </c>
       <c r="E42" s="3">
-        <v>91800</v>
+        <v>90100</v>
       </c>
       <c r="F42" s="3">
-        <v>106700</v>
+        <v>104600</v>
       </c>
       <c r="G42" s="3">
-        <v>107900</v>
+        <v>105800</v>
       </c>
       <c r="H42" s="3">
-        <v>55200</v>
+        <v>54200</v>
       </c>
       <c r="I42" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J42" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K42" s="3">
         <v>7700</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69200</v>
+        <v>67900</v>
       </c>
       <c r="E43" s="3">
-        <v>62500</v>
+        <v>61300</v>
       </c>
       <c r="F43" s="3">
-        <v>47300</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="3">
-        <v>33000</v>
+        <v>32300</v>
       </c>
       <c r="H43" s="3">
-        <v>16000</v>
+        <v>15700</v>
       </c>
       <c r="I43" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="J43" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K43" s="3">
         <v>2600</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>134200</v>
+        <v>131600</v>
       </c>
       <c r="E45" s="3">
-        <v>83400</v>
+        <v>81800</v>
       </c>
       <c r="F45" s="3">
-        <v>44100</v>
+        <v>43200</v>
       </c>
       <c r="G45" s="3">
-        <v>43600</v>
+        <v>42700</v>
       </c>
       <c r="H45" s="3">
-        <v>54100</v>
+        <v>53100</v>
       </c>
       <c r="I45" s="3">
-        <v>17500</v>
+        <v>17100</v>
       </c>
       <c r="J45" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="K45" s="3">
         <v>2200</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>351500</v>
+        <v>344600</v>
       </c>
       <c r="E46" s="3">
-        <v>276500</v>
+        <v>271100</v>
       </c>
       <c r="F46" s="3">
-        <v>231900</v>
+        <v>227400</v>
       </c>
       <c r="G46" s="3">
-        <v>206300</v>
+        <v>202300</v>
       </c>
       <c r="H46" s="3">
-        <v>186900</v>
+        <v>183300</v>
       </c>
       <c r="I46" s="3">
-        <v>66500</v>
+        <v>65200</v>
       </c>
       <c r="J46" s="3">
-        <v>44200</v>
+        <v>43300</v>
       </c>
       <c r="K46" s="3">
         <v>26800</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E47" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F47" s="3">
         <v>2500</v>
       </c>
       <c r="G47" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H47" s="3">
         <v>1800</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1507100</v>
+        <v>1477700</v>
       </c>
       <c r="E48" s="3">
-        <v>1338700</v>
+        <v>1312600</v>
       </c>
       <c r="F48" s="3">
-        <v>1112300</v>
+        <v>1090600</v>
       </c>
       <c r="G48" s="3">
-        <v>754200</v>
+        <v>739500</v>
       </c>
       <c r="H48" s="3">
-        <v>545800</v>
+        <v>535100</v>
       </c>
       <c r="I48" s="3">
-        <v>325000</v>
+        <v>318700</v>
       </c>
       <c r="J48" s="3">
-        <v>201900</v>
+        <v>198000</v>
       </c>
       <c r="K48" s="3">
         <v>82900</v>
@@ -2033,7 +2033,7 @@
         <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
@@ -2045,7 +2045,7 @@
         <v>1400</v>
       </c>
       <c r="J49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>116700</v>
+        <v>114500</v>
       </c>
       <c r="E52" s="3">
-        <v>145000</v>
+        <v>142200</v>
       </c>
       <c r="F52" s="3">
-        <v>99100</v>
+        <v>97200</v>
       </c>
       <c r="G52" s="3">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="H52" s="3">
-        <v>30200</v>
+        <v>29600</v>
       </c>
       <c r="I52" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="J52" s="3">
-        <v>17100</v>
+        <v>16800</v>
       </c>
       <c r="K52" s="3">
         <v>16300</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1979000</v>
+        <v>1940400</v>
       </c>
       <c r="E54" s="3">
-        <v>1764900</v>
+        <v>1730500</v>
       </c>
       <c r="F54" s="3">
-        <v>1451200</v>
+        <v>1422800</v>
       </c>
       <c r="G54" s="3">
-        <v>986200</v>
+        <v>967000</v>
       </c>
       <c r="H54" s="3">
-        <v>766400</v>
+        <v>751400</v>
       </c>
       <c r="I54" s="3">
-        <v>411800</v>
+        <v>403700</v>
       </c>
       <c r="J54" s="3">
-        <v>265600</v>
+        <v>260400</v>
       </c>
       <c r="K54" s="3">
         <v>127400</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>57200</v>
+        <v>56100</v>
       </c>
       <c r="E57" s="3">
-        <v>23900</v>
+        <v>23500</v>
       </c>
       <c r="F57" s="3">
-        <v>46400</v>
+        <v>45400</v>
       </c>
       <c r="G57" s="3">
-        <v>20300</v>
+        <v>19900</v>
       </c>
       <c r="H57" s="3">
-        <v>48200</v>
+        <v>47300</v>
       </c>
       <c r="I57" s="3">
-        <v>25300</v>
+        <v>24800</v>
       </c>
       <c r="J57" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>181300</v>
+        <v>177800</v>
       </c>
       <c r="E58" s="3">
-        <v>43700</v>
+        <v>42800</v>
       </c>
       <c r="F58" s="3">
-        <v>134800</v>
+        <v>132200</v>
       </c>
       <c r="G58" s="3">
-        <v>22800</v>
+        <v>22300</v>
       </c>
       <c r="H58" s="3">
-        <v>53500</v>
+        <v>52500</v>
       </c>
       <c r="I58" s="3">
-        <v>76500</v>
+        <v>75000</v>
       </c>
       <c r="J58" s="3">
-        <v>30100</v>
+        <v>29500</v>
       </c>
       <c r="K58" s="3">
         <v>26200</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82200</v>
+        <v>80600</v>
       </c>
       <c r="E59" s="3">
-        <v>55300</v>
+        <v>54300</v>
       </c>
       <c r="F59" s="3">
-        <v>45500</v>
+        <v>44600</v>
       </c>
       <c r="G59" s="3">
-        <v>25600</v>
+        <v>25100</v>
       </c>
       <c r="H59" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="I59" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="J59" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>320800</v>
+        <v>314500</v>
       </c>
       <c r="E60" s="3">
-        <v>123000</v>
+        <v>120600</v>
       </c>
       <c r="F60" s="3">
-        <v>226700</v>
+        <v>222300</v>
       </c>
       <c r="G60" s="3">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="H60" s="3">
-        <v>114900</v>
+        <v>112700</v>
       </c>
       <c r="I60" s="3">
-        <v>108000</v>
+        <v>105900</v>
       </c>
       <c r="J60" s="3">
-        <v>48900</v>
+        <v>48000</v>
       </c>
       <c r="K60" s="3">
         <v>28100</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1198700</v>
+        <v>1175300</v>
       </c>
       <c r="E61" s="3">
-        <v>1154200</v>
+        <v>1131700</v>
       </c>
       <c r="F61" s="3">
-        <v>821900</v>
+        <v>805900</v>
       </c>
       <c r="G61" s="3">
-        <v>696300</v>
+        <v>682700</v>
       </c>
       <c r="H61" s="3">
-        <v>415100</v>
+        <v>407000</v>
       </c>
       <c r="I61" s="3">
-        <v>244600</v>
+        <v>239900</v>
       </c>
       <c r="J61" s="3">
-        <v>206300</v>
+        <v>202300</v>
       </c>
       <c r="K61" s="3">
         <v>97700</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>133700</v>
+        <v>131100</v>
       </c>
       <c r="E62" s="3">
-        <v>124900</v>
+        <v>122500</v>
       </c>
       <c r="F62" s="3">
-        <v>64000</v>
+        <v>62800</v>
       </c>
       <c r="G62" s="3">
-        <v>44300</v>
+        <v>43500</v>
       </c>
       <c r="H62" s="3">
-        <v>37500</v>
+        <v>36800</v>
       </c>
       <c r="I62" s="3">
-        <v>23900</v>
+        <v>23500</v>
       </c>
       <c r="J62" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="K62" s="3">
         <v>4700</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1655800</v>
+        <v>1623500</v>
       </c>
       <c r="E66" s="3">
-        <v>1404800</v>
+        <v>1377400</v>
       </c>
       <c r="F66" s="3">
-        <v>1116200</v>
+        <v>1094400</v>
       </c>
       <c r="G66" s="3">
-        <v>824700</v>
+        <v>808600</v>
       </c>
       <c r="H66" s="3">
-        <v>590100</v>
+        <v>578600</v>
       </c>
       <c r="I66" s="3">
-        <v>381200</v>
+        <v>373700</v>
       </c>
       <c r="J66" s="3">
-        <v>262300</v>
+        <v>257200</v>
       </c>
       <c r="K66" s="3">
         <v>130600</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>129700</v>
+        <v>127200</v>
       </c>
       <c r="J70" s="3">
-        <v>62500</v>
+        <v>61300</v>
       </c>
       <c r="K70" s="3">
         <v>32800</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-170400</v>
+        <v>-167100</v>
       </c>
       <c r="E72" s="3">
-        <v>-114400</v>
+        <v>-112100</v>
       </c>
       <c r="F72" s="3">
-        <v>-84100</v>
+        <v>-82500</v>
       </c>
       <c r="G72" s="3">
-        <v>-87900</v>
+        <v>-86200</v>
       </c>
       <c r="H72" s="3">
-        <v>-76300</v>
+        <v>-74800</v>
       </c>
       <c r="I72" s="3">
-        <v>-60100</v>
+        <v>-58900</v>
       </c>
       <c r="J72" s="3">
-        <v>-37700</v>
+        <v>-37000</v>
       </c>
       <c r="K72" s="3">
         <v>-24000</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>323200</v>
+        <v>316900</v>
       </c>
       <c r="E76" s="3">
-        <v>360100</v>
+        <v>353100</v>
       </c>
       <c r="F76" s="3">
-        <v>335000</v>
+        <v>328400</v>
       </c>
       <c r="G76" s="3">
-        <v>161500</v>
+        <v>158400</v>
       </c>
       <c r="H76" s="3">
-        <v>176300</v>
+        <v>172800</v>
       </c>
       <c r="I76" s="3">
-        <v>-99100</v>
+        <v>-97200</v>
       </c>
       <c r="J76" s="3">
-        <v>-59300</v>
+        <v>-58100</v>
       </c>
       <c r="K76" s="3">
         <v>-36000</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-56100</v>
+        <v>-55000</v>
       </c>
       <c r="E81" s="3">
-        <v>-30200</v>
+        <v>-29700</v>
       </c>
       <c r="F81" s="3">
         <v>1000</v>
       </c>
       <c r="G81" s="3">
-        <v>-11000</v>
+        <v>-10800</v>
       </c>
       <c r="H81" s="3">
-        <v>-19400</v>
+        <v>-19000</v>
       </c>
       <c r="I81" s="3">
-        <v>-40400</v>
+        <v>-39600</v>
       </c>
       <c r="J81" s="3">
-        <v>-24500</v>
+        <v>-24000</v>
       </c>
       <c r="K81" s="3">
         <v>-15300</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42700</v>
+        <v>41900</v>
       </c>
       <c r="E83" s="3">
-        <v>38100</v>
+        <v>37400</v>
       </c>
       <c r="F83" s="3">
-        <v>28500</v>
+        <v>27900</v>
       </c>
       <c r="G83" s="3">
-        <v>25100</v>
+        <v>24600</v>
       </c>
       <c r="H83" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="I83" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="J83" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K83" s="3">
         <v>3500</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66300</v>
+        <v>65000</v>
       </c>
       <c r="E89" s="3">
-        <v>49000</v>
+        <v>48100</v>
       </c>
       <c r="F89" s="3">
-        <v>28500</v>
+        <v>27900</v>
       </c>
       <c r="G89" s="3">
-        <v>24800</v>
+        <v>24300</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
       <c r="I89" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="J89" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-252100</v>
+        <v>-247100</v>
       </c>
       <c r="E91" s="3">
-        <v>-244200</v>
+        <v>-239500</v>
       </c>
       <c r="F91" s="3">
-        <v>-347000</v>
+        <v>-340200</v>
       </c>
       <c r="G91" s="3">
-        <v>-261900</v>
+        <v>-256800</v>
       </c>
       <c r="H91" s="3">
-        <v>-205600</v>
+        <v>-201600</v>
       </c>
       <c r="I91" s="3">
-        <v>-121300</v>
+        <v>-118900</v>
       </c>
       <c r="J91" s="3">
-        <v>-112300</v>
+        <v>-110100</v>
       </c>
       <c r="K91" s="3">
         <v>-5100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-252200</v>
+        <v>-247300</v>
       </c>
       <c r="E94" s="3">
-        <v>-243400</v>
+        <v>-238600</v>
       </c>
       <c r="F94" s="3">
-        <v>-347300</v>
+        <v>-340500</v>
       </c>
       <c r="G94" s="3">
-        <v>-240800</v>
+        <v>-236100</v>
       </c>
       <c r="H94" s="3">
-        <v>-292500</v>
+        <v>-286800</v>
       </c>
       <c r="I94" s="3">
-        <v>-122100</v>
+        <v>-119700</v>
       </c>
       <c r="J94" s="3">
-        <v>-120600</v>
+        <v>-118300</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>201200</v>
+        <v>197300</v>
       </c>
       <c r="E100" s="3">
-        <v>215200</v>
+        <v>211000</v>
       </c>
       <c r="F100" s="3">
-        <v>358400</v>
+        <v>351400</v>
       </c>
       <c r="G100" s="3">
-        <v>224200</v>
+        <v>219800</v>
       </c>
       <c r="H100" s="3">
-        <v>324300</v>
+        <v>318000</v>
       </c>
       <c r="I100" s="3">
-        <v>126200</v>
+        <v>123700</v>
       </c>
       <c r="J100" s="3">
-        <v>128900</v>
+        <v>126400</v>
       </c>
       <c r="K100" s="3">
         <v>14600</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15400</v>
+        <v>15100</v>
       </c>
       <c r="E102" s="3">
-        <v>20400</v>
+        <v>20000</v>
       </c>
       <c r="F102" s="3">
-        <v>38700</v>
+        <v>37900</v>
       </c>
       <c r="G102" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="H102" s="3">
-        <v>31600</v>
+        <v>31000</v>
       </c>
       <c r="I102" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="J102" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="K102" s="3">
         <v>14100</v>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>199100</v>
+        <v>196800</v>
       </c>
       <c r="E8" s="3">
-        <v>169400</v>
+        <v>167400</v>
       </c>
       <c r="F8" s="3">
-        <v>129700</v>
+        <v>128200</v>
       </c>
       <c r="G8" s="3">
-        <v>100600</v>
+        <v>99500</v>
       </c>
       <c r="H8" s="3">
-        <v>54700</v>
+        <v>54000</v>
       </c>
       <c r="I8" s="3">
-        <v>34300</v>
+        <v>33900</v>
       </c>
       <c r="J8" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="K8" s="3">
         <v>12100</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="E9" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="F9" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="G9" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="H9" s="3">
         <v>4900</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>182700</v>
+        <v>180600</v>
       </c>
       <c r="E10" s="3">
-        <v>154400</v>
+        <v>152600</v>
       </c>
       <c r="F10" s="3">
-        <v>118400</v>
+        <v>117000</v>
       </c>
       <c r="G10" s="3">
-        <v>91600</v>
+        <v>90600</v>
       </c>
       <c r="H10" s="3">
-        <v>49800</v>
+        <v>49200</v>
       </c>
       <c r="I10" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="J10" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="K10" s="3">
         <v>11400</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>42500</v>
+        <v>42100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>41900</v>
+        <v>41400</v>
       </c>
       <c r="E15" s="3">
-        <v>37400</v>
+        <v>37000</v>
       </c>
       <c r="F15" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="G15" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="H15" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="I15" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="J15" s="3">
         <v>4200</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>139900</v>
+        <v>138300</v>
       </c>
       <c r="E17" s="3">
-        <v>84200</v>
+        <v>83200</v>
       </c>
       <c r="F17" s="3">
-        <v>56500</v>
+        <v>55800</v>
       </c>
       <c r="G17" s="3">
-        <v>49200</v>
+        <v>48600</v>
       </c>
       <c r="H17" s="3">
-        <v>29000</v>
+        <v>28700</v>
       </c>
       <c r="I17" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="J17" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="K17" s="3">
         <v>7400</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>59200</v>
+        <v>58500</v>
       </c>
       <c r="E18" s="3">
-        <v>85200</v>
+        <v>84200</v>
       </c>
       <c r="F18" s="3">
-        <v>73300</v>
+        <v>72400</v>
       </c>
       <c r="G18" s="3">
-        <v>51500</v>
+        <v>50900</v>
       </c>
       <c r="H18" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="I18" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="J18" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K18" s="3">
         <v>4700</v>
@@ -1093,7 +1093,7 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="F20" s="3">
         <v>2000</v>
@@ -1105,10 +1105,10 @@
         <v>2300</v>
       </c>
       <c r="I20" s="3">
-        <v>-11200</v>
+        <v>-11000</v>
       </c>
       <c r="J20" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="K20" s="3">
         <v>-10800</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100700</v>
+        <v>99400</v>
       </c>
       <c r="E21" s="3">
-        <v>113400</v>
+        <v>112000</v>
       </c>
       <c r="F21" s="3">
-        <v>103300</v>
+        <v>102000</v>
       </c>
       <c r="G21" s="3">
-        <v>74700</v>
+        <v>73800</v>
       </c>
       <c r="H21" s="3">
-        <v>41700</v>
+        <v>41200</v>
       </c>
       <c r="I21" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="J21" s="3">
         <v>1100</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>109800</v>
+        <v>108500</v>
       </c>
       <c r="E22" s="3">
-        <v>100100</v>
+        <v>98900</v>
       </c>
       <c r="F22" s="3">
-        <v>71500</v>
+        <v>70700</v>
       </c>
       <c r="G22" s="3">
-        <v>66700</v>
+        <v>65900</v>
       </c>
       <c r="H22" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="I22" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="J22" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="K22" s="3">
         <v>4300</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-51000</v>
+        <v>-50500</v>
       </c>
       <c r="E23" s="3">
-        <v>-24200</v>
+        <v>-23900</v>
       </c>
       <c r="F23" s="3">
         <v>3800</v>
       </c>
       <c r="G23" s="3">
-        <v>-16700</v>
+        <v>-16500</v>
       </c>
       <c r="H23" s="3">
         <v>-3900</v>
       </c>
       <c r="I23" s="3">
-        <v>-17300</v>
+        <v>-17100</v>
       </c>
       <c r="J23" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="K23" s="3">
         <v>-10400</v>
@@ -1234,10 +1234,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E24" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="F24" s="3">
         <v>2000</v>
@@ -1246,10 +1246,10 @@
         <v>-1800</v>
       </c>
       <c r="H24" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="I24" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="J24" s="3">
         <v>3300</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-54900</v>
+        <v>-54300</v>
       </c>
       <c r="E26" s="3">
-        <v>-30500</v>
+        <v>-30200</v>
       </c>
       <c r="F26" s="3">
         <v>1800</v>
       </c>
       <c r="G26" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="H26" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="I26" s="3">
-        <v>-21600</v>
+        <v>-21400</v>
       </c>
       <c r="J26" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="K26" s="3">
         <v>-10700</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-55000</v>
+        <v>-54300</v>
       </c>
       <c r="E27" s="3">
-        <v>-29700</v>
+        <v>-29300</v>
       </c>
       <c r="F27" s="3">
         <v>1000</v>
       </c>
       <c r="G27" s="3">
-        <v>-12300</v>
+        <v>-12100</v>
       </c>
       <c r="H27" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="I27" s="3">
-        <v>-39600</v>
+        <v>-39100</v>
       </c>
       <c r="J27" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="K27" s="3">
         <v>-15300</v>
@@ -1525,7 +1525,7 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="F32" s="3">
         <v>-2000</v>
@@ -1537,10 +1537,10 @@
         <v>-2300</v>
       </c>
       <c r="I32" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="J32" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="K32" s="3">
         <v>10800</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-55000</v>
+        <v>-54300</v>
       </c>
       <c r="E33" s="3">
-        <v>-29700</v>
+        <v>-29300</v>
       </c>
       <c r="F33" s="3">
         <v>1000</v>
       </c>
       <c r="G33" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="H33" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="I33" s="3">
-        <v>-39600</v>
+        <v>-39100</v>
       </c>
       <c r="J33" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="K33" s="3">
         <v>-15300</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-55000</v>
+        <v>-54300</v>
       </c>
       <c r="E35" s="3">
-        <v>-29700</v>
+        <v>-29300</v>
       </c>
       <c r="F35" s="3">
         <v>1000</v>
       </c>
       <c r="G35" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="H35" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="I35" s="3">
-        <v>-39600</v>
+        <v>-39100</v>
       </c>
       <c r="J35" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="K35" s="3">
         <v>-15300</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="E41" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="F41" s="3">
-        <v>33200</v>
+        <v>32800</v>
       </c>
       <c r="G41" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="H41" s="3">
-        <v>60300</v>
+        <v>59600</v>
       </c>
       <c r="I41" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="J41" s="3">
-        <v>25500</v>
+        <v>25200</v>
       </c>
       <c r="K41" s="3">
         <v>14300</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>129900</v>
+        <v>128400</v>
       </c>
       <c r="E42" s="3">
-        <v>90100</v>
+        <v>89000</v>
       </c>
       <c r="F42" s="3">
+        <v>103400</v>
+      </c>
+      <c r="G42" s="3">
         <v>104600</v>
       </c>
-      <c r="G42" s="3">
-        <v>105800</v>
-      </c>
       <c r="H42" s="3">
-        <v>54200</v>
+        <v>53500</v>
       </c>
       <c r="I42" s="3">
         <v>3800</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>67900</v>
+        <v>67100</v>
       </c>
       <c r="E43" s="3">
-        <v>61300</v>
+        <v>60600</v>
       </c>
       <c r="F43" s="3">
-        <v>46400</v>
+        <v>45900</v>
       </c>
       <c r="G43" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="H43" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="I43" s="3">
         <v>7600</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131600</v>
+        <v>130100</v>
       </c>
       <c r="E45" s="3">
-        <v>81800</v>
+        <v>80900</v>
       </c>
       <c r="F45" s="3">
-        <v>43200</v>
+        <v>42700</v>
       </c>
       <c r="G45" s="3">
-        <v>42700</v>
+        <v>42200</v>
       </c>
       <c r="H45" s="3">
-        <v>53100</v>
+        <v>52500</v>
       </c>
       <c r="I45" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="J45" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="K45" s="3">
         <v>2200</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>344600</v>
+        <v>340600</v>
       </c>
       <c r="E46" s="3">
-        <v>271100</v>
+        <v>268000</v>
       </c>
       <c r="F46" s="3">
-        <v>227400</v>
+        <v>224800</v>
       </c>
       <c r="G46" s="3">
-        <v>202300</v>
+        <v>199900</v>
       </c>
       <c r="H46" s="3">
-        <v>183300</v>
+        <v>181200</v>
       </c>
       <c r="I46" s="3">
-        <v>65200</v>
+        <v>64400</v>
       </c>
       <c r="J46" s="3">
-        <v>43300</v>
+        <v>42800</v>
       </c>
       <c r="K46" s="3">
         <v>26800</v>
@@ -1967,7 +1967,7 @@
         <v>2100</v>
       </c>
       <c r="H47" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I47" s="3">
         <v>1200</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1477700</v>
+        <v>1460700</v>
       </c>
       <c r="E48" s="3">
-        <v>1312600</v>
+        <v>1297500</v>
       </c>
       <c r="F48" s="3">
-        <v>1090600</v>
+        <v>1078100</v>
       </c>
       <c r="G48" s="3">
-        <v>739500</v>
+        <v>731000</v>
       </c>
       <c r="H48" s="3">
-        <v>535100</v>
+        <v>529000</v>
       </c>
       <c r="I48" s="3">
-        <v>318700</v>
+        <v>315000</v>
       </c>
       <c r="J48" s="3">
-        <v>198000</v>
+        <v>195700</v>
       </c>
       <c r="K48" s="3">
         <v>82900</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>114500</v>
+        <v>113100</v>
       </c>
       <c r="E52" s="3">
-        <v>142200</v>
+        <v>140500</v>
       </c>
       <c r="F52" s="3">
-        <v>97200</v>
+        <v>96100</v>
       </c>
       <c r="G52" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="H52" s="3">
-        <v>29600</v>
+        <v>29300</v>
       </c>
       <c r="I52" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="J52" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="K52" s="3">
         <v>16300</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1940400</v>
+        <v>1918200</v>
       </c>
       <c r="E54" s="3">
-        <v>1730500</v>
+        <v>1710600</v>
       </c>
       <c r="F54" s="3">
-        <v>1422800</v>
+        <v>1406500</v>
       </c>
       <c r="G54" s="3">
-        <v>967000</v>
+        <v>955900</v>
       </c>
       <c r="H54" s="3">
-        <v>751400</v>
+        <v>742800</v>
       </c>
       <c r="I54" s="3">
-        <v>403700</v>
+        <v>399100</v>
       </c>
       <c r="J54" s="3">
-        <v>260400</v>
+        <v>257400</v>
       </c>
       <c r="K54" s="3">
         <v>127400</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>56100</v>
+        <v>55500</v>
       </c>
       <c r="E57" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="F57" s="3">
-        <v>45400</v>
+        <v>44900</v>
       </c>
       <c r="G57" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="H57" s="3">
-        <v>47300</v>
+        <v>46700</v>
       </c>
       <c r="I57" s="3">
-        <v>24800</v>
+        <v>24500</v>
       </c>
       <c r="J57" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>177800</v>
+        <v>175700</v>
       </c>
       <c r="E58" s="3">
-        <v>42800</v>
+        <v>42400</v>
       </c>
       <c r="F58" s="3">
-        <v>132200</v>
+        <v>130700</v>
       </c>
       <c r="G58" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="H58" s="3">
-        <v>52500</v>
+        <v>51900</v>
       </c>
       <c r="I58" s="3">
-        <v>75000</v>
+        <v>74100</v>
       </c>
       <c r="J58" s="3">
-        <v>29500</v>
+        <v>29100</v>
       </c>
       <c r="K58" s="3">
         <v>26200</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80600</v>
+        <v>79700</v>
       </c>
       <c r="E59" s="3">
-        <v>54300</v>
+        <v>53600</v>
       </c>
       <c r="F59" s="3">
-        <v>44600</v>
+        <v>44100</v>
       </c>
       <c r="G59" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="H59" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="I59" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="J59" s="3">
         <v>5800</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>314500</v>
+        <v>310900</v>
       </c>
       <c r="E60" s="3">
-        <v>120600</v>
+        <v>119200</v>
       </c>
       <c r="F60" s="3">
-        <v>222300</v>
+        <v>219700</v>
       </c>
       <c r="G60" s="3">
-        <v>67300</v>
+        <v>66500</v>
       </c>
       <c r="H60" s="3">
-        <v>112700</v>
+        <v>111400</v>
       </c>
       <c r="I60" s="3">
-        <v>105900</v>
+        <v>104700</v>
       </c>
       <c r="J60" s="3">
-        <v>48000</v>
+        <v>47400</v>
       </c>
       <c r="K60" s="3">
         <v>28100</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1175300</v>
+        <v>1161800</v>
       </c>
       <c r="E61" s="3">
-        <v>1131700</v>
+        <v>1118700</v>
       </c>
       <c r="F61" s="3">
-        <v>805900</v>
+        <v>796600</v>
       </c>
       <c r="G61" s="3">
-        <v>682700</v>
+        <v>674900</v>
       </c>
       <c r="H61" s="3">
-        <v>407000</v>
+        <v>402400</v>
       </c>
       <c r="I61" s="3">
-        <v>239900</v>
+        <v>237100</v>
       </c>
       <c r="J61" s="3">
-        <v>202300</v>
+        <v>200000</v>
       </c>
       <c r="K61" s="3">
         <v>97700</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>131100</v>
+        <v>129600</v>
       </c>
       <c r="E62" s="3">
-        <v>122500</v>
+        <v>121100</v>
       </c>
       <c r="F62" s="3">
-        <v>62800</v>
+        <v>62100</v>
       </c>
       <c r="G62" s="3">
-        <v>43500</v>
+        <v>43000</v>
       </c>
       <c r="H62" s="3">
-        <v>36800</v>
+        <v>36400</v>
       </c>
       <c r="I62" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="J62" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="K62" s="3">
         <v>4700</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1623500</v>
+        <v>1604900</v>
       </c>
       <c r="E66" s="3">
-        <v>1377400</v>
+        <v>1361500</v>
       </c>
       <c r="F66" s="3">
-        <v>1094400</v>
+        <v>1081800</v>
       </c>
       <c r="G66" s="3">
-        <v>808600</v>
+        <v>799300</v>
       </c>
       <c r="H66" s="3">
-        <v>578600</v>
+        <v>572000</v>
       </c>
       <c r="I66" s="3">
-        <v>373700</v>
+        <v>369400</v>
       </c>
       <c r="J66" s="3">
-        <v>257200</v>
+        <v>254300</v>
       </c>
       <c r="K66" s="3">
         <v>130600</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>127200</v>
+        <v>125800</v>
       </c>
       <c r="J70" s="3">
-        <v>61300</v>
+        <v>60600</v>
       </c>
       <c r="K70" s="3">
         <v>32800</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-167100</v>
+        <v>-165200</v>
       </c>
       <c r="E72" s="3">
-        <v>-112100</v>
+        <v>-110900</v>
       </c>
       <c r="F72" s="3">
-        <v>-82500</v>
+        <v>-81500</v>
       </c>
       <c r="G72" s="3">
-        <v>-86200</v>
+        <v>-85200</v>
       </c>
       <c r="H72" s="3">
-        <v>-74800</v>
+        <v>-73900</v>
       </c>
       <c r="I72" s="3">
-        <v>-58900</v>
+        <v>-58200</v>
       </c>
       <c r="J72" s="3">
-        <v>-37000</v>
+        <v>-36500</v>
       </c>
       <c r="K72" s="3">
         <v>-24000</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>316900</v>
+        <v>313300</v>
       </c>
       <c r="E76" s="3">
-        <v>353100</v>
+        <v>349100</v>
       </c>
       <c r="F76" s="3">
-        <v>328400</v>
+        <v>324700</v>
       </c>
       <c r="G76" s="3">
-        <v>158400</v>
+        <v>156600</v>
       </c>
       <c r="H76" s="3">
-        <v>172800</v>
+        <v>170800</v>
       </c>
       <c r="I76" s="3">
-        <v>-97200</v>
+        <v>-96100</v>
       </c>
       <c r="J76" s="3">
-        <v>-58100</v>
+        <v>-57500</v>
       </c>
       <c r="K76" s="3">
         <v>-36000</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-55000</v>
+        <v>-54300</v>
       </c>
       <c r="E81" s="3">
-        <v>-29700</v>
+        <v>-29300</v>
       </c>
       <c r="F81" s="3">
         <v>1000</v>
       </c>
       <c r="G81" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="H81" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="I81" s="3">
-        <v>-39600</v>
+        <v>-39100</v>
       </c>
       <c r="J81" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="K81" s="3">
         <v>-15300</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41900</v>
+        <v>41400</v>
       </c>
       <c r="E83" s="3">
-        <v>37400</v>
+        <v>37000</v>
       </c>
       <c r="F83" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="G83" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="H83" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="I83" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="J83" s="3">
         <v>4200</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>65000</v>
+        <v>64300</v>
       </c>
       <c r="E89" s="3">
-        <v>48100</v>
+        <v>47500</v>
       </c>
       <c r="F89" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="G89" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
       <c r="I89" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J89" s="3">
         <v>-2300</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-247100</v>
+        <v>-244300</v>
       </c>
       <c r="E91" s="3">
-        <v>-239500</v>
+        <v>-236700</v>
       </c>
       <c r="F91" s="3">
-        <v>-340200</v>
+        <v>-336300</v>
       </c>
       <c r="G91" s="3">
-        <v>-256800</v>
+        <v>-253900</v>
       </c>
       <c r="H91" s="3">
-        <v>-201600</v>
+        <v>-199200</v>
       </c>
       <c r="I91" s="3">
-        <v>-118900</v>
+        <v>-117500</v>
       </c>
       <c r="J91" s="3">
-        <v>-110100</v>
+        <v>-108900</v>
       </c>
       <c r="K91" s="3">
         <v>-5100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-247300</v>
+        <v>-244400</v>
       </c>
       <c r="E94" s="3">
-        <v>-238600</v>
+        <v>-235900</v>
       </c>
       <c r="F94" s="3">
-        <v>-340500</v>
+        <v>-336600</v>
       </c>
       <c r="G94" s="3">
-        <v>-236100</v>
+        <v>-233400</v>
       </c>
       <c r="H94" s="3">
-        <v>-286800</v>
+        <v>-283500</v>
       </c>
       <c r="I94" s="3">
-        <v>-119700</v>
+        <v>-118300</v>
       </c>
       <c r="J94" s="3">
-        <v>-118300</v>
+        <v>-116900</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>197300</v>
+        <v>195000</v>
       </c>
       <c r="E100" s="3">
-        <v>211000</v>
+        <v>208600</v>
       </c>
       <c r="F100" s="3">
-        <v>351400</v>
+        <v>347400</v>
       </c>
       <c r="G100" s="3">
-        <v>219800</v>
+        <v>217300</v>
       </c>
       <c r="H100" s="3">
-        <v>318000</v>
+        <v>314400</v>
       </c>
       <c r="I100" s="3">
-        <v>123700</v>
+        <v>122300</v>
       </c>
       <c r="J100" s="3">
-        <v>126400</v>
+        <v>125000</v>
       </c>
       <c r="K100" s="3">
         <v>14600</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="E102" s="3">
-        <v>20000</v>
+        <v>19800</v>
       </c>
       <c r="F102" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="G102" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="H102" s="3">
-        <v>31000</v>
+        <v>30600</v>
       </c>
       <c r="I102" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="J102" s="3">
         <v>5800</v>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>196800</v>
+        <v>190800</v>
       </c>
       <c r="E8" s="3">
-        <v>167400</v>
+        <v>162200</v>
       </c>
       <c r="F8" s="3">
-        <v>128200</v>
+        <v>124300</v>
       </c>
       <c r="G8" s="3">
-        <v>99500</v>
+        <v>96400</v>
       </c>
       <c r="H8" s="3">
-        <v>54000</v>
+        <v>52400</v>
       </c>
       <c r="I8" s="3">
-        <v>33900</v>
+        <v>32900</v>
       </c>
       <c r="J8" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="K8" s="3">
         <v>12100</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="E9" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="F9" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="G9" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="H9" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I9" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J9" s="3">
         <v>1000</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>180600</v>
+        <v>175000</v>
       </c>
       <c r="E10" s="3">
-        <v>152600</v>
+        <v>147900</v>
       </c>
       <c r="F10" s="3">
-        <v>117000</v>
+        <v>113400</v>
       </c>
       <c r="G10" s="3">
-        <v>90600</v>
+        <v>87700</v>
       </c>
       <c r="H10" s="3">
-        <v>49200</v>
+        <v>47700</v>
       </c>
       <c r="I10" s="3">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="J10" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="K10" s="3">
         <v>11400</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>42100</v>
+        <v>40800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>41400</v>
+        <v>40100</v>
       </c>
       <c r="E15" s="3">
-        <v>37000</v>
+        <v>35800</v>
       </c>
       <c r="F15" s="3">
-        <v>27600</v>
+        <v>26800</v>
       </c>
       <c r="G15" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="H15" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="I15" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="J15" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K15" s="3">
         <v>3500</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>138300</v>
+        <v>134000</v>
       </c>
       <c r="E17" s="3">
-        <v>83200</v>
+        <v>80600</v>
       </c>
       <c r="F17" s="3">
-        <v>55800</v>
+        <v>54100</v>
       </c>
       <c r="G17" s="3">
-        <v>48600</v>
+        <v>47100</v>
       </c>
       <c r="H17" s="3">
-        <v>28700</v>
+        <v>27800</v>
       </c>
       <c r="I17" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="J17" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="K17" s="3">
         <v>7400</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>58500</v>
+        <v>56700</v>
       </c>
       <c r="E18" s="3">
-        <v>84200</v>
+        <v>81600</v>
       </c>
       <c r="F18" s="3">
-        <v>72400</v>
+        <v>70200</v>
       </c>
       <c r="G18" s="3">
-        <v>50900</v>
+        <v>49300</v>
       </c>
       <c r="H18" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="I18" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="J18" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K18" s="3">
         <v>4700</v>
@@ -1093,22 +1093,22 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>-9200</v>
+        <v>-8900</v>
       </c>
       <c r="F20" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G20" s="3">
         <v>-1400</v>
       </c>
       <c r="H20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I20" s="3">
-        <v>-11000</v>
+        <v>-10700</v>
       </c>
       <c r="J20" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="K20" s="3">
         <v>-10800</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>99400</v>
+        <v>96400</v>
       </c>
       <c r="E21" s="3">
-        <v>112000</v>
+        <v>108500</v>
       </c>
       <c r="F21" s="3">
-        <v>102000</v>
+        <v>98900</v>
       </c>
       <c r="G21" s="3">
-        <v>73800</v>
+        <v>71500</v>
       </c>
       <c r="H21" s="3">
-        <v>41200</v>
+        <v>39900</v>
       </c>
       <c r="I21" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="J21" s="3">
         <v>1100</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>108500</v>
+        <v>105200</v>
       </c>
       <c r="E22" s="3">
-        <v>98900</v>
+        <v>95800</v>
       </c>
       <c r="F22" s="3">
-        <v>70700</v>
+        <v>68500</v>
       </c>
       <c r="G22" s="3">
-        <v>65900</v>
+        <v>63900</v>
       </c>
       <c r="H22" s="3">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="I22" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="J22" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="K22" s="3">
         <v>4300</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-50500</v>
+        <v>-48900</v>
       </c>
       <c r="E23" s="3">
-        <v>-23900</v>
+        <v>-23100</v>
       </c>
       <c r="F23" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="G23" s="3">
-        <v>-16500</v>
+        <v>-16000</v>
       </c>
       <c r="H23" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="I23" s="3">
-        <v>-17100</v>
+        <v>-16600</v>
       </c>
       <c r="J23" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="K23" s="3">
         <v>-10400</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="F24" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G24" s="3">
         <v>-1800</v>
       </c>
       <c r="H24" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="I24" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J24" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-54300</v>
+        <v>-52600</v>
       </c>
       <c r="E26" s="3">
-        <v>-30200</v>
+        <v>-29300</v>
       </c>
       <c r="F26" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G26" s="3">
-        <v>-14700</v>
+        <v>-14200</v>
       </c>
       <c r="H26" s="3">
-        <v>-15400</v>
+        <v>-14900</v>
       </c>
       <c r="I26" s="3">
-        <v>-21400</v>
+        <v>-20700</v>
       </c>
       <c r="J26" s="3">
-        <v>-14100</v>
+        <v>-13600</v>
       </c>
       <c r="K26" s="3">
         <v>-10700</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-54300</v>
+        <v>-52700</v>
       </c>
       <c r="E27" s="3">
-        <v>-29300</v>
+        <v>-28400</v>
       </c>
       <c r="F27" s="3">
         <v>1000</v>
       </c>
       <c r="G27" s="3">
-        <v>-12100</v>
+        <v>-11800</v>
       </c>
       <c r="H27" s="3">
-        <v>-18800</v>
+        <v>-18200</v>
       </c>
       <c r="I27" s="3">
-        <v>-39100</v>
+        <v>-37900</v>
       </c>
       <c r="J27" s="3">
-        <v>-23700</v>
+        <v>-23000</v>
       </c>
       <c r="K27" s="3">
         <v>-15300</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1525,22 +1525,22 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="F32" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G32" s="3">
         <v>1400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="I32" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="J32" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="K32" s="3">
         <v>10800</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-54300</v>
+        <v>-52700</v>
       </c>
       <c r="E33" s="3">
-        <v>-29300</v>
+        <v>-28400</v>
       </c>
       <c r="F33" s="3">
         <v>1000</v>
       </c>
       <c r="G33" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="H33" s="3">
-        <v>-18800</v>
+        <v>-18200</v>
       </c>
       <c r="I33" s="3">
-        <v>-39100</v>
+        <v>-37900</v>
       </c>
       <c r="J33" s="3">
-        <v>-23700</v>
+        <v>-23000</v>
       </c>
       <c r="K33" s="3">
         <v>-15300</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-54300</v>
+        <v>-52700</v>
       </c>
       <c r="E35" s="3">
-        <v>-29300</v>
+        <v>-28400</v>
       </c>
       <c r="F35" s="3">
         <v>1000</v>
       </c>
       <c r="G35" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="H35" s="3">
-        <v>-18800</v>
+        <v>-18200</v>
       </c>
       <c r="I35" s="3">
-        <v>-39100</v>
+        <v>-37900</v>
       </c>
       <c r="J35" s="3">
-        <v>-23700</v>
+        <v>-23000</v>
       </c>
       <c r="K35" s="3">
         <v>-15300</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15100</v>
+        <v>14700</v>
       </c>
       <c r="E41" s="3">
-        <v>37500</v>
+        <v>36300</v>
       </c>
       <c r="F41" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="G41" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="H41" s="3">
-        <v>59600</v>
+        <v>57800</v>
       </c>
       <c r="I41" s="3">
-        <v>36200</v>
+        <v>35000</v>
       </c>
       <c r="J41" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="K41" s="3">
         <v>14300</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>128400</v>
+        <v>124400</v>
       </c>
       <c r="E42" s="3">
-        <v>89000</v>
+        <v>86300</v>
       </c>
       <c r="F42" s="3">
-        <v>103400</v>
+        <v>100200</v>
       </c>
       <c r="G42" s="3">
-        <v>104600</v>
+        <v>101400</v>
       </c>
       <c r="H42" s="3">
-        <v>53500</v>
+        <v>51900</v>
       </c>
       <c r="I42" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J42" s="3">
         <v>1200</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>67100</v>
+        <v>65000</v>
       </c>
       <c r="E43" s="3">
-        <v>60600</v>
+        <v>58700</v>
       </c>
       <c r="F43" s="3">
-        <v>45900</v>
+        <v>44400</v>
       </c>
       <c r="G43" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="H43" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="I43" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="J43" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K43" s="3">
         <v>2600</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>130100</v>
+        <v>126000</v>
       </c>
       <c r="E45" s="3">
-        <v>80900</v>
+        <v>78400</v>
       </c>
       <c r="F45" s="3">
-        <v>42700</v>
+        <v>41400</v>
       </c>
       <c r="G45" s="3">
-        <v>42200</v>
+        <v>40900</v>
       </c>
       <c r="H45" s="3">
-        <v>52500</v>
+        <v>50900</v>
       </c>
       <c r="I45" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="J45" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="K45" s="3">
         <v>2200</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>340600</v>
+        <v>330100</v>
       </c>
       <c r="E46" s="3">
-        <v>268000</v>
+        <v>259700</v>
       </c>
       <c r="F46" s="3">
-        <v>224800</v>
+        <v>217900</v>
       </c>
       <c r="G46" s="3">
-        <v>199900</v>
+        <v>193700</v>
       </c>
       <c r="H46" s="3">
-        <v>181200</v>
+        <v>175500</v>
       </c>
       <c r="I46" s="3">
-        <v>64400</v>
+        <v>62400</v>
       </c>
       <c r="J46" s="3">
-        <v>42800</v>
+        <v>41500</v>
       </c>
       <c r="K46" s="3">
         <v>26800</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E47" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G47" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="3">
         <v>1700</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1460700</v>
+        <v>1415500</v>
       </c>
       <c r="E48" s="3">
-        <v>1297500</v>
+        <v>1257300</v>
       </c>
       <c r="F48" s="3">
-        <v>1078100</v>
+        <v>1044700</v>
       </c>
       <c r="G48" s="3">
-        <v>731000</v>
+        <v>708400</v>
       </c>
       <c r="H48" s="3">
-        <v>529000</v>
+        <v>512600</v>
       </c>
       <c r="I48" s="3">
-        <v>315000</v>
+        <v>305300</v>
       </c>
       <c r="J48" s="3">
-        <v>195700</v>
+        <v>189600</v>
       </c>
       <c r="K48" s="3">
         <v>82900</v>
@@ -2033,16 +2033,16 @@
         <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="G49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J49" s="3">
         <v>1200</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>113100</v>
+        <v>109600</v>
       </c>
       <c r="E52" s="3">
-        <v>140500</v>
+        <v>136200</v>
       </c>
       <c r="F52" s="3">
-        <v>96100</v>
+        <v>93100</v>
       </c>
       <c r="G52" s="3">
-        <v>20800</v>
+        <v>20200</v>
       </c>
       <c r="H52" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="I52" s="3">
-        <v>17100</v>
+        <v>16600</v>
       </c>
       <c r="J52" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="K52" s="3">
         <v>16300</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1918200</v>
+        <v>1858800</v>
       </c>
       <c r="E54" s="3">
-        <v>1710600</v>
+        <v>1657700</v>
       </c>
       <c r="F54" s="3">
-        <v>1406500</v>
+        <v>1363000</v>
       </c>
       <c r="G54" s="3">
-        <v>955900</v>
+        <v>926300</v>
       </c>
       <c r="H54" s="3">
-        <v>742800</v>
+        <v>719800</v>
       </c>
       <c r="I54" s="3">
-        <v>399100</v>
+        <v>386800</v>
       </c>
       <c r="J54" s="3">
-        <v>257400</v>
+        <v>249400</v>
       </c>
       <c r="K54" s="3">
         <v>127400</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>55500</v>
+        <v>53800</v>
       </c>
       <c r="E57" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="F57" s="3">
-        <v>44900</v>
+        <v>43500</v>
       </c>
       <c r="G57" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="H57" s="3">
-        <v>46700</v>
+        <v>45300</v>
       </c>
       <c r="I57" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="J57" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>175700</v>
+        <v>170300</v>
       </c>
       <c r="E58" s="3">
-        <v>42400</v>
+        <v>41000</v>
       </c>
       <c r="F58" s="3">
-        <v>130700</v>
+        <v>126600</v>
       </c>
       <c r="G58" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="H58" s="3">
-        <v>51900</v>
+        <v>50300</v>
       </c>
       <c r="I58" s="3">
-        <v>74100</v>
+        <v>71800</v>
       </c>
       <c r="J58" s="3">
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="K58" s="3">
         <v>26200</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79700</v>
+        <v>77200</v>
       </c>
       <c r="E59" s="3">
-        <v>53600</v>
+        <v>52000</v>
       </c>
       <c r="F59" s="3">
-        <v>44100</v>
+        <v>42700</v>
       </c>
       <c r="G59" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="H59" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="I59" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="J59" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>310900</v>
+        <v>301300</v>
       </c>
       <c r="E60" s="3">
-        <v>119200</v>
+        <v>115500</v>
       </c>
       <c r="F60" s="3">
-        <v>219700</v>
+        <v>212900</v>
       </c>
       <c r="G60" s="3">
-        <v>66500</v>
+        <v>64500</v>
       </c>
       <c r="H60" s="3">
-        <v>111400</v>
+        <v>107900</v>
       </c>
       <c r="I60" s="3">
-        <v>104700</v>
+        <v>101400</v>
       </c>
       <c r="J60" s="3">
-        <v>47400</v>
+        <v>46000</v>
       </c>
       <c r="K60" s="3">
         <v>28100</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1161800</v>
+        <v>1125800</v>
       </c>
       <c r="E61" s="3">
-        <v>1118700</v>
+        <v>1084100</v>
       </c>
       <c r="F61" s="3">
-        <v>796600</v>
+        <v>772000</v>
       </c>
       <c r="G61" s="3">
-        <v>674900</v>
+        <v>654000</v>
       </c>
       <c r="H61" s="3">
-        <v>402400</v>
+        <v>389900</v>
       </c>
       <c r="I61" s="3">
-        <v>237100</v>
+        <v>229800</v>
       </c>
       <c r="J61" s="3">
-        <v>200000</v>
+        <v>193800</v>
       </c>
       <c r="K61" s="3">
         <v>97700</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>129600</v>
+        <v>125600</v>
       </c>
       <c r="E62" s="3">
-        <v>121100</v>
+        <v>117300</v>
       </c>
       <c r="F62" s="3">
-        <v>62100</v>
+        <v>60100</v>
       </c>
       <c r="G62" s="3">
-        <v>43000</v>
+        <v>41600</v>
       </c>
       <c r="H62" s="3">
-        <v>36400</v>
+        <v>35200</v>
       </c>
       <c r="I62" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="J62" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="K62" s="3">
         <v>4700</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1604900</v>
+        <v>1555200</v>
       </c>
       <c r="E66" s="3">
-        <v>1361500</v>
+        <v>1319400</v>
       </c>
       <c r="F66" s="3">
-        <v>1081800</v>
+        <v>1048300</v>
       </c>
       <c r="G66" s="3">
-        <v>799300</v>
+        <v>774600</v>
       </c>
       <c r="H66" s="3">
-        <v>572000</v>
+        <v>554300</v>
       </c>
       <c r="I66" s="3">
-        <v>369400</v>
+        <v>358000</v>
       </c>
       <c r="J66" s="3">
-        <v>254300</v>
+        <v>246400</v>
       </c>
       <c r="K66" s="3">
         <v>130600</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>125800</v>
+        <v>121900</v>
       </c>
       <c r="J70" s="3">
-        <v>60600</v>
+        <v>58700</v>
       </c>
       <c r="K70" s="3">
         <v>32800</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-165200</v>
+        <v>-160100</v>
       </c>
       <c r="E72" s="3">
-        <v>-110900</v>
+        <v>-107400</v>
       </c>
       <c r="F72" s="3">
-        <v>-81500</v>
+        <v>-79000</v>
       </c>
       <c r="G72" s="3">
-        <v>-85200</v>
+        <v>-82600</v>
       </c>
       <c r="H72" s="3">
-        <v>-73900</v>
+        <v>-71700</v>
       </c>
       <c r="I72" s="3">
-        <v>-58200</v>
+        <v>-56400</v>
       </c>
       <c r="J72" s="3">
-        <v>-36500</v>
+        <v>-35400</v>
       </c>
       <c r="K72" s="3">
         <v>-24000</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>313300</v>
+        <v>303600</v>
       </c>
       <c r="E76" s="3">
-        <v>349100</v>
+        <v>338300</v>
       </c>
       <c r="F76" s="3">
-        <v>324700</v>
+        <v>314600</v>
       </c>
       <c r="G76" s="3">
-        <v>156600</v>
+        <v>151700</v>
       </c>
       <c r="H76" s="3">
-        <v>170800</v>
+        <v>165500</v>
       </c>
       <c r="I76" s="3">
-        <v>-96100</v>
+        <v>-93200</v>
       </c>
       <c r="J76" s="3">
-        <v>-57500</v>
+        <v>-55700</v>
       </c>
       <c r="K76" s="3">
         <v>-36000</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-54300</v>
+        <v>-52700</v>
       </c>
       <c r="E81" s="3">
-        <v>-29300</v>
+        <v>-28400</v>
       </c>
       <c r="F81" s="3">
         <v>1000</v>
       </c>
       <c r="G81" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="H81" s="3">
-        <v>-18800</v>
+        <v>-18200</v>
       </c>
       <c r="I81" s="3">
-        <v>-39100</v>
+        <v>-37900</v>
       </c>
       <c r="J81" s="3">
-        <v>-23700</v>
+        <v>-23000</v>
       </c>
       <c r="K81" s="3">
         <v>-15300</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41400</v>
+        <v>40100</v>
       </c>
       <c r="E83" s="3">
-        <v>37000</v>
+        <v>35800</v>
       </c>
       <c r="F83" s="3">
-        <v>27600</v>
+        <v>26800</v>
       </c>
       <c r="G83" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="H83" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="I83" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="J83" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K83" s="3">
         <v>3500</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>64300</v>
+        <v>62300</v>
       </c>
       <c r="E89" s="3">
-        <v>47500</v>
+        <v>46000</v>
       </c>
       <c r="F89" s="3">
-        <v>27600</v>
+        <v>26800</v>
       </c>
       <c r="G89" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="J89" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-244300</v>
+        <v>-236700</v>
       </c>
       <c r="E91" s="3">
-        <v>-236700</v>
+        <v>-229400</v>
       </c>
       <c r="F91" s="3">
-        <v>-336300</v>
+        <v>-325900</v>
       </c>
       <c r="G91" s="3">
-        <v>-253900</v>
+        <v>-246000</v>
       </c>
       <c r="H91" s="3">
-        <v>-199200</v>
+        <v>-193100</v>
       </c>
       <c r="I91" s="3">
-        <v>-117500</v>
+        <v>-113900</v>
       </c>
       <c r="J91" s="3">
-        <v>-108900</v>
+        <v>-105500</v>
       </c>
       <c r="K91" s="3">
         <v>-5100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-244400</v>
+        <v>-236900</v>
       </c>
       <c r="E94" s="3">
-        <v>-235900</v>
+        <v>-228600</v>
       </c>
       <c r="F94" s="3">
-        <v>-336600</v>
+        <v>-326200</v>
       </c>
       <c r="G94" s="3">
-        <v>-233400</v>
+        <v>-226200</v>
       </c>
       <c r="H94" s="3">
-        <v>-283500</v>
+        <v>-274700</v>
       </c>
       <c r="I94" s="3">
-        <v>-118300</v>
+        <v>-114700</v>
       </c>
       <c r="J94" s="3">
-        <v>-116900</v>
+        <v>-113300</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>195000</v>
+        <v>189000</v>
       </c>
       <c r="E100" s="3">
-        <v>208600</v>
+        <v>202100</v>
       </c>
       <c r="F100" s="3">
-        <v>347400</v>
+        <v>336600</v>
       </c>
       <c r="G100" s="3">
-        <v>217300</v>
+        <v>210500</v>
       </c>
       <c r="H100" s="3">
-        <v>314400</v>
+        <v>304600</v>
       </c>
       <c r="I100" s="3">
-        <v>122300</v>
+        <v>118500</v>
       </c>
       <c r="J100" s="3">
-        <v>125000</v>
+        <v>121100</v>
       </c>
       <c r="K100" s="3">
         <v>14600</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="E102" s="3">
-        <v>19800</v>
+        <v>19200</v>
       </c>
       <c r="F102" s="3">
-        <v>37500</v>
+        <v>36300</v>
       </c>
       <c r="G102" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="H102" s="3">
-        <v>30600</v>
+        <v>29700</v>
       </c>
       <c r="I102" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="J102" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K102" s="3">
         <v>14100</v>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>190800</v>
+        <v>188900</v>
       </c>
       <c r="E8" s="3">
-        <v>162200</v>
+        <v>160700</v>
       </c>
       <c r="F8" s="3">
-        <v>124300</v>
+        <v>123100</v>
       </c>
       <c r="G8" s="3">
-        <v>96400</v>
+        <v>95500</v>
       </c>
       <c r="H8" s="3">
-        <v>52400</v>
+        <v>51900</v>
       </c>
       <c r="I8" s="3">
-        <v>32900</v>
+        <v>32600</v>
       </c>
       <c r="J8" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="K8" s="3">
         <v>12100</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="E9" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="F9" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="G9" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="H9" s="3">
         <v>4700</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>175000</v>
+        <v>173300</v>
       </c>
       <c r="E10" s="3">
-        <v>147900</v>
+        <v>146500</v>
       </c>
       <c r="F10" s="3">
-        <v>113400</v>
+        <v>112300</v>
       </c>
       <c r="G10" s="3">
-        <v>87700</v>
+        <v>86900</v>
       </c>
       <c r="H10" s="3">
-        <v>47700</v>
+        <v>47200</v>
       </c>
       <c r="I10" s="3">
-        <v>30500</v>
+        <v>30200</v>
       </c>
       <c r="J10" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="K10" s="3">
         <v>11400</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -953,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>40100</v>
+        <v>39700</v>
       </c>
       <c r="E15" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="F15" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="G15" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="H15" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I15" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="J15" s="3">
         <v>4000</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>134000</v>
+        <v>132800</v>
       </c>
       <c r="E17" s="3">
-        <v>80600</v>
+        <v>79900</v>
       </c>
       <c r="F17" s="3">
-        <v>54100</v>
+        <v>53600</v>
       </c>
       <c r="G17" s="3">
-        <v>47100</v>
+        <v>46600</v>
       </c>
       <c r="H17" s="3">
-        <v>27800</v>
+        <v>27500</v>
       </c>
       <c r="I17" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="J17" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="K17" s="3">
         <v>7400</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>56700</v>
+        <v>56200</v>
       </c>
       <c r="E18" s="3">
-        <v>81600</v>
+        <v>80800</v>
       </c>
       <c r="F18" s="3">
-        <v>70200</v>
+        <v>69500</v>
       </c>
       <c r="G18" s="3">
-        <v>49300</v>
+        <v>48800</v>
       </c>
       <c r="H18" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="I18" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="J18" s="3">
         <v>3700</v>
@@ -1090,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="F20" s="3">
         <v>1900</v>
@@ -1105,10 +1105,10 @@
         <v>2200</v>
       </c>
       <c r="I20" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="J20" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="K20" s="3">
         <v>-10800</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>96400</v>
+        <v>95100</v>
       </c>
       <c r="E21" s="3">
-        <v>108500</v>
+        <v>107200</v>
       </c>
       <c r="F21" s="3">
-        <v>98900</v>
+        <v>97700</v>
       </c>
       <c r="G21" s="3">
-        <v>71500</v>
+        <v>70600</v>
       </c>
       <c r="H21" s="3">
-        <v>39900</v>
+        <v>39400</v>
       </c>
       <c r="I21" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="J21" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K21" s="3">
         <v>-2600</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105200</v>
+        <v>104100</v>
       </c>
       <c r="E22" s="3">
-        <v>95800</v>
+        <v>94900</v>
       </c>
       <c r="F22" s="3">
-        <v>68500</v>
+        <v>67800</v>
       </c>
       <c r="G22" s="3">
-        <v>63900</v>
+        <v>63300</v>
       </c>
       <c r="H22" s="3">
-        <v>30500</v>
+        <v>30200</v>
       </c>
       <c r="I22" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="J22" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="K22" s="3">
         <v>4300</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-48900</v>
+        <v>-48400</v>
       </c>
       <c r="E23" s="3">
-        <v>-23100</v>
+        <v>-22900</v>
       </c>
       <c r="F23" s="3">
         <v>3600</v>
       </c>
       <c r="G23" s="3">
-        <v>-16000</v>
+        <v>-15800</v>
       </c>
       <c r="H23" s="3">
         <v>-3700</v>
       </c>
       <c r="I23" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="J23" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="K23" s="3">
         <v>-10400</v>
@@ -1243,16 +1243,16 @@
         <v>1900</v>
       </c>
       <c r="G24" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H24" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="I24" s="3">
         <v>4100</v>
       </c>
       <c r="J24" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52600</v>
+        <v>-52100</v>
       </c>
       <c r="E26" s="3">
-        <v>-29300</v>
+        <v>-29000</v>
       </c>
       <c r="F26" s="3">
         <v>1700</v>
       </c>
       <c r="G26" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="H26" s="3">
-        <v>-14900</v>
+        <v>-14800</v>
       </c>
       <c r="I26" s="3">
-        <v>-20700</v>
+        <v>-20500</v>
       </c>
       <c r="J26" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="K26" s="3">
         <v>-10700</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52700</v>
+        <v>-52200</v>
       </c>
       <c r="E27" s="3">
-        <v>-28400</v>
+        <v>-28100</v>
       </c>
       <c r="F27" s="3">
         <v>1000</v>
       </c>
       <c r="G27" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="H27" s="3">
-        <v>-18200</v>
+        <v>-18000</v>
       </c>
       <c r="I27" s="3">
-        <v>-37900</v>
+        <v>-37500</v>
       </c>
       <c r="J27" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="K27" s="3">
         <v>-15300</v>
@@ -1522,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="F32" s="3">
         <v>-1900</v>
@@ -1537,10 +1537,10 @@
         <v>-2200</v>
       </c>
       <c r="I32" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="J32" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="K32" s="3">
         <v>10800</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52700</v>
+        <v>-52200</v>
       </c>
       <c r="E33" s="3">
-        <v>-28400</v>
+        <v>-28100</v>
       </c>
       <c r="F33" s="3">
         <v>1000</v>
       </c>
       <c r="G33" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="H33" s="3">
-        <v>-18200</v>
+        <v>-18000</v>
       </c>
       <c r="I33" s="3">
-        <v>-37900</v>
+        <v>-37500</v>
       </c>
       <c r="J33" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="K33" s="3">
         <v>-15300</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52700</v>
+        <v>-52200</v>
       </c>
       <c r="E35" s="3">
-        <v>-28400</v>
+        <v>-28100</v>
       </c>
       <c r="F35" s="3">
         <v>1000</v>
       </c>
       <c r="G35" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="H35" s="3">
-        <v>-18200</v>
+        <v>-18000</v>
       </c>
       <c r="I35" s="3">
-        <v>-37900</v>
+        <v>-37500</v>
       </c>
       <c r="J35" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="K35" s="3">
         <v>-15300</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="E41" s="3">
-        <v>36300</v>
+        <v>36000</v>
       </c>
       <c r="F41" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="G41" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="H41" s="3">
-        <v>57800</v>
+        <v>57200</v>
       </c>
       <c r="I41" s="3">
-        <v>35000</v>
+        <v>34700</v>
       </c>
       <c r="J41" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="K41" s="3">
         <v>14300</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>124400</v>
+        <v>123200</v>
       </c>
       <c r="E42" s="3">
-        <v>86300</v>
+        <v>85400</v>
       </c>
       <c r="F42" s="3">
-        <v>100200</v>
+        <v>99200</v>
       </c>
       <c r="G42" s="3">
-        <v>101400</v>
+        <v>100400</v>
       </c>
       <c r="H42" s="3">
-        <v>51900</v>
+        <v>51400</v>
       </c>
       <c r="I42" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J42" s="3">
         <v>1200</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65000</v>
+        <v>64400</v>
       </c>
       <c r="E43" s="3">
-        <v>58700</v>
+        <v>58200</v>
       </c>
       <c r="F43" s="3">
-        <v>44400</v>
+        <v>44000</v>
       </c>
       <c r="G43" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="H43" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="I43" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="J43" s="3">
         <v>3100</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>126000</v>
+        <v>124800</v>
       </c>
       <c r="E45" s="3">
-        <v>78400</v>
+        <v>77600</v>
       </c>
       <c r="F45" s="3">
-        <v>41400</v>
+        <v>41000</v>
       </c>
       <c r="G45" s="3">
-        <v>40900</v>
+        <v>40500</v>
       </c>
       <c r="H45" s="3">
-        <v>50900</v>
+        <v>50400</v>
       </c>
       <c r="I45" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="J45" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="K45" s="3">
         <v>2200</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>330100</v>
+        <v>326900</v>
       </c>
       <c r="E46" s="3">
-        <v>259700</v>
+        <v>257200</v>
       </c>
       <c r="F46" s="3">
-        <v>217900</v>
+        <v>215800</v>
       </c>
       <c r="G46" s="3">
-        <v>193700</v>
+        <v>191900</v>
       </c>
       <c r="H46" s="3">
-        <v>175500</v>
+        <v>173900</v>
       </c>
       <c r="I46" s="3">
-        <v>62400</v>
+        <v>61800</v>
       </c>
       <c r="J46" s="3">
-        <v>41500</v>
+        <v>41100</v>
       </c>
       <c r="K46" s="3">
         <v>26800</v>
@@ -1955,7 +1955,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E47" s="3">
         <v>3700</v>
@@ -1970,7 +1970,7 @@
         <v>1700</v>
       </c>
       <c r="I47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J47" s="3">
         <v>1100</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1415500</v>
+        <v>1402000</v>
       </c>
       <c r="E48" s="3">
-        <v>1257300</v>
+        <v>1245300</v>
       </c>
       <c r="F48" s="3">
-        <v>1044700</v>
+        <v>1034700</v>
       </c>
       <c r="G48" s="3">
-        <v>708400</v>
+        <v>701600</v>
       </c>
       <c r="H48" s="3">
-        <v>512600</v>
+        <v>507700</v>
       </c>
       <c r="I48" s="3">
-        <v>305300</v>
+        <v>302300</v>
       </c>
       <c r="J48" s="3">
-        <v>189600</v>
+        <v>187800</v>
       </c>
       <c r="K48" s="3">
         <v>82900</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>109600</v>
+        <v>108600</v>
       </c>
       <c r="E52" s="3">
-        <v>136200</v>
+        <v>134900</v>
       </c>
       <c r="F52" s="3">
-        <v>93100</v>
+        <v>92200</v>
       </c>
       <c r="G52" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="H52" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="I52" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="J52" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="K52" s="3">
         <v>16300</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1858800</v>
+        <v>1841000</v>
       </c>
       <c r="E54" s="3">
-        <v>1657700</v>
+        <v>1641800</v>
       </c>
       <c r="F54" s="3">
-        <v>1363000</v>
+        <v>1349900</v>
       </c>
       <c r="G54" s="3">
-        <v>926300</v>
+        <v>917400</v>
       </c>
       <c r="H54" s="3">
-        <v>719800</v>
+        <v>712900</v>
       </c>
       <c r="I54" s="3">
-        <v>386800</v>
+        <v>383000</v>
       </c>
       <c r="J54" s="3">
-        <v>249400</v>
+        <v>247100</v>
       </c>
       <c r="K54" s="3">
         <v>127400</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>53800</v>
+        <v>53200</v>
       </c>
       <c r="E57" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="F57" s="3">
-        <v>43500</v>
+        <v>43100</v>
       </c>
       <c r="G57" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="H57" s="3">
-        <v>45300</v>
+        <v>44900</v>
       </c>
       <c r="I57" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="J57" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>170300</v>
+        <v>168700</v>
       </c>
       <c r="E58" s="3">
-        <v>41000</v>
+        <v>40600</v>
       </c>
       <c r="F58" s="3">
-        <v>126600</v>
+        <v>125400</v>
       </c>
       <c r="G58" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="H58" s="3">
-        <v>50300</v>
+        <v>49800</v>
       </c>
       <c r="I58" s="3">
-        <v>71800</v>
+        <v>71100</v>
       </c>
       <c r="J58" s="3">
-        <v>28200</v>
+        <v>28000</v>
       </c>
       <c r="K58" s="3">
         <v>26200</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>77200</v>
+        <v>76500</v>
       </c>
       <c r="E59" s="3">
-        <v>52000</v>
+        <v>51500</v>
       </c>
       <c r="F59" s="3">
-        <v>42700</v>
+        <v>42300</v>
       </c>
       <c r="G59" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="H59" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="I59" s="3">
         <v>5800</v>
       </c>
       <c r="J59" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>301300</v>
+        <v>298400</v>
       </c>
       <c r="E60" s="3">
-        <v>115500</v>
+        <v>114400</v>
       </c>
       <c r="F60" s="3">
-        <v>212900</v>
+        <v>210900</v>
       </c>
       <c r="G60" s="3">
-        <v>64500</v>
+        <v>63800</v>
       </c>
       <c r="H60" s="3">
-        <v>107900</v>
+        <v>106900</v>
       </c>
       <c r="I60" s="3">
-        <v>101400</v>
+        <v>100500</v>
       </c>
       <c r="J60" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="K60" s="3">
         <v>28100</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1125800</v>
+        <v>1115000</v>
       </c>
       <c r="E61" s="3">
-        <v>1084100</v>
+        <v>1073700</v>
       </c>
       <c r="F61" s="3">
-        <v>772000</v>
+        <v>764600</v>
       </c>
       <c r="G61" s="3">
-        <v>654000</v>
+        <v>647700</v>
       </c>
       <c r="H61" s="3">
-        <v>389900</v>
+        <v>386200</v>
       </c>
       <c r="I61" s="3">
-        <v>229800</v>
+        <v>227600</v>
       </c>
       <c r="J61" s="3">
-        <v>193800</v>
+        <v>191900</v>
       </c>
       <c r="K61" s="3">
         <v>97700</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>125600</v>
+        <v>124300</v>
       </c>
       <c r="E62" s="3">
-        <v>117300</v>
+        <v>116200</v>
       </c>
       <c r="F62" s="3">
-        <v>60100</v>
+        <v>59600</v>
       </c>
       <c r="G62" s="3">
-        <v>41600</v>
+        <v>41200</v>
       </c>
       <c r="H62" s="3">
-        <v>35200</v>
+        <v>34900</v>
       </c>
       <c r="I62" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="J62" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="K62" s="3">
         <v>4700</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1555200</v>
+        <v>1540300</v>
       </c>
       <c r="E66" s="3">
-        <v>1319400</v>
+        <v>1306700</v>
       </c>
       <c r="F66" s="3">
-        <v>1048300</v>
+        <v>1038300</v>
       </c>
       <c r="G66" s="3">
-        <v>774600</v>
+        <v>767100</v>
       </c>
       <c r="H66" s="3">
-        <v>554300</v>
+        <v>549000</v>
       </c>
       <c r="I66" s="3">
-        <v>358000</v>
+        <v>354600</v>
       </c>
       <c r="J66" s="3">
-        <v>246400</v>
+        <v>244000</v>
       </c>
       <c r="K66" s="3">
         <v>130600</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>121900</v>
+        <v>120700</v>
       </c>
       <c r="J70" s="3">
-        <v>58700</v>
+        <v>58200</v>
       </c>
       <c r="K70" s="3">
         <v>32800</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-160100</v>
+        <v>-158500</v>
       </c>
       <c r="E72" s="3">
-        <v>-107400</v>
+        <v>-106400</v>
       </c>
       <c r="F72" s="3">
-        <v>-79000</v>
+        <v>-78300</v>
       </c>
       <c r="G72" s="3">
-        <v>-82600</v>
+        <v>-81800</v>
       </c>
       <c r="H72" s="3">
-        <v>-71700</v>
+        <v>-71000</v>
       </c>
       <c r="I72" s="3">
-        <v>-56400</v>
+        <v>-55900</v>
       </c>
       <c r="J72" s="3">
-        <v>-35400</v>
+        <v>-35100</v>
       </c>
       <c r="K72" s="3">
         <v>-24000</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>303600</v>
+        <v>300700</v>
       </c>
       <c r="E76" s="3">
-        <v>338300</v>
+        <v>335000</v>
       </c>
       <c r="F76" s="3">
-        <v>314600</v>
+        <v>311600</v>
       </c>
       <c r="G76" s="3">
-        <v>151700</v>
+        <v>150300</v>
       </c>
       <c r="H76" s="3">
-        <v>165500</v>
+        <v>164000</v>
       </c>
       <c r="I76" s="3">
-        <v>-93200</v>
+        <v>-92200</v>
       </c>
       <c r="J76" s="3">
-        <v>-55700</v>
+        <v>-55200</v>
       </c>
       <c r="K76" s="3">
         <v>-36000</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52700</v>
+        <v>-52200</v>
       </c>
       <c r="E81" s="3">
-        <v>-28400</v>
+        <v>-28100</v>
       </c>
       <c r="F81" s="3">
         <v>1000</v>
       </c>
       <c r="G81" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="H81" s="3">
-        <v>-18200</v>
+        <v>-18000</v>
       </c>
       <c r="I81" s="3">
-        <v>-37900</v>
+        <v>-37500</v>
       </c>
       <c r="J81" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="K81" s="3">
         <v>-15300</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>40100</v>
+        <v>39700</v>
       </c>
       <c r="E83" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="F83" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="G83" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="H83" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I83" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="J83" s="3">
         <v>4000</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62300</v>
+        <v>61700</v>
       </c>
       <c r="E89" s="3">
-        <v>46000</v>
+        <v>45600</v>
       </c>
       <c r="F89" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="G89" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="J89" s="3">
         <v>-2200</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-236700</v>
+        <v>-234500</v>
       </c>
       <c r="E91" s="3">
-        <v>-229400</v>
+        <v>-227200</v>
       </c>
       <c r="F91" s="3">
-        <v>-325900</v>
+        <v>-322800</v>
       </c>
       <c r="G91" s="3">
-        <v>-246000</v>
+        <v>-243600</v>
       </c>
       <c r="H91" s="3">
-        <v>-193100</v>
+        <v>-191200</v>
       </c>
       <c r="I91" s="3">
-        <v>-113900</v>
+        <v>-112800</v>
       </c>
       <c r="J91" s="3">
-        <v>-105500</v>
+        <v>-104500</v>
       </c>
       <c r="K91" s="3">
         <v>-5100</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-236900</v>
+        <v>-234600</v>
       </c>
       <c r="E94" s="3">
-        <v>-228600</v>
+        <v>-226400</v>
       </c>
       <c r="F94" s="3">
-        <v>-326200</v>
+        <v>-323100</v>
       </c>
       <c r="G94" s="3">
-        <v>-226200</v>
+        <v>-224000</v>
       </c>
       <c r="H94" s="3">
-        <v>-274700</v>
+        <v>-272100</v>
       </c>
       <c r="I94" s="3">
-        <v>-114700</v>
+        <v>-113600</v>
       </c>
       <c r="J94" s="3">
-        <v>-113300</v>
+        <v>-112200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>189000</v>
+        <v>187100</v>
       </c>
       <c r="E100" s="3">
-        <v>202100</v>
+        <v>200200</v>
       </c>
       <c r="F100" s="3">
-        <v>336600</v>
+        <v>333400</v>
       </c>
       <c r="G100" s="3">
-        <v>210500</v>
+        <v>208500</v>
       </c>
       <c r="H100" s="3">
-        <v>304600</v>
+        <v>301700</v>
       </c>
       <c r="I100" s="3">
-        <v>118500</v>
+        <v>117400</v>
       </c>
       <c r="J100" s="3">
-        <v>121100</v>
+        <v>119900</v>
       </c>
       <c r="K100" s="3">
         <v>14600</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="E102" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="F102" s="3">
-        <v>36300</v>
+        <v>36000</v>
       </c>
       <c r="G102" s="3">
         <v>7600</v>
       </c>
       <c r="H102" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="I102" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="J102" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="K102" s="3">
         <v>14100</v>

--- a/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AZRE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>188900</v>
+        <v>62400</v>
       </c>
       <c r="E8" s="3">
-        <v>160700</v>
+        <v>185700</v>
       </c>
       <c r="F8" s="3">
-        <v>123100</v>
+        <v>158000</v>
       </c>
       <c r="G8" s="3">
-        <v>95500</v>
+        <v>121000</v>
       </c>
       <c r="H8" s="3">
-        <v>51900</v>
+        <v>93900</v>
       </c>
       <c r="I8" s="3">
-        <v>32600</v>
+        <v>51000</v>
       </c>
       <c r="J8" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K8" s="3">
         <v>13900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>15600</v>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>14200</v>
+        <v>15400</v>
       </c>
       <c r="F9" s="3">
-        <v>10800</v>
+        <v>14000</v>
       </c>
       <c r="G9" s="3">
-        <v>8600</v>
+        <v>10600</v>
       </c>
       <c r="H9" s="3">
-        <v>4700</v>
+        <v>8400</v>
       </c>
       <c r="I9" s="3">
-        <v>2400</v>
+        <v>4600</v>
       </c>
       <c r="J9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>173300</v>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>146500</v>
+        <v>170400</v>
       </c>
       <c r="F10" s="3">
-        <v>112300</v>
+        <v>144000</v>
       </c>
       <c r="G10" s="3">
-        <v>86900</v>
+        <v>110400</v>
       </c>
       <c r="H10" s="3">
-        <v>47200</v>
+        <v>85400</v>
       </c>
       <c r="I10" s="3">
-        <v>30200</v>
+        <v>46400</v>
       </c>
       <c r="J10" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K10" s="3">
         <v>12900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,17 +926,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>40400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>39700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -937,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -946,45 +965,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>39700</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>35500</v>
+        <v>39000</v>
       </c>
       <c r="F15" s="3">
-        <v>26500</v>
+        <v>34900</v>
       </c>
       <c r="G15" s="3">
-        <v>23300</v>
+        <v>26100</v>
       </c>
       <c r="H15" s="3">
-        <v>13000</v>
+        <v>22900</v>
       </c>
       <c r="I15" s="3">
-        <v>8500</v>
+        <v>12800</v>
       </c>
       <c r="J15" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K15" s="3">
         <v>4000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1700</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>132800</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>79900</v>
+        <v>130500</v>
       </c>
       <c r="F17" s="3">
-        <v>53600</v>
+        <v>78500</v>
       </c>
       <c r="G17" s="3">
-        <v>46600</v>
+        <v>52700</v>
       </c>
       <c r="H17" s="3">
-        <v>27500</v>
+        <v>45900</v>
       </c>
       <c r="I17" s="3">
-        <v>19200</v>
+        <v>27100</v>
       </c>
       <c r="J17" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K17" s="3">
         <v>10300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>56200</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>80800</v>
+        <v>55200</v>
       </c>
       <c r="F18" s="3">
-        <v>69500</v>
+        <v>79500</v>
       </c>
       <c r="G18" s="3">
-        <v>48800</v>
+        <v>68300</v>
       </c>
       <c r="H18" s="3">
-        <v>24300</v>
+        <v>48000</v>
       </c>
       <c r="I18" s="3">
-        <v>13300</v>
+        <v>23900</v>
       </c>
       <c r="J18" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K18" s="3">
         <v>3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>-8800</v>
-      </c>
       <c r="F20" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H20" s="3">
-        <v>2200</v>
+        <v>-1300</v>
       </c>
       <c r="I20" s="3">
-        <v>-10600</v>
+        <v>2100</v>
       </c>
       <c r="J20" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>95100</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>107200</v>
+        <v>93800</v>
       </c>
       <c r="F21" s="3">
-        <v>97700</v>
+        <v>105700</v>
       </c>
       <c r="G21" s="3">
-        <v>70600</v>
+        <v>96300</v>
       </c>
       <c r="H21" s="3">
-        <v>39400</v>
+        <v>69600</v>
       </c>
       <c r="I21" s="3">
-        <v>11200</v>
+        <v>38900</v>
       </c>
       <c r="J21" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>104100</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>94900</v>
+        <v>102400</v>
       </c>
       <c r="F22" s="3">
-        <v>67800</v>
+        <v>93300</v>
       </c>
       <c r="G22" s="3">
-        <v>63300</v>
+        <v>66700</v>
       </c>
       <c r="H22" s="3">
-        <v>30200</v>
+        <v>62200</v>
       </c>
       <c r="I22" s="3">
-        <v>19200</v>
+        <v>29700</v>
       </c>
       <c r="J22" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K22" s="3">
         <v>7400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-48400</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>-22900</v>
+        <v>-47600</v>
       </c>
       <c r="F23" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="G23" s="3">
         <v>3600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-15800</v>
-      </c>
       <c r="H23" s="3">
-        <v>-3700</v>
+        <v>-15500</v>
       </c>
       <c r="I23" s="3">
-        <v>-16500</v>
+        <v>-3600</v>
       </c>
       <c r="J23" s="3">
-        <v>-10400</v>
+        <v>-16200</v>
       </c>
       <c r="K23" s="3">
         <v>-10400</v>
       </c>
       <c r="L23" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="3">
-        <v>6100</v>
+        <v>3600</v>
       </c>
       <c r="F24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
-        <v>11100</v>
-      </c>
       <c r="I24" s="3">
-        <v>4100</v>
+        <v>10900</v>
       </c>
       <c r="J24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-52100</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>-29000</v>
+        <v>-51200</v>
       </c>
       <c r="F26" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-14100</v>
-      </c>
       <c r="H26" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="I26" s="3">
-        <v>-20500</v>
+        <v>-14500</v>
       </c>
       <c r="J26" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-52200</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>-28100</v>
+        <v>-51300</v>
       </c>
       <c r="F27" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-11700</v>
-      </c>
       <c r="H27" s="3">
-        <v>-18000</v>
+        <v>-11500</v>
       </c>
       <c r="I27" s="3">
-        <v>-37500</v>
+        <v>-17700</v>
       </c>
       <c r="J27" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-22800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1419,15 +1479,15 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>1400</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>8800</v>
-      </c>
       <c r="F32" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
-        <v>1400</v>
-      </c>
       <c r="H32" s="3">
-        <v>-2200</v>
+        <v>1300</v>
       </c>
       <c r="I32" s="3">
-        <v>10600</v>
+        <v>-2100</v>
       </c>
       <c r="J32" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K32" s="3">
         <v>6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-52200</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>-28100</v>
+        <v>-51300</v>
       </c>
       <c r="F33" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-10300</v>
-      </c>
       <c r="H33" s="3">
-        <v>-18000</v>
+        <v>-10100</v>
       </c>
       <c r="I33" s="3">
-        <v>-37500</v>
+        <v>-17700</v>
       </c>
       <c r="J33" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-22800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-52200</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>-28100</v>
+        <v>-51300</v>
       </c>
       <c r="F35" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-10300</v>
-      </c>
       <c r="H35" s="3">
-        <v>-18000</v>
+        <v>-10100</v>
       </c>
       <c r="I35" s="3">
-        <v>-37500</v>
+        <v>-17700</v>
       </c>
       <c r="J35" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-22800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,116 +1818,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14500</v>
+        <v>8200</v>
       </c>
       <c r="E41" s="3">
-        <v>36000</v>
+        <v>14300</v>
       </c>
       <c r="F41" s="3">
-        <v>31500</v>
+        <v>35400</v>
       </c>
       <c r="G41" s="3">
-        <v>20200</v>
+        <v>31000</v>
       </c>
       <c r="H41" s="3">
-        <v>57200</v>
+        <v>19900</v>
       </c>
       <c r="I41" s="3">
-        <v>34700</v>
+        <v>56200</v>
       </c>
       <c r="J41" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K41" s="3">
         <v>24200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>123200</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>85400</v>
+        <v>121100</v>
       </c>
       <c r="F42" s="3">
-        <v>99200</v>
+        <v>84000</v>
       </c>
       <c r="G42" s="3">
-        <v>100400</v>
+        <v>97600</v>
       </c>
       <c r="H42" s="3">
-        <v>51400</v>
+        <v>98700</v>
       </c>
       <c r="I42" s="3">
+        <v>50500</v>
+      </c>
+      <c r="J42" s="3">
         <v>3600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>64400</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>58200</v>
+        <v>63300</v>
       </c>
       <c r="F43" s="3">
-        <v>44000</v>
+        <v>57200</v>
       </c>
       <c r="G43" s="3">
-        <v>30700</v>
+        <v>43300</v>
       </c>
       <c r="H43" s="3">
-        <v>14900</v>
+        <v>30200</v>
       </c>
       <c r="I43" s="3">
-        <v>7200</v>
+        <v>14700</v>
       </c>
       <c r="J43" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,189 +1971,207 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>124800</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>77600</v>
+        <v>122700</v>
       </c>
       <c r="F45" s="3">
-        <v>41000</v>
+        <v>76300</v>
       </c>
       <c r="G45" s="3">
-        <v>40500</v>
+        <v>40300</v>
       </c>
       <c r="H45" s="3">
-        <v>50400</v>
+        <v>39900</v>
       </c>
       <c r="I45" s="3">
-        <v>16300</v>
+        <v>49500</v>
       </c>
       <c r="J45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K45" s="3">
         <v>12700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>326900</v>
+        <v>45500</v>
       </c>
       <c r="E46" s="3">
-        <v>257200</v>
+        <v>321400</v>
       </c>
       <c r="F46" s="3">
-        <v>215800</v>
+        <v>252900</v>
       </c>
       <c r="G46" s="3">
-        <v>191900</v>
+        <v>212100</v>
       </c>
       <c r="H46" s="3">
-        <v>173900</v>
+        <v>188600</v>
       </c>
       <c r="I46" s="3">
-        <v>61800</v>
+        <v>170900</v>
       </c>
       <c r="J46" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K46" s="3">
         <v>41100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>3100</v>
       </c>
-      <c r="E47" s="3">
-        <v>3700</v>
-      </c>
       <c r="F47" s="3">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H47" s="3">
         <v>2000</v>
       </c>
-      <c r="H47" s="3">
-        <v>1700</v>
-      </c>
       <c r="I47" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="J47" s="3">
         <v>1100</v>
       </c>
       <c r="K47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L47" s="3">
         <v>1300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1402000</v>
+        <v>9100</v>
       </c>
       <c r="E48" s="3">
-        <v>1245300</v>
+        <v>1378200</v>
       </c>
       <c r="F48" s="3">
-        <v>1034700</v>
+        <v>1224200</v>
       </c>
       <c r="G48" s="3">
-        <v>701600</v>
+        <v>1017200</v>
       </c>
       <c r="H48" s="3">
-        <v>507700</v>
+        <v>689700</v>
       </c>
       <c r="I48" s="3">
-        <v>302300</v>
+        <v>499100</v>
       </c>
       <c r="J48" s="3">
+        <v>297200</v>
+      </c>
+      <c r="K48" s="3">
         <v>187800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>78100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>700</v>
       </c>
-      <c r="F49" s="3">
-        <v>4900</v>
-      </c>
       <c r="G49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>108600</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>134900</v>
+        <v>106700</v>
       </c>
       <c r="F52" s="3">
-        <v>92200</v>
+        <v>132600</v>
       </c>
       <c r="G52" s="3">
-        <v>20000</v>
+        <v>90600</v>
       </c>
       <c r="H52" s="3">
-        <v>28100</v>
+        <v>19700</v>
       </c>
       <c r="I52" s="3">
-        <v>16400</v>
+        <v>27600</v>
       </c>
       <c r="J52" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K52" s="3">
         <v>15900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1841000</v>
+        <v>490400</v>
       </c>
       <c r="E54" s="3">
-        <v>1641800</v>
+        <v>1809800</v>
       </c>
       <c r="F54" s="3">
-        <v>1349900</v>
+        <v>1614000</v>
       </c>
       <c r="G54" s="3">
-        <v>917400</v>
+        <v>1327000</v>
       </c>
       <c r="H54" s="3">
-        <v>712900</v>
+        <v>901900</v>
       </c>
       <c r="I54" s="3">
-        <v>383000</v>
+        <v>700900</v>
       </c>
       <c r="J54" s="3">
+        <v>376600</v>
+      </c>
+      <c r="K54" s="3">
         <v>247100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>127400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>107500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>53200</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>22300</v>
+        <v>52300</v>
       </c>
       <c r="F57" s="3">
-        <v>43100</v>
+        <v>21900</v>
       </c>
       <c r="G57" s="3">
-        <v>18900</v>
+        <v>42400</v>
       </c>
       <c r="H57" s="3">
-        <v>44900</v>
+        <v>18600</v>
       </c>
       <c r="I57" s="3">
-        <v>23600</v>
+        <v>44100</v>
       </c>
       <c r="J57" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K57" s="3">
         <v>12000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>168700</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>40600</v>
+        <v>165800</v>
       </c>
       <c r="F58" s="3">
-        <v>125400</v>
+        <v>40000</v>
       </c>
       <c r="G58" s="3">
-        <v>21200</v>
+        <v>123300</v>
       </c>
       <c r="H58" s="3">
-        <v>49800</v>
+        <v>20800</v>
       </c>
       <c r="I58" s="3">
-        <v>71100</v>
+        <v>48900</v>
       </c>
       <c r="J58" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K58" s="3">
         <v>28000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>76500</v>
+        <v>9000</v>
       </c>
       <c r="E59" s="3">
-        <v>51500</v>
+        <v>75200</v>
       </c>
       <c r="F59" s="3">
-        <v>42300</v>
+        <v>50600</v>
       </c>
       <c r="G59" s="3">
-        <v>23800</v>
+        <v>41600</v>
       </c>
       <c r="H59" s="3">
-        <v>12200</v>
+        <v>23400</v>
       </c>
       <c r="I59" s="3">
-        <v>5800</v>
+        <v>12000</v>
       </c>
       <c r="J59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>298400</v>
+        <v>24500</v>
       </c>
       <c r="E60" s="3">
-        <v>114400</v>
+        <v>293300</v>
       </c>
       <c r="F60" s="3">
-        <v>210900</v>
+        <v>112500</v>
       </c>
       <c r="G60" s="3">
-        <v>63800</v>
+        <v>207300</v>
       </c>
       <c r="H60" s="3">
-        <v>106900</v>
+        <v>62800</v>
       </c>
       <c r="I60" s="3">
-        <v>100500</v>
+        <v>105100</v>
       </c>
       <c r="J60" s="3">
+        <v>98800</v>
+      </c>
+      <c r="K60" s="3">
         <v>45500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1115000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1073700</v>
+        <v>1096100</v>
       </c>
       <c r="F61" s="3">
-        <v>764600</v>
+        <v>1055500</v>
       </c>
       <c r="G61" s="3">
-        <v>647700</v>
+        <v>751600</v>
       </c>
       <c r="H61" s="3">
-        <v>386200</v>
+        <v>636700</v>
       </c>
       <c r="I61" s="3">
-        <v>227600</v>
+        <v>379600</v>
       </c>
       <c r="J61" s="3">
+        <v>223700</v>
+      </c>
+      <c r="K61" s="3">
         <v>191900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>97700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>69900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>124300</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
-        <v>116200</v>
+        <v>122200</v>
       </c>
       <c r="F62" s="3">
-        <v>59600</v>
+        <v>114300</v>
       </c>
       <c r="G62" s="3">
-        <v>41200</v>
+        <v>58500</v>
       </c>
       <c r="H62" s="3">
-        <v>34900</v>
+        <v>40500</v>
       </c>
       <c r="I62" s="3">
-        <v>22300</v>
+        <v>34300</v>
       </c>
       <c r="J62" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K62" s="3">
         <v>6500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1540300</v>
+        <v>434000</v>
       </c>
       <c r="E66" s="3">
-        <v>1306700</v>
+        <v>1514200</v>
       </c>
       <c r="F66" s="3">
-        <v>1038300</v>
+        <v>1284600</v>
       </c>
       <c r="G66" s="3">
-        <v>767100</v>
+        <v>1020700</v>
       </c>
       <c r="H66" s="3">
-        <v>549000</v>
+        <v>754200</v>
       </c>
       <c r="I66" s="3">
-        <v>354600</v>
+        <v>539700</v>
       </c>
       <c r="J66" s="3">
+        <v>348600</v>
+      </c>
+      <c r="K66" s="3">
         <v>244000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>130600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2738,23 +2905,26 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>120700</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>118600</v>
+      </c>
+      <c r="K70" s="3">
         <v>58200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>32800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>26700</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-158500</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-106400</v>
+        <v>-155900</v>
       </c>
       <c r="F72" s="3">
-        <v>-78300</v>
+        <v>-104600</v>
       </c>
       <c r="G72" s="3">
-        <v>-81800</v>
+        <v>-76900</v>
       </c>
       <c r="H72" s="3">
-        <v>-71000</v>
+        <v>-80400</v>
       </c>
       <c r="I72" s="3">
-        <v>-55900</v>
+        <v>-69800</v>
       </c>
       <c r="J72" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-35100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>300700</v>
+      <c r="D76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>335000</v>
+        <v>295600</v>
       </c>
       <c r="F76" s="3">
-        <v>311600</v>
+        <v>329300</v>
       </c>
       <c r="G76" s="3">
-        <v>150300</v>
+        <v>306300</v>
       </c>
       <c r="H76" s="3">
-        <v>164000</v>
+        <v>147700</v>
       </c>
       <c r="I76" s="3">
-        <v>-92200</v>
+        <v>161200</v>
       </c>
       <c r="J76" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-55200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-36000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-20100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-52200</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>-28100</v>
+        <v>-51300</v>
       </c>
       <c r="F81" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-10300</v>
-      </c>
       <c r="H81" s="3">
-        <v>-18000</v>
+        <v>-10100</v>
       </c>
       <c r="I81" s="3">
-        <v>-37500</v>
+        <v>-17700</v>
       </c>
       <c r="J81" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-22800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>39700</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>35500</v>
+        <v>39000</v>
       </c>
       <c r="F83" s="3">
-        <v>26500</v>
+        <v>34900</v>
       </c>
       <c r="G83" s="3">
-        <v>23300</v>
+        <v>26100</v>
       </c>
       <c r="H83" s="3">
-        <v>13000</v>
+        <v>22900</v>
       </c>
       <c r="I83" s="3">
-        <v>8500</v>
+        <v>12800</v>
       </c>
       <c r="J83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>61700</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>45600</v>
+        <v>60700</v>
       </c>
       <c r="F89" s="3">
-        <v>26500</v>
+        <v>44800</v>
       </c>
       <c r="G89" s="3">
-        <v>23000</v>
+        <v>26100</v>
       </c>
       <c r="H89" s="3">
+        <v>22600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>9100</v>
-      </c>
       <c r="J89" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-234500</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-227200</v>
+        <v>-230500</v>
       </c>
       <c r="F91" s="3">
-        <v>-322800</v>
+        <v>-223300</v>
       </c>
       <c r="G91" s="3">
-        <v>-243600</v>
+        <v>-317300</v>
       </c>
       <c r="H91" s="3">
-        <v>-191200</v>
+        <v>-239500</v>
       </c>
       <c r="I91" s="3">
-        <v>-112800</v>
+        <v>-188000</v>
       </c>
       <c r="J91" s="3">
+        <v>-110900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-104500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-234600</v>
+        <v>-19100</v>
       </c>
       <c r="E94" s="3">
-        <v>-226400</v>
+        <v>-230600</v>
       </c>
       <c r="F94" s="3">
-        <v>-323100</v>
+        <v>-222500</v>
       </c>
       <c r="G94" s="3">
-        <v>-224000</v>
+        <v>-317600</v>
       </c>
       <c r="H94" s="3">
-        <v>-272100</v>
+        <v>-220200</v>
       </c>
       <c r="I94" s="3">
-        <v>-113600</v>
+        <v>-267500</v>
       </c>
       <c r="J94" s="3">
+        <v>-111600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-112200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,68 +3911,74 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>187100</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>200200</v>
+        <v>184000</v>
       </c>
       <c r="F100" s="3">
-        <v>333400</v>
+        <v>196800</v>
       </c>
       <c r="G100" s="3">
-        <v>208500</v>
+        <v>327800</v>
       </c>
       <c r="H100" s="3">
-        <v>301700</v>
+        <v>205000</v>
       </c>
       <c r="I100" s="3">
-        <v>117400</v>
+        <v>296600</v>
       </c>
       <c r="J100" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K100" s="3">
         <v>119900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
-        <v>-900</v>
-      </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3738,46 +3986,52 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>14400</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>19000</v>
+        <v>14100</v>
       </c>
       <c r="F102" s="3">
-        <v>36000</v>
+        <v>18700</v>
       </c>
       <c r="G102" s="3">
-        <v>7600</v>
+        <v>35400</v>
       </c>
       <c r="H102" s="3">
-        <v>29400</v>
+        <v>7400</v>
       </c>
       <c r="I102" s="3">
-        <v>13000</v>
+        <v>28900</v>
       </c>
       <c r="J102" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K102" s="3">
         <v>5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
